--- a/VT_Model_AGR.xlsx
+++ b/VT_Model_AGR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/TIMES-PL-PSE/Shared Documents/General/MODELE/2025/TIMES-PL - INTEGRACJA 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\Poprawy 2026\Model_AGR_aktualny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2212" documentId="8_{3EEE5ED1-3929-475A-87E4-43F2FA54E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E607E2-A89E-42F0-9F1D-7A2BA202001C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCCD391-FFAF-4BF8-9AFD-FA15ADEF295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="908" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="908" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="158" r:id="rId1"/>
@@ -951,25 +951,25 @@
   <commentList>
     <comment ref="N3" authorId="0" shapeId="0" xr:uid="{57982017-164E-496E-8A5A-5DB2EBB981AE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     t/rok, świeżej masy</t>
       </text>
     </comment>
     <comment ref="G33" authorId="1" shapeId="0" xr:uid="{26CE0628-6B75-4C8C-943C-79D539021549}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     stan na 2022 r. - brak danych GUS dla 2020</t>
       </text>
     </comment>
     <comment ref="P56" authorId="2" shapeId="0" xr:uid="{17F9EF01-5C4C-4EAF-A8D4-2ED13C9935F6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Brak danych dla 2020r. - pobrano dane z odpowiadającego dokumentu dla roku 2022.</t>
       </text>
     </comment>
@@ -989,33 +989,33 @@
   <commentList>
     <comment ref="G26" authorId="0" shapeId="0" xr:uid="{048E4A4B-B2A7-4C95-8913-B7D5F39EFB6B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Var_cap</t>
       </text>
     </comment>
     <comment ref="P26" authorId="1" shapeId="0" xr:uid="{F25D57A7-DA81-45F0-B1B5-DC6D28453F2B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Odpad świeży, ton/ha; pomniejszony do 33% - nadwyżka słomy. Nadwyżka słomy dostępnej do wykorzystania na potrzeby energetyczne w 2016 r. Hryniewicz, Grzybek </t>
       </text>
     </comment>
     <comment ref="P71" authorId="2" shapeId="0" xr:uid="{BE394215-FF53-463E-939D-42B35A404009}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Brak danych o uzysku odpadów.</t>
       </text>
     </comment>
     <comment ref="C88" authorId="3" shapeId="0" xr:uid="{28E661DA-59E0-498B-BDBC-CB24C1CB515E}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Powierzchnia uprawy, plony i zbiory:
 Jabłek w sadach
 Gruszek w sadach
@@ -1034,9 +1034,9 @@
     </comment>
     <comment ref="C93" authorId="4" shapeId="0" xr:uid="{BCAF5637-E2F4-4F03-8B75-49508CEAA675}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Powierzchnia, plony i zbiory z następujących warzyw: Kapusty gruntowej
 Kalafiorów gruntowych
 Cebuli gruntowej
@@ -1059,22 +1059,32 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={448E6D92-8F11-472F-B64A-4DA688ED5CC3}</author>
+    <author>tc={7883B344-32FB-4A32-BD9A-490678C2B240}</author>
     <author>tc={5616DBBB-A6C3-4D95-8004-9E9C9A0DDC8A}</author>
   </authors>
   <commentList>
     <comment ref="O3" authorId="0" shapeId="0" xr:uid="{448E6D92-8F11-472F-B64A-4DA688ED5CC3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Do znalezienia</t>
       </text>
     </comment>
-    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{5616DBBB-A6C3-4D95-8004-9E9C9A0DDC8A}">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{7883B344-32FB-4A32-BD9A-490678C2B240}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    Aktualizacja 05012026
+Obliczone wg. formuł niżej</t>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="2" shapeId="0" xr:uid="{5616DBBB-A6C3-4D95-8004-9E9C9A0DDC8A}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Wartość do sprawdzenia?</t>
       </text>
     </comment>
@@ -1090,9 +1100,9 @@
   <commentList>
     <comment ref="H7" authorId="0" shapeId="0" xr:uid="{48BFE17B-298D-4AB2-9A4D-9CB08198ED8C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Nowe!</t>
       </text>
     </comment>
@@ -1125,7 +1135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="809">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -3727,12 +3737,15 @@
   <si>
     <t>PRI_BIO_CH4_AGR</t>
   </si>
+  <si>
+    <t>all manure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -3742,8 +3755,9 @@
     <numFmt numFmtId="170" formatCode="0.0000%"/>
     <numFmt numFmtId="171" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4118,6 +4132,12 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="30">
     <fill>
@@ -4295,7 +4315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -5330,6 +5350,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5354,7 +5383,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="458">
+  <cellXfs count="472">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
@@ -6217,12 +6246,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="174" fontId="14" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="14" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="90" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="7" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Dziesiętny 3" xfId="14" xr:uid="{87C1AB9C-466C-4BCC-B431-1E04859FBA62}"/>
+    <cellStyle name="Hiperłącze" xfId="19" builtinId="8"/>
     <cellStyle name="Hiperłącze 2 4 2" xfId="17" xr:uid="{A0CEEC63-A083-4456-B266-E0B429C4C794}"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1 2 2 3" xfId="10" xr:uid="{E16E8035-7906-41CF-9CEA-6F8DAA1C40ED}"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 10 15 2" xfId="6" xr:uid="{E5A914AA-3C51-4575-A411-D47338308B02}"/>
@@ -6234,6 +6278,7 @@
     <cellStyle name="Normal 5 10 2" xfId="9" xr:uid="{6F94C9BF-24A8-4873-87B6-BDB164E6CACC}"/>
     <cellStyle name="Normal 5 10 2 2" xfId="18" xr:uid="{D259575D-6E38-44B4-A13D-1DF5E4DD956B}"/>
     <cellStyle name="Normal 74" xfId="12" xr:uid="{70817D90-4BE1-4843-BBB8-7263791096E7}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10 10" xfId="7" xr:uid="{24F48ED7-0AF5-49D0-B1FB-A89A50D6946E}"/>
     <cellStyle name="Normalny 10 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
     <cellStyle name="Normalny 4 2" xfId="20" xr:uid="{DEC73F1F-24D8-4678-86E4-47035F21B43F}"/>
@@ -6868,7 +6913,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>14720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7643,6 +7688,10 @@
   <threadedComment ref="O3" dT="2024-07-08T12:09:05.75" personId="{08D2099F-BEA2-4620-8F83-940EDA5A7136}" id="{448E6D92-8F11-472F-B64A-4DA688ED5CC3}">
     <text>Do znalezienia</text>
   </threadedComment>
+  <threadedComment ref="P3" dT="2026-01-05T16:04:03.07" personId="{2BB7EB7A-F824-4AF2-9147-2140347CFE5E}" id="{7883B344-32FB-4A32-BD9A-490678C2B240}">
+    <text>Aktualizacja 05012026
+Obliczone wg. formuł niżej</text>
+  </threadedComment>
   <threadedComment ref="L5" dT="2024-01-14T23:26:11.04" personId="{91ADB97E-17F4-4366-80DD-720D8B15AD43}" id="{5616DBBB-A6C3-4D95-8004-9E9C9A0DDC8A}">
     <text>Wartość do sprawdzenia?</text>
   </threadedComment>
@@ -7665,12 +7714,12 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="4" style="35" customWidth="1"/>
-    <col min="4" max="9" width="14.28515625" style="35" customWidth="1"/>
+    <col min="4" max="9" width="14.33203125" style="35" customWidth="1"/>
     <col min="10" max="12" width="4" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="35"/>
+    <col min="13" max="16384" width="9.109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -8125,8 +8174,8 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
     </row>
-    <row r="48" spans="1:12" ht="59.45" customHeight="1"/>
-    <row r="49" ht="64.150000000000006" customHeight="1"/>
+    <row r="48" spans="1:12" ht="59.4" customHeight="1"/>
+    <row r="49" ht="64.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D32:E32"/>
@@ -8150,34 +8199,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF97042E-39CC-44CB-AEB4-04A8ED1DEE0E}">
   <dimension ref="B3:AA133"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="E74" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="E66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="269" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="269" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="269" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="269" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="269" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="269" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="269" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="269" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="269" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="269" customWidth="1"/>
     <col min="6" max="6" width="34" style="269" customWidth="1"/>
     <col min="7" max="7" width="9" style="269" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.42578125" style="269" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" style="269" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="269" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="269" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="12.85546875" style="269" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="269" customWidth="1"/>
-    <col min="27" max="27" width="27.5703125" style="269" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="269"/>
+    <col min="8" max="10" width="12.44140625" style="269" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.88671875" style="269" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="269" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="269" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="12.88671875" style="269" customWidth="1"/>
+    <col min="26" max="26" width="9.109375" style="269" customWidth="1"/>
+    <col min="27" max="27" width="27.5546875" style="269" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="269"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
       <c r="F3" s="237"/>
       <c r="G3" s="237"/>
     </row>
-    <row r="4" spans="2:13" ht="38.25">
+    <row r="4" spans="2:13" ht="39.6">
       <c r="B4" s="71" t="s">
         <v>73</v>
       </c>
@@ -8213,7 +8262,7 @@
       </c>
       <c r="M4" s="323"/>
     </row>
-    <row r="5" spans="2:13" ht="13.5" thickBot="1">
+    <row r="5" spans="2:13" ht="13.8" thickBot="1">
       <c r="B5" s="74" t="s">
         <v>464</v>
       </c>
@@ -8237,7 +8286,7 @@
       <c r="L5" s="324"/>
       <c r="M5" s="325"/>
     </row>
-    <row r="6" spans="2:13" ht="15.95" customHeight="1">
+    <row r="6" spans="2:13" ht="15.9" customHeight="1">
       <c r="B6" s="326" t="str">
         <f>[1]SEC_Processes!D40</f>
         <v>AGR_FERT_N_INORG</v>
@@ -8278,7 +8327,7 @@
       </c>
       <c r="M6" s="326"/>
     </row>
-    <row r="7" spans="2:13" ht="15.95" customHeight="1">
+    <row r="7" spans="2:13" ht="15.9" customHeight="1">
       <c r="B7" s="328" t="str">
         <f>[1]SEC_Processes!D41</f>
         <v>AGR_FERT_N_MANURE</v>
@@ -8319,7 +8368,7 @@
       </c>
       <c r="M7" s="328"/>
     </row>
-    <row r="8" spans="2:13" ht="15.95" customHeight="1">
+    <row r="8" spans="2:13" ht="15.9" customHeight="1">
       <c r="B8" s="326" t="str">
         <f>[1]SEC_Processes!D42</f>
         <v>AGR_FERT_N_SLUDGE</v>
@@ -8360,7 +8409,7 @@
       </c>
       <c r="M8" s="326"/>
     </row>
-    <row r="9" spans="2:13" ht="15.95" customHeight="1">
+    <row r="9" spans="2:13" ht="15.9" customHeight="1">
       <c r="B9" s="328" t="str">
         <f>[1]SEC_Processes!D43</f>
         <v>AGR_FERT_N_URINE</v>
@@ -8401,7 +8450,7 @@
       </c>
       <c r="M9" s="328"/>
     </row>
-    <row r="10" spans="2:13" ht="15.95" customHeight="1">
+    <row r="10" spans="2:13" ht="15.9" customHeight="1">
       <c r="B10" s="326" t="str">
         <f>[1]SEC_Processes!D44</f>
         <v>AGR_FERT_N_CROP-RES</v>
@@ -8442,7 +8491,7 @@
       </c>
       <c r="M10" s="326"/>
     </row>
-    <row r="11" spans="2:13" ht="15.95" customHeight="1">
+    <row r="11" spans="2:13" ht="15.9" customHeight="1">
       <c r="B11" s="328" t="str">
         <f>[1]SEC_Processes!D45</f>
         <v>AGR_FERT_N_MIN</v>
@@ -8483,7 +8532,7 @@
       </c>
       <c r="M11" s="328"/>
     </row>
-    <row r="12" spans="2:13" ht="15.95" customHeight="1">
+    <row r="12" spans="2:13" ht="15.9" customHeight="1">
       <c r="B12" s="326" t="str">
         <f>[1]SEC_Processes!D46</f>
         <v>AGR_FERT_N_CULT</v>
@@ -8524,7 +8573,7 @@
       </c>
       <c r="M12" s="326"/>
     </row>
-    <row r="13" spans="2:13" ht="15.95" customHeight="1">
+    <row r="13" spans="2:13" ht="15.9" customHeight="1">
       <c r="B13" s="328" t="str">
         <f>[1]SEC_Processes!D47</f>
         <v>AGR_FERT_N_ATM-DEP</v>
@@ -8565,7 +8614,7 @@
       </c>
       <c r="M13" s="328"/>
     </row>
-    <row r="14" spans="2:13" ht="15.95" customHeight="1" thickBot="1">
+    <row r="14" spans="2:13" ht="15.9" customHeight="1" thickBot="1">
       <c r="B14" s="329" t="str">
         <f>[1]SEC_Processes!D48</f>
         <v>AGR_FERT_N_NITR-LEACH</v>
@@ -8610,7 +8659,7 @@
       <c r="F16" s="237"/>
       <c r="G16" s="237"/>
     </row>
-    <row r="17" spans="2:19" ht="38.25">
+    <row r="17" spans="2:19" ht="39.6">
       <c r="B17" s="71" t="s">
         <v>73</v>
       </c>
@@ -8646,7 +8695,7 @@
       </c>
       <c r="M17" s="323"/>
     </row>
-    <row r="18" spans="2:19" ht="13.5" thickBot="1">
+    <row r="18" spans="2:19" ht="13.8" thickBot="1">
       <c r="B18" s="74" t="s">
         <v>464</v>
       </c>
@@ -8793,7 +8842,7 @@
       </c>
       <c r="M21" s="326"/>
     </row>
-    <row r="22" spans="2:19" ht="13.5" thickBot="1">
+    <row r="22" spans="2:19" ht="13.8" thickBot="1">
       <c r="B22" s="330" t="str">
         <f>[1]SEC_Processes!D52</f>
         <v>AGR_LAND_FERT_CO2_OTH</v>
@@ -8840,7 +8889,7 @@
       </c>
       <c r="G25" s="237"/>
     </row>
-    <row r="26" spans="2:19" ht="38.25">
+    <row r="26" spans="2:19" ht="39.6">
       <c r="B26" s="331" t="s">
         <v>73</v>
       </c>
@@ -8930,7 +8979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="15.95" customHeight="1">
+    <row r="28" spans="2:19" ht="15.9" customHeight="1">
       <c r="B28" s="343" t="s">
         <v>582</v>
       </c>
@@ -8957,7 +9006,7 @@
       <c r="N28" s="344"/>
       <c r="P28" s="344"/>
     </row>
-    <row r="29" spans="2:19" ht="15.95" customHeight="1">
+    <row r="29" spans="2:19" ht="15.9" customHeight="1">
       <c r="B29" s="347"/>
       <c r="D29" s="348" t="s">
         <v>682</v>
@@ -8967,7 +9016,7 @@
       </c>
       <c r="L29" s="349"/>
     </row>
-    <row r="30" spans="2:19" ht="15.95" customHeight="1">
+    <row r="30" spans="2:19" ht="15.9" customHeight="1">
       <c r="B30" s="347"/>
       <c r="D30" s="326"/>
       <c r="E30" s="350" t="s">
@@ -8979,7 +9028,7 @@
       </c>
       <c r="L30" s="349"/>
     </row>
-    <row r="31" spans="2:19" ht="15.95" customHeight="1">
+    <row r="31" spans="2:19" ht="15.9" customHeight="1">
       <c r="B31" s="347"/>
       <c r="E31" s="278" t="s">
         <v>633</v>
@@ -9001,7 +9050,7 @@
         <v>1860.4289488949998</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="15.95" customHeight="1">
+    <row r="32" spans="2:19" ht="15.9" customHeight="1">
       <c r="B32" s="352"/>
       <c r="C32" s="353"/>
       <c r="D32" s="353"/>
@@ -9022,7 +9071,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="15.95" customHeight="1">
+    <row r="33" spans="2:19" ht="15.9" customHeight="1">
       <c r="B33" s="356" t="s">
         <v>583</v>
       </c>
@@ -9048,7 +9097,7 @@
       <c r="M33" s="344"/>
       <c r="N33" s="344"/>
     </row>
-    <row r="34" spans="2:19" ht="15.95" customHeight="1">
+    <row r="34" spans="2:19" ht="15.9" customHeight="1">
       <c r="B34" s="347"/>
       <c r="D34" s="348" t="s">
         <v>682</v>
@@ -9058,7 +9107,7 @@
       </c>
       <c r="L34" s="349"/>
     </row>
-    <row r="35" spans="2:19" ht="15.95" customHeight="1">
+    <row r="35" spans="2:19" ht="15.9" customHeight="1">
       <c r="B35" s="347"/>
       <c r="E35" s="350" t="s">
         <v>685</v>
@@ -9069,7 +9118,7 @@
       </c>
       <c r="L35" s="349"/>
     </row>
-    <row r="36" spans="2:19" ht="15.95" customHeight="1">
+    <row r="36" spans="2:19" ht="15.9" customHeight="1">
       <c r="B36" s="347"/>
       <c r="E36" s="278" t="s">
         <v>634</v>
@@ -9091,7 +9140,7 @@
         <v>396.08211720000003</v>
       </c>
     </row>
-    <row r="37" spans="2:19" ht="15.95" customHeight="1">
+    <row r="37" spans="2:19" ht="15.9" customHeight="1">
       <c r="B37" s="352"/>
       <c r="C37" s="353"/>
       <c r="D37" s="353"/>
@@ -9112,7 +9161,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="15.95" customHeight="1">
+    <row r="38" spans="2:19" ht="15.9" customHeight="1">
       <c r="B38" s="356" t="s">
         <v>584</v>
       </c>
@@ -9138,7 +9187,7 @@
       <c r="M38" s="344"/>
       <c r="N38" s="344"/>
     </row>
-    <row r="39" spans="2:19" ht="15.95" customHeight="1">
+    <row r="39" spans="2:19" ht="15.9" customHeight="1">
       <c r="B39" s="347"/>
       <c r="D39" s="348" t="s">
         <v>682</v>
@@ -9148,7 +9197,7 @@
       </c>
       <c r="L39" s="349"/>
     </row>
-    <row r="40" spans="2:19" ht="15.95" customHeight="1">
+    <row r="40" spans="2:19" ht="15.9" customHeight="1">
       <c r="B40" s="347"/>
       <c r="E40" s="350" t="s">
         <v>686</v>
@@ -9159,7 +9208,7 @@
       </c>
       <c r="L40" s="349"/>
     </row>
-    <row r="41" spans="2:19" ht="15.95" customHeight="1">
+    <row r="41" spans="2:19" ht="15.9" customHeight="1">
       <c r="B41" s="347"/>
       <c r="E41" s="278" t="s">
         <v>635</v>
@@ -9184,7 +9233,7 @@
         <v>1001.7462622200001</v>
       </c>
     </row>
-    <row r="42" spans="2:19" ht="15.95" customHeight="1">
+    <row r="42" spans="2:19" ht="15.9" customHeight="1">
       <c r="B42" s="352"/>
       <c r="C42" s="353"/>
       <c r="D42" s="353"/>
@@ -9205,7 +9254,7 @@
         <v>2.3700000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:19" ht="15.95" customHeight="1">
+    <row r="43" spans="2:19" ht="15.9" customHeight="1">
       <c r="B43" s="359" t="s">
         <v>585</v>
       </c>
@@ -9223,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:19" ht="15.95" customHeight="1">
+    <row r="44" spans="2:19" ht="15.9" customHeight="1">
       <c r="B44" s="347"/>
       <c r="D44" s="348" t="s">
         <v>682</v>
@@ -9233,7 +9282,7 @@
       </c>
       <c r="L44" s="349"/>
     </row>
-    <row r="45" spans="2:19" ht="15.95" customHeight="1">
+    <row r="45" spans="2:19" ht="15.9" customHeight="1">
       <c r="B45" s="347"/>
       <c r="E45" s="350" t="s">
         <v>687</v>
@@ -9244,7 +9293,7 @@
       </c>
       <c r="L45" s="349"/>
     </row>
-    <row r="46" spans="2:19" ht="15.95" customHeight="1">
+    <row r="46" spans="2:19" ht="15.9" customHeight="1">
       <c r="B46" s="347"/>
       <c r="E46" s="278" t="s">
         <v>636</v>
@@ -9266,7 +9315,7 @@
         <v>308.87383724999995</v>
       </c>
     </row>
-    <row r="47" spans="2:19" ht="15.95" customHeight="1">
+    <row r="47" spans="2:19" ht="15.9" customHeight="1">
       <c r="B47" s="352"/>
       <c r="C47" s="353"/>
       <c r="D47" s="353"/>
@@ -9287,7 +9336,7 @@
         <v>2.4316666669999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:19" ht="15.95" customHeight="1">
+    <row r="48" spans="2:19" ht="15.9" customHeight="1">
       <c r="B48" s="356" t="s">
         <v>586</v>
       </c>
@@ -9313,7 +9362,7 @@
       <c r="M48" s="344"/>
       <c r="N48" s="344"/>
     </row>
-    <row r="49" spans="2:26" ht="15.95" customHeight="1">
+    <row r="49" spans="2:26" ht="15.9" customHeight="1">
       <c r="B49" s="347"/>
       <c r="D49" s="348" t="s">
         <v>682</v>
@@ -9323,7 +9372,7 @@
       </c>
       <c r="L49" s="349"/>
     </row>
-    <row r="50" spans="2:26" ht="15.95" customHeight="1">
+    <row r="50" spans="2:26" ht="15.9" customHeight="1">
       <c r="B50" s="347"/>
       <c r="E50" s="350" t="s">
         <v>688</v>
@@ -9334,7 +9383,7 @@
       </c>
       <c r="L50" s="349"/>
     </row>
-    <row r="51" spans="2:26" ht="15.95" customHeight="1">
+    <row r="51" spans="2:26" ht="15.9" customHeight="1">
       <c r="B51" s="347"/>
       <c r="E51" s="278" t="s">
         <v>637</v>
@@ -9377,7 +9426,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:26" ht="15.95" customHeight="1">
+    <row r="53" spans="2:26" ht="15.9" customHeight="1">
       <c r="B53" s="356" t="s">
         <v>587</v>
       </c>
@@ -9403,7 +9452,7 @@
       <c r="M53" s="344"/>
       <c r="N53" s="344"/>
     </row>
-    <row r="54" spans="2:26" ht="15.95" customHeight="1">
+    <row r="54" spans="2:26" ht="15.9" customHeight="1">
       <c r="B54" s="347"/>
       <c r="D54" s="348" t="s">
         <v>682</v>
@@ -9413,7 +9462,7 @@
       </c>
       <c r="L54" s="349"/>
     </row>
-    <row r="55" spans="2:26" ht="15.95" customHeight="1">
+    <row r="55" spans="2:26" ht="15.9" customHeight="1">
       <c r="B55" s="347"/>
       <c r="E55" s="350" t="s">
         <v>689</v>
@@ -9424,7 +9473,7 @@
       </c>
       <c r="L55" s="349"/>
     </row>
-    <row r="56" spans="2:26" ht="15.95" customHeight="1">
+    <row r="56" spans="2:26" ht="15.9" customHeight="1">
       <c r="B56" s="347"/>
       <c r="E56" s="278" t="s">
         <v>638</v>
@@ -9446,7 +9495,7 @@
         <v>300.92451345000006</v>
       </c>
     </row>
-    <row r="57" spans="2:26" ht="15.95" customHeight="1">
+    <row r="57" spans="2:26" ht="15.9" customHeight="1">
       <c r="B57" s="352"/>
       <c r="C57" s="353"/>
       <c r="D57" s="353"/>
@@ -9467,7 +9516,7 @@
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:26" ht="15.95" customHeight="1">
+    <row r="58" spans="2:26" ht="15.9" customHeight="1">
       <c r="B58" s="343" t="s">
         <v>588</v>
       </c>
@@ -9493,7 +9542,7 @@
       <c r="M58" s="344"/>
       <c r="N58" s="344"/>
     </row>
-    <row r="59" spans="2:26" ht="15.95" customHeight="1">
+    <row r="59" spans="2:26" ht="15.9" customHeight="1">
       <c r="B59" s="347"/>
       <c r="D59" s="348" t="s">
         <v>682</v>
@@ -9503,7 +9552,7 @@
       </c>
       <c r="L59" s="349"/>
     </row>
-    <row r="60" spans="2:26" ht="15.95" customHeight="1">
+    <row r="60" spans="2:26" ht="15.9" customHeight="1">
       <c r="B60" s="347"/>
       <c r="E60" s="350" t="s">
         <v>690</v>
@@ -9514,7 +9563,7 @@
       </c>
       <c r="L60" s="349"/>
     </row>
-    <row r="61" spans="2:26" ht="15.95" customHeight="1">
+    <row r="61" spans="2:26" ht="15.9" customHeight="1">
       <c r="B61" s="347"/>
       <c r="E61" s="278" t="s">
         <v>639</v>
@@ -9562,7 +9611,7 @@
       <c r="Y62" s="284"/>
       <c r="Z62" s="284"/>
     </row>
-    <row r="63" spans="2:26" ht="15.95" customHeight="1">
+    <row r="63" spans="2:26" ht="15.9" customHeight="1">
       <c r="B63" s="356" t="s">
         <v>589</v>
       </c>
@@ -9588,7 +9637,7 @@
       <c r="M63" s="344"/>
       <c r="N63" s="344"/>
     </row>
-    <row r="64" spans="2:26" ht="15.95" customHeight="1">
+    <row r="64" spans="2:26" ht="15.9" customHeight="1">
       <c r="B64" s="347"/>
       <c r="D64" s="348" t="s">
         <v>682</v>
@@ -9598,7 +9647,7 @@
       </c>
       <c r="L64" s="349"/>
     </row>
-    <row r="65" spans="2:26" ht="15.95" customHeight="1">
+    <row r="65" spans="2:26" ht="15.9" customHeight="1">
       <c r="B65" s="347"/>
       <c r="E65" s="350" t="s">
         <v>691</v>
@@ -9615,7 +9664,7 @@
       <c r="Y65" s="284"/>
       <c r="Z65" s="284"/>
     </row>
-    <row r="66" spans="2:26" ht="15.95" customHeight="1">
+    <row r="66" spans="2:26" ht="15.9" customHeight="1">
       <c r="B66" s="347"/>
       <c r="E66" s="278" t="s">
         <v>640</v>
@@ -9637,7 +9686,7 @@
         <v>38.629338000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:26" ht="15.95" customHeight="1">
+    <row r="67" spans="2:26" ht="15.9" customHeight="1">
       <c r="B67" s="352"/>
       <c r="C67" s="353"/>
       <c r="D67" s="353"/>
@@ -9658,7 +9707,7 @@
         <v>4.6799999999999999E-5</v>
       </c>
     </row>
-    <row r="68" spans="2:26" ht="15.95" customHeight="1">
+    <row r="68" spans="2:26" ht="15.9" customHeight="1">
       <c r="B68" s="343" t="s">
         <v>590</v>
       </c>
@@ -9684,7 +9733,7 @@
       <c r="M68" s="344"/>
       <c r="N68" s="344"/>
     </row>
-    <row r="69" spans="2:26" ht="15.95" customHeight="1">
+    <row r="69" spans="2:26" ht="15.9" customHeight="1">
       <c r="B69" s="347"/>
       <c r="D69" s="348" t="s">
         <v>682</v>
@@ -9694,7 +9743,7 @@
       </c>
       <c r="L69" s="349"/>
     </row>
-    <row r="70" spans="2:26" ht="15.95" customHeight="1">
+    <row r="70" spans="2:26" ht="15.9" customHeight="1">
       <c r="B70" s="347"/>
       <c r="E70" s="350" t="s">
         <v>692</v>
@@ -9705,7 +9754,7 @@
       </c>
       <c r="L70" s="349"/>
     </row>
-    <row r="71" spans="2:26" ht="15.95" customHeight="1">
+    <row r="71" spans="2:26" ht="15.9" customHeight="1">
       <c r="B71" s="347" t="s">
         <v>174</v>
       </c>
@@ -9728,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:26" ht="15.95" customHeight="1">
+    <row r="72" spans="2:26" ht="15.9" customHeight="1">
       <c r="B72" s="352"/>
       <c r="C72" s="353"/>
       <c r="D72" s="353"/>
@@ -9749,7 +9798,7 @@
         <v>1.5900000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:26" ht="15.95" customHeight="1">
+    <row r="73" spans="2:26" ht="15.9" customHeight="1">
       <c r="B73" s="343" t="s">
         <v>591</v>
       </c>
@@ -9775,7 +9824,7 @@
       <c r="M73" s="344"/>
       <c r="N73" s="344"/>
     </row>
-    <row r="74" spans="2:26" ht="15.95" customHeight="1">
+    <row r="74" spans="2:26" ht="15.9" customHeight="1">
       <c r="B74" s="347"/>
       <c r="D74" s="348" t="s">
         <v>682</v>
@@ -9785,7 +9834,7 @@
       </c>
       <c r="L74" s="349"/>
     </row>
-    <row r="75" spans="2:26" ht="15.95" customHeight="1">
+    <row r="75" spans="2:26" ht="15.9" customHeight="1">
       <c r="B75" s="347"/>
       <c r="E75" s="350" t="s">
         <v>693</v>
@@ -9796,7 +9845,7 @@
       </c>
       <c r="L75" s="349"/>
     </row>
-    <row r="76" spans="2:26" ht="15.95" customHeight="1">
+    <row r="76" spans="2:26" ht="15.9" customHeight="1">
       <c r="B76" s="347" t="s">
         <v>174</v>
       </c>
@@ -9819,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:26" ht="15.95" customHeight="1">
+    <row r="77" spans="2:26" ht="15.9" customHeight="1">
       <c r="B77" s="352"/>
       <c r="C77" s="353"/>
       <c r="D77" s="353"/>
@@ -9840,7 +9889,7 @@
         <v>1.5900000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:26" ht="15.95" customHeight="1">
+    <row r="78" spans="2:26" ht="15.9" customHeight="1">
       <c r="B78" s="343" t="s">
         <v>592</v>
       </c>
@@ -9866,7 +9915,7 @@
       <c r="M78" s="344"/>
       <c r="N78" s="344"/>
     </row>
-    <row r="79" spans="2:26" ht="15.95" customHeight="1">
+    <row r="79" spans="2:26" ht="15.9" customHeight="1">
       <c r="B79" s="347"/>
       <c r="D79" s="348" t="s">
         <v>682</v>
@@ -9876,7 +9925,7 @@
       </c>
       <c r="L79" s="349"/>
     </row>
-    <row r="80" spans="2:26" ht="15.95" customHeight="1">
+    <row r="80" spans="2:26" ht="15.9" customHeight="1">
       <c r="B80" s="347"/>
       <c r="E80" s="350" t="s">
         <v>694</v>
@@ -9887,7 +9936,7 @@
       </c>
       <c r="L80" s="349"/>
     </row>
-    <row r="81" spans="2:27" ht="15.95" customHeight="1">
+    <row r="81" spans="2:27" ht="15.9" customHeight="1">
       <c r="B81" s="347" t="s">
         <v>174</v>
       </c>
@@ -9910,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:27" ht="15.95" customHeight="1">
+    <row r="82" spans="2:27" ht="15.9" customHeight="1">
       <c r="B82" s="352"/>
       <c r="C82" s="353"/>
       <c r="D82" s="353"/>
@@ -9931,7 +9980,7 @@
         <v>8.0999999999999996E-4</v>
       </c>
     </row>
-    <row r="83" spans="2:27" ht="15.95" customHeight="1">
+    <row r="83" spans="2:27" ht="15.9" customHeight="1">
       <c r="B83" s="343" t="s">
         <v>594</v>
       </c>
@@ -9957,7 +10006,7 @@
       <c r="M83" s="344"/>
       <c r="N83" s="344"/>
     </row>
-    <row r="84" spans="2:27" ht="15.95" customHeight="1">
+    <row r="84" spans="2:27" ht="15.9" customHeight="1">
       <c r="B84" s="347"/>
       <c r="D84" s="348" t="s">
         <v>682</v>
@@ -9967,7 +10016,7 @@
       </c>
       <c r="L84" s="349"/>
     </row>
-    <row r="85" spans="2:27" ht="15.95" customHeight="1">
+    <row r="85" spans="2:27" ht="15.9" customHeight="1">
       <c r="B85" s="347"/>
       <c r="E85" s="350" t="s">
         <v>695</v>
@@ -9978,7 +10027,7 @@
       </c>
       <c r="L85" s="349"/>
     </row>
-    <row r="86" spans="2:27" ht="15.95" customHeight="1">
+    <row r="86" spans="2:27" ht="15.9" customHeight="1">
       <c r="B86" s="347" t="s">
         <v>174</v>
       </c>
@@ -10007,7 +10056,7 @@
       <c r="Y86" s="364"/>
       <c r="Z86" s="364"/>
     </row>
-    <row r="87" spans="2:27" ht="15.95" customHeight="1">
+    <row r="87" spans="2:27" ht="15.9" customHeight="1">
       <c r="B87" s="352"/>
       <c r="C87" s="353"/>
       <c r="D87" s="353"/>
@@ -10028,7 +10077,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:27" ht="15.95" customHeight="1">
+    <row r="88" spans="2:27" ht="15.9" customHeight="1">
       <c r="B88" s="343" t="s">
         <v>595</v>
       </c>
@@ -10053,7 +10102,7 @@
       <c r="M88" s="344"/>
       <c r="N88" s="344"/>
     </row>
-    <row r="89" spans="2:27" ht="15.95" customHeight="1">
+    <row r="89" spans="2:27" ht="15.9" customHeight="1">
       <c r="B89" s="347"/>
       <c r="D89" s="348" t="s">
         <v>682</v>
@@ -10070,7 +10119,7 @@
       <c r="Z89" s="365"/>
       <c r="AA89" s="366"/>
     </row>
-    <row r="90" spans="2:27" ht="15.95" customHeight="1">
+    <row r="90" spans="2:27" ht="15.9" customHeight="1">
       <c r="B90" s="347"/>
       <c r="E90" s="350" t="s">
         <v>696</v>
@@ -10080,7 +10129,7 @@
       </c>
       <c r="L90" s="349"/>
     </row>
-    <row r="91" spans="2:27" ht="15.95" customHeight="1">
+    <row r="91" spans="2:27" ht="15.9" customHeight="1">
       <c r="B91" s="347" t="s">
         <v>174</v>
       </c>
@@ -10103,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:27" ht="15.95" customHeight="1">
+    <row r="92" spans="2:27" ht="15.9" customHeight="1">
       <c r="B92" s="352"/>
       <c r="C92" s="353"/>
       <c r="D92" s="353"/>
@@ -10124,7 +10173,7 @@
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:27" ht="15.95" customHeight="1">
+    <row r="93" spans="2:27" ht="15.9" customHeight="1">
       <c r="B93" s="343" t="s">
         <v>596</v>
       </c>
@@ -10149,7 +10198,7 @@
       <c r="M93" s="344"/>
       <c r="N93" s="344"/>
     </row>
-    <row r="94" spans="2:27" ht="15.95" customHeight="1">
+    <row r="94" spans="2:27" ht="15.9" customHeight="1">
       <c r="B94" s="347"/>
       <c r="D94" s="348" t="s">
         <v>682</v>
@@ -10165,7 +10214,7 @@
       <c r="Y94" s="284"/>
       <c r="Z94" s="284"/>
     </row>
-    <row r="95" spans="2:27" ht="15.95" customHeight="1">
+    <row r="95" spans="2:27" ht="15.9" customHeight="1">
       <c r="B95" s="347"/>
       <c r="E95" s="350" t="s">
         <v>697</v>
@@ -10175,7 +10224,7 @@
       </c>
       <c r="L95" s="349"/>
     </row>
-    <row r="96" spans="2:27" ht="15.95" customHeight="1">
+    <row r="96" spans="2:27" ht="15.9" customHeight="1">
       <c r="B96" s="347" t="s">
         <v>174</v>
       </c>
@@ -10198,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:25" ht="15.95" customHeight="1">
+    <row r="97" spans="2:25" ht="15.9" customHeight="1">
       <c r="B97" s="352"/>
       <c r="C97" s="353"/>
       <c r="D97" s="353"/>
@@ -10219,21 +10268,21 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:25" ht="15.95" customHeight="1"/>
-    <row r="99" spans="2:25" ht="15.95" customHeight="1">
+    <row r="98" spans="2:25" ht="15.9" customHeight="1"/>
+    <row r="99" spans="2:25" ht="15.9" customHeight="1">
       <c r="S99" s="269">
         <f>SUM(S31:S96)</f>
         <v>7762.9502128650001</v>
       </c>
     </row>
-    <row r="100" spans="2:25" ht="15.95" customHeight="1"/>
-    <row r="101" spans="2:25" ht="15.95" customHeight="1"/>
-    <row r="102" spans="2:25" ht="15.95" customHeight="1" thickBot="1">
+    <row r="100" spans="2:25" ht="15.9" customHeight="1"/>
+    <row r="101" spans="2:25" ht="15.9" customHeight="1"/>
+    <row r="102" spans="2:25" ht="15.9" customHeight="1" thickBot="1">
       <c r="H102" s="269" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="103" spans="2:25" ht="24">
+    <row r="103" spans="2:25" ht="23.4">
       <c r="H103" s="367"/>
       <c r="I103" s="368"/>
       <c r="J103" s="368"/>
@@ -10272,7 +10321,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="104" spans="2:25" ht="16.5" thickBot="1">
+    <row r="104" spans="2:25" ht="16.2" thickBot="1">
       <c r="H104" s="445" t="s">
         <v>748</v>
       </c>
@@ -10532,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:25" ht="13.5" thickBot="1">
+    <row r="109" spans="2:25" ht="13.8" thickBot="1">
       <c r="B109" s="330"/>
       <c r="C109" s="330"/>
       <c r="D109" s="330"/>
@@ -10773,7 +10822,7 @@
       <c r="M120" s="375"/>
       <c r="N120" s="383"/>
     </row>
-    <row r="121" spans="8:14" ht="15">
+    <row r="121" spans="8:14" ht="14.4">
       <c r="H121" s="382" t="s">
         <v>765</v>
       </c>
@@ -10864,7 +10913,7 @@
         <v>137.30000000000001</v>
       </c>
     </row>
-    <row r="126" spans="8:14" ht="14.25">
+    <row r="126" spans="8:14" ht="15.6">
       <c r="H126" s="393" t="s">
         <v>773</v>
       </c>
@@ -10977,7 +11026,7 @@
       <c r="M132" s="409"/>
       <c r="N132" s="410"/>
     </row>
-    <row r="133" spans="8:14" ht="13.5" thickBot="1">
+    <row r="133" spans="8:14" ht="13.8" thickBot="1">
       <c r="H133" s="413" t="s">
         <v>777</v>
       </c>
@@ -11023,22 +11072,22 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
+    <row r="2" spans="2:12" ht="17.399999999999999">
       <c r="B2" s="263" t="s">
         <v>675</v>
       </c>
@@ -11052,7 +11101,7 @@
       </c>
       <c r="G4" s="237"/>
     </row>
-    <row r="5" spans="2:12" ht="38.25">
+    <row r="5" spans="2:12" ht="39.6">
       <c r="B5" s="71" t="s">
         <v>73</v>
       </c>
@@ -11087,7 +11136,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="13.5" thickBot="1">
+    <row r="6" spans="2:12" ht="13.8" thickBot="1">
       <c r="B6" s="74" t="s">
         <v>464</v>
       </c>
@@ -11110,7 +11159,7 @@
       <c r="K6" s="239"/>
       <c r="L6" s="239"/>
     </row>
-    <row r="7" spans="2:12" ht="15.95" customHeight="1">
+    <row r="7" spans="2:12" ht="15.9" customHeight="1">
       <c r="B7" s="81" t="str">
         <f>AGR_Processes!D42</f>
         <v>AGR_FERT_N_INORG</v>
@@ -11150,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.95" customHeight="1">
+    <row r="8" spans="2:12" ht="15.9" customHeight="1">
       <c r="B8" s="79" t="str">
         <f>AGR_Processes!D43</f>
         <v>AGR_FERT_N_MANURE</v>
@@ -11190,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.95" customHeight="1">
+    <row r="9" spans="2:12" ht="15.9" customHeight="1">
       <c r="B9" s="81" t="str">
         <f>AGR_Processes!D44</f>
         <v>AGR_FERT_N_SLUDGE</v>
@@ -11230,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.95" customHeight="1">
+    <row r="10" spans="2:12" ht="15.9" customHeight="1">
       <c r="B10" s="79" t="str">
         <f>AGR_Processes!D45</f>
         <v>AGR_FERT_N_URINE</v>
@@ -11270,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.95" customHeight="1">
+    <row r="11" spans="2:12" ht="15.9" customHeight="1">
       <c r="B11" s="81" t="str">
         <f>AGR_Processes!D46</f>
         <v>AGR_FERT_N_CROP-RES</v>
@@ -11310,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.95" customHeight="1">
+    <row r="12" spans="2:12" ht="15.9" customHeight="1">
       <c r="B12" s="79" t="str">
         <f>AGR_Processes!D47</f>
         <v>AGR_FERT_N_MIN</v>
@@ -11350,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.95" customHeight="1">
+    <row r="13" spans="2:12" ht="15.9" customHeight="1">
       <c r="B13" s="81" t="str">
         <f>AGR_Processes!D48</f>
         <v>AGR_FERT_N_CULT</v>
@@ -11390,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.95" customHeight="1">
+    <row r="14" spans="2:12" ht="15.9" customHeight="1">
       <c r="B14" s="79" t="str">
         <f>AGR_Processes!D49</f>
         <v>AGR_FERT_N_ATM-DEP</v>
@@ -11430,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.95" customHeight="1" thickBot="1">
+    <row r="15" spans="2:12" ht="15.9" customHeight="1" thickBot="1">
       <c r="B15" s="233" t="str">
         <f>AGR_Processes!D50</f>
         <v>AGR_FERT_N_NITR-LEACH</v>
@@ -11476,7 +11525,7 @@
       </c>
       <c r="G17" s="237"/>
     </row>
-    <row r="18" spans="2:14" ht="38.25">
+    <row r="18" spans="2:14" ht="39.6">
       <c r="B18" s="71" t="s">
         <v>73</v>
       </c>
@@ -11511,7 +11560,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="13.5" thickBot="1">
+    <row r="19" spans="2:14" ht="13.8" thickBot="1">
       <c r="B19" s="74" t="s">
         <v>464</v>
       </c>
@@ -11654,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="13.5" thickBot="1">
+    <row r="23" spans="2:14" ht="13.8" thickBot="1">
       <c r="B23" s="82" t="str">
         <f>AGR_Processes!D54</f>
         <v>AGR_LAND_FERT_CO2_OTH</v>
@@ -11700,7 +11749,7 @@
       </c>
       <c r="G26" s="237"/>
     </row>
-    <row r="27" spans="2:14" ht="38.25">
+    <row r="27" spans="2:14" ht="39.6">
       <c r="B27" s="71" t="s">
         <v>73</v>
       </c>
@@ -11741,7 +11790,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="13.5" thickBot="1">
+    <row r="28" spans="2:14" ht="13.8" thickBot="1">
       <c r="B28" s="74" t="s">
         <v>464</v>
       </c>
@@ -11768,7 +11817,7 @@
       <c r="M28" s="239"/>
       <c r="N28" s="239"/>
     </row>
-    <row r="29" spans="2:14" ht="15.95" customHeight="1">
+    <row r="29" spans="2:14" ht="15.9" customHeight="1">
       <c r="B29" s="87" t="str">
         <f>AGR_Processes!D55</f>
         <v>AGR_LAND_CROP_WHEAT</v>
@@ -11814,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15.95" customHeight="1">
+    <row r="30" spans="2:14" ht="15.9" customHeight="1">
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
@@ -11832,7 +11881,7 @@
       <c r="M30" s="79"/>
       <c r="N30" s="79"/>
     </row>
-    <row r="31" spans="2:14" ht="15.95" customHeight="1">
+    <row r="31" spans="2:14" ht="15.9" customHeight="1">
       <c r="B31" s="81" t="str">
         <f>AGR_Processes!D56</f>
         <v>AGR_LAND_CROP_BARLEY</v>
@@ -11878,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.95" customHeight="1">
+    <row r="32" spans="2:14" ht="15.9" customHeight="1">
       <c r="B32" s="79"/>
       <c r="C32" s="79"/>
       <c r="D32" s="79"/>
@@ -11896,7 +11945,7 @@
       <c r="M32" s="79"/>
       <c r="N32" s="79"/>
     </row>
-    <row r="33" spans="2:14" ht="15.95" customHeight="1">
+    <row r="33" spans="2:14" ht="15.9" customHeight="1">
       <c r="B33" s="81" t="str">
         <f>AGR_Processes!D57</f>
         <v>AGR_LAND_CROP_MAIZE</v>
@@ -11942,7 +11991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="15.95" customHeight="1">
+    <row r="34" spans="2:14" ht="15.9" customHeight="1">
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
       <c r="D34" s="79"/>
@@ -11960,7 +12009,7 @@
       <c r="M34" s="79"/>
       <c r="N34" s="79"/>
     </row>
-    <row r="35" spans="2:14" ht="15.95" customHeight="1">
+    <row r="35" spans="2:14" ht="15.9" customHeight="1">
       <c r="B35" s="81" t="str">
         <f>AGR_Processes!D58</f>
         <v>AGR_LAND_CROP_CER-MIX</v>
@@ -12006,7 +12055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15.95" customHeight="1">
+    <row r="36" spans="2:14" ht="15.9" customHeight="1">
       <c r="B36" s="79"/>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
@@ -12024,7 +12073,7 @@
       <c r="M36" s="79"/>
       <c r="N36" s="79"/>
     </row>
-    <row r="37" spans="2:14" ht="15.95" customHeight="1">
+    <row r="37" spans="2:14" ht="15.9" customHeight="1">
       <c r="B37" s="81" t="str">
         <f>AGR_Processes!D59</f>
         <v>AGR_LAND_CROP_TRITICALE</v>
@@ -12070,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15.95" customHeight="1">
+    <row r="38" spans="2:14" ht="15.9" customHeight="1">
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
       <c r="D38" s="79"/>
@@ -12088,7 +12137,7 @@
       <c r="M38" s="79"/>
       <c r="N38" s="79"/>
     </row>
-    <row r="39" spans="2:14" ht="15.95" customHeight="1">
+    <row r="39" spans="2:14" ht="15.9" customHeight="1">
       <c r="B39" s="81" t="str">
         <f>AGR_Processes!D60</f>
         <v>AGR_LAND_CROP_OATS</v>
@@ -12134,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15.95" customHeight="1">
+    <row r="40" spans="2:14" ht="15.9" customHeight="1">
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
       <c r="D40" s="79"/>
@@ -12152,7 +12201,7 @@
       <c r="M40" s="79"/>
       <c r="N40" s="79"/>
     </row>
-    <row r="41" spans="2:14" ht="15.95" customHeight="1">
+    <row r="41" spans="2:14" ht="15.9" customHeight="1">
       <c r="B41" s="81" t="str">
         <f>AGR_Processes!D61</f>
         <v>AGR_LAND_CROP_RYE</v>
@@ -12198,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="15.95" customHeight="1">
+    <row r="42" spans="2:14" ht="15.9" customHeight="1">
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
       <c r="D42" s="79"/>
@@ -12216,7 +12265,7 @@
       <c r="M42" s="79"/>
       <c r="N42" s="79"/>
     </row>
-    <row r="43" spans="2:14" ht="15.95" customHeight="1">
+    <row r="43" spans="2:14" ht="15.9" customHeight="1">
       <c r="B43" s="81" t="str">
         <f>AGR_Processes!D62</f>
         <v>AGR_LAND_CROP_MILL-BUCK</v>
@@ -12262,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="15.95" customHeight="1">
+    <row r="44" spans="2:14" ht="15.9" customHeight="1">
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
       <c r="D44" s="79"/>
@@ -12280,7 +12329,7 @@
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
     </row>
-    <row r="45" spans="2:14" ht="15.95" customHeight="1">
+    <row r="45" spans="2:14" ht="15.9" customHeight="1">
       <c r="B45" s="81" t="str">
         <f>AGR_Processes!D63</f>
         <v>AGR_LAND_CROP_PULS-FEED</v>
@@ -12326,7 +12375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="15.95" customHeight="1">
+    <row r="46" spans="2:14" ht="15.9" customHeight="1">
       <c r="B46" s="79"/>
       <c r="C46" s="79"/>
       <c r="D46" s="79"/>
@@ -12344,7 +12393,7 @@
       <c r="M46" s="79"/>
       <c r="N46" s="79"/>
     </row>
-    <row r="47" spans="2:14" ht="15.95" customHeight="1">
+    <row r="47" spans="2:14" ht="15.9" customHeight="1">
       <c r="B47" s="81" t="str">
         <f>AGR_Processes!D64</f>
         <v>AGR_LAND_CROP_PULS-EDIB</v>
@@ -12390,7 +12439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="15.95" customHeight="1">
+    <row r="48" spans="2:14" ht="15.9" customHeight="1">
       <c r="B48" s="79"/>
       <c r="C48" s="79"/>
       <c r="D48" s="79"/>
@@ -12408,7 +12457,7 @@
       <c r="M48" s="79"/>
       <c r="N48" s="79"/>
     </row>
-    <row r="49" spans="2:14" ht="15.95" customHeight="1">
+    <row r="49" spans="2:14" ht="15.9" customHeight="1">
       <c r="B49" s="81" t="str">
         <f>AGR_Processes!D65</f>
         <v>AGR_LAND_CROP_POTATO</v>
@@ -12454,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15.95" customHeight="1">
+    <row r="50" spans="2:14" ht="15.9" customHeight="1">
       <c r="B50" s="79"/>
       <c r="C50" s="79"/>
       <c r="D50" s="79"/>
@@ -12472,7 +12521,7 @@
       <c r="M50" s="79"/>
       <c r="N50" s="79"/>
     </row>
-    <row r="51" spans="2:14" ht="15.95" customHeight="1">
+    <row r="51" spans="2:14" ht="15.9" customHeight="1">
       <c r="B51" s="81" t="str">
         <f>AGR_Processes!D66</f>
         <v>AGR_LAND_CROP_STR-HAY</v>
@@ -12518,7 +12567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="15.95" customHeight="1">
+    <row r="52" spans="2:14" ht="15.9" customHeight="1">
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
       <c r="D52" s="79"/>
@@ -12536,7 +12585,7 @@
       <c r="M52" s="79"/>
       <c r="N52" s="79"/>
     </row>
-    <row r="53" spans="2:14" ht="15.95" customHeight="1">
+    <row r="53" spans="2:14" ht="15.9" customHeight="1">
       <c r="B53" s="81" t="str">
         <f>AGR_Processes!D67</f>
         <v>AGR_LAND_CROP_OIL</v>
@@ -12582,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15.95" customHeight="1">
+    <row r="54" spans="2:14" ht="15.9" customHeight="1">
       <c r="B54" s="79"/>
       <c r="C54" s="79"/>
       <c r="D54" s="79"/>
@@ -12600,7 +12649,7 @@
       <c r="M54" s="79"/>
       <c r="N54" s="79"/>
     </row>
-    <row r="55" spans="2:14" ht="15.95" customHeight="1">
+    <row r="55" spans="2:14" ht="15.9" customHeight="1">
       <c r="B55" s="81" t="str">
         <f>AGR_Processes!D68</f>
         <v>AGR_LAND_CROP_FRUIT</v>
@@ -12646,7 +12695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="15.95" customHeight="1">
+    <row r="56" spans="2:14" ht="15.9" customHeight="1">
       <c r="B56" s="79"/>
       <c r="C56" s="79"/>
       <c r="D56" s="79"/>
@@ -12664,7 +12713,7 @@
       <c r="M56" s="79"/>
       <c r="N56" s="79"/>
     </row>
-    <row r="57" spans="2:14" ht="15.95" customHeight="1">
+    <row r="57" spans="2:14" ht="15.9" customHeight="1">
       <c r="B57" s="81" t="str">
         <f>AGR_Processes!D69</f>
         <v>AGR_LAND_CROP_VEG</v>
@@ -12710,7 +12759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15.95" customHeight="1" thickBot="1">
+    <row r="58" spans="2:14" ht="15.9" customHeight="1" thickBot="1">
       <c r="B58" s="234"/>
       <c r="C58" s="234"/>
       <c r="D58" s="234"/>
@@ -12748,7 +12797,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="13.5" thickBot="1">
+    <row r="63" spans="2:14" ht="13.8" thickBot="1">
       <c r="B63" s="74" t="s">
         <v>464</v>
       </c>
@@ -12779,7 +12828,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="13.5" thickBot="1">
+    <row r="65" spans="2:5" ht="13.8" thickBot="1">
       <c r="B65" s="82"/>
       <c r="C65" s="82"/>
       <c r="D65" s="82"/>
@@ -12792,31 +12841,31 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836C50CB-5799-4275-9882-6D6B75468452}">
-  <dimension ref="B2:AG51"/>
+  <dimension ref="B2:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="269"/>
-    <col min="2" max="2" width="24.85546875" style="269" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="269" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="269" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="269" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="269" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.140625" style="269" customWidth="1"/>
-    <col min="10" max="16" width="11.5703125" style="269" customWidth="1"/>
-    <col min="17" max="18" width="10.42578125" style="269" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="269"/>
-    <col min="20" max="20" width="12.140625" style="269" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" style="269" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" style="269" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" style="269"/>
-    <col min="26" max="26" width="23.28515625" style="269" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="269"/>
+    <col min="2" max="2" width="24.88671875" style="269" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="269" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="269" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="269" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="269" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.109375" style="269" customWidth="1"/>
+    <col min="10" max="16" width="11.5546875" style="269" customWidth="1"/>
+    <col min="17" max="18" width="10.44140625" style="269" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="269"/>
+    <col min="20" max="20" width="12.109375" style="269" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.109375" style="269" customWidth="1"/>
+    <col min="23" max="23" width="17.109375" style="269" customWidth="1"/>
+    <col min="24" max="25" width="8.88671875" style="269"/>
+    <col min="26" max="26" width="23.33203125" style="269" customWidth="1"/>
     <col min="27" max="27" width="22" style="269" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="269"/>
+    <col min="28" max="16384" width="8.88671875" style="269"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:33">
@@ -12840,7 +12889,7 @@
       <c r="R2" s="247"/>
       <c r="S2" s="247"/>
     </row>
-    <row r="3" spans="2:33" ht="38.25">
+    <row r="3" spans="2:33" ht="39.6">
       <c r="B3" s="71" t="s">
         <v>73</v>
       </c>
@@ -12905,7 +12954,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="39" thickBot="1">
+    <row r="4" spans="2:33" ht="40.200000000000003" thickBot="1">
       <c r="B4" s="74" t="s">
         <v>464</v>
       </c>
@@ -12971,7 +13020,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="15.95" customHeight="1">
+    <row r="5" spans="2:33" ht="15.9" customHeight="1">
       <c r="B5" s="327" t="str">
         <f>AGR_Processes!D25</f>
         <v>AGR_EX_BIOG</v>
@@ -13028,7 +13077,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="15.95" customHeight="1">
+    <row r="6" spans="2:33" ht="15.9" customHeight="1">
       <c r="B6" s="286"/>
       <c r="C6" s="286"/>
       <c r="D6" s="286" t="s">
@@ -13047,8 +13096,8 @@
       <c r="O6" s="286">
         <v>0.30590000000000001</v>
       </c>
-      <c r="P6" s="278">
-        <v>6.2974072165554104E-2</v>
+      <c r="P6" s="458">
+        <v>3.9503432358734485E-2</v>
       </c>
       <c r="Q6" s="286"/>
       <c r="R6" s="286"/>
@@ -13072,7 +13121,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="15.95" customHeight="1">
+    <row r="7" spans="2:33" ht="15.9" customHeight="1">
       <c r="B7" s="326"/>
       <c r="C7" s="326"/>
       <c r="D7" s="269" t="s">
@@ -13081,8 +13130,8 @@
       <c r="O7" s="269">
         <v>0.30590000000000001</v>
       </c>
-      <c r="P7" s="278">
-        <v>9.107053237076787E-2</v>
+      <c r="P7" s="459">
+        <v>8.4102126741297106E-3</v>
       </c>
       <c r="T7" s="269">
         <f>E36*$F$46/(O7*1000)</f>
@@ -13103,7 +13152,7 @@
         <v>0.38854999999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="15.95" customHeight="1">
+    <row r="8" spans="2:33" ht="15.9" customHeight="1">
       <c r="B8" s="286"/>
       <c r="C8" s="286"/>
       <c r="D8" s="286" t="s">
@@ -13122,8 +13171,8 @@
       <c r="O8" s="286">
         <v>0.38854999999999995</v>
       </c>
-      <c r="P8" s="278">
-        <v>6.2974072165554104E-2</v>
+      <c r="P8" s="458">
+        <v>2.1270586943794263E-2</v>
       </c>
       <c r="Q8" s="286"/>
       <c r="R8" s="286"/>
@@ -13147,7 +13196,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15.95" customHeight="1">
+    <row r="9" spans="2:33" ht="15.9" customHeight="1">
       <c r="B9" s="326"/>
       <c r="C9" s="326"/>
       <c r="D9" s="269" t="s">
@@ -13156,8 +13205,8 @@
       <c r="O9" s="269">
         <v>0.30590000000000001</v>
       </c>
-      <c r="P9" s="278">
-        <v>0.10802509026149397</v>
+      <c r="P9" s="459">
+        <v>6.5584749927887608E-3</v>
       </c>
       <c r="T9" s="269">
         <f>E36*$F$46/(O9*1000)</f>
@@ -13178,7 +13227,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="15.95" customHeight="1">
+    <row r="10" spans="2:33" ht="15.9" customHeight="1">
       <c r="B10" s="286"/>
       <c r="C10" s="286"/>
       <c r="D10" s="286" t="s">
@@ -13197,8 +13246,8 @@
       <c r="O10" s="286">
         <v>0.30590000000000001</v>
       </c>
-      <c r="P10" s="278">
-        <v>6.2488984824655196E-2</v>
+      <c r="P10" s="458">
+        <v>2.3875705905262001E-2</v>
       </c>
       <c r="Q10" s="286"/>
       <c r="R10" s="286"/>
@@ -13222,7 +13271,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="15.95" customHeight="1">
+    <row r="11" spans="2:33" ht="15.9" customHeight="1">
       <c r="B11" s="326"/>
       <c r="C11" s="326"/>
       <c r="D11" s="269" t="s">
@@ -13231,8 +13280,8 @@
       <c r="O11" s="269">
         <v>0.30590000000000001</v>
       </c>
-      <c r="P11" s="278">
-        <v>8.8648452672092717E-2</v>
+      <c r="P11" s="459">
+        <v>6.3896829648978333E-3</v>
       </c>
       <c r="T11" s="269">
         <f>E36*$F$46/(O11*1000)</f>
@@ -13253,7 +13302,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="15.95" customHeight="1">
+    <row r="12" spans="2:33" ht="15.9" customHeight="1">
       <c r="B12" s="286"/>
       <c r="C12" s="286"/>
       <c r="D12" s="286" t="s">
@@ -13272,8 +13321,8 @@
       <c r="O12" s="286">
         <v>0.30590000000000001</v>
       </c>
-      <c r="P12" s="278">
-        <v>9.0102036191879745E-2</v>
+      <c r="P12" s="458">
+        <v>5.8006330714347756E-2</v>
       </c>
       <c r="Q12" s="286"/>
       <c r="R12" s="286"/>
@@ -13297,7 +13346,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="15.95" customHeight="1">
+    <row r="13" spans="2:33" ht="15.9" customHeight="1">
       <c r="B13" s="326"/>
       <c r="C13" s="326"/>
       <c r="D13" s="269" t="s">
@@ -13306,8 +13355,8 @@
       <c r="O13" s="269">
         <v>0.30590000000000001</v>
       </c>
-      <c r="P13" s="278">
-        <v>0.11480624201662054</v>
+      <c r="P13" s="459">
+        <v>8.2023634476987304E-4</v>
       </c>
       <c r="T13" s="269">
         <f>E36*$F$46/(O13*1000)</f>
@@ -13333,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="15.95" customHeight="1">
+    <row r="14" spans="2:33" ht="15.9" customHeight="1">
       <c r="B14" s="286"/>
       <c r="C14" s="286"/>
       <c r="D14" s="286" t="s">
@@ -13352,7 +13401,7 @@
       <c r="O14" s="286">
         <v>0</v>
       </c>
-      <c r="P14" s="278">
+      <c r="P14" s="460">
         <v>0</v>
       </c>
       <c r="Q14" s="286"/>
@@ -13378,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:33" ht="15.95" customHeight="1">
+    <row r="15" spans="2:33" ht="15.9" customHeight="1">
       <c r="B15" s="326"/>
       <c r="C15" s="326"/>
       <c r="D15" s="269" t="s">
@@ -13387,7 +13436,7 @@
       <c r="O15" s="269">
         <v>0</v>
       </c>
-      <c r="P15" s="278">
+      <c r="P15" s="461">
         <v>0</v>
       </c>
       <c r="V15" s="269">
@@ -13405,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:33" ht="15.95" customHeight="1">
+    <row r="16" spans="2:33" ht="15.9" customHeight="1">
       <c r="B16" s="286"/>
       <c r="C16" s="286"/>
       <c r="D16" s="286" t="s">
@@ -13424,7 +13473,7 @@
       <c r="O16" s="286">
         <v>0</v>
       </c>
-      <c r="P16" s="278">
+      <c r="P16" s="460">
         <v>0</v>
       </c>
       <c r="Q16" s="286"/>
@@ -13452,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="15.95" customHeight="1">
+    <row r="17" spans="2:33" ht="15.9" customHeight="1">
       <c r="B17" s="286"/>
       <c r="C17" s="286"/>
       <c r="D17" s="286" t="s">
@@ -13471,7 +13520,7 @@
       <c r="O17" s="286">
         <v>0</v>
       </c>
-      <c r="P17" s="278">
+      <c r="P17" s="460">
         <v>0</v>
       </c>
       <c r="Q17" s="286"/>
@@ -13499,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" ht="15.95" customHeight="1">
+    <row r="18" spans="2:33" ht="15.9" customHeight="1">
       <c r="B18" s="326"/>
       <c r="C18" s="326"/>
       <c r="D18" s="269" t="s">
@@ -13508,7 +13557,7 @@
       <c r="O18" s="269">
         <v>0</v>
       </c>
-      <c r="P18" s="278">
+      <c r="P18" s="461">
         <v>0</v>
       </c>
       <c r="V18" s="269">
@@ -13529,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" ht="15.95" customHeight="1">
+    <row r="19" spans="2:33" ht="15.9" customHeight="1">
       <c r="B19" s="286"/>
       <c r="C19" s="286"/>
       <c r="D19" s="286" t="s">
@@ -13548,7 +13597,7 @@
       <c r="O19" s="286">
         <v>0</v>
       </c>
-      <c r="P19" s="278">
+      <c r="P19" s="460">
         <v>0</v>
       </c>
       <c r="Q19" s="286"/>
@@ -13573,7 +13622,7 @@
         <v>9.7849999999999993E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="15.95" customHeight="1">
+    <row r="20" spans="2:33" ht="15.9" customHeight="1">
       <c r="B20" s="326"/>
       <c r="C20" s="326"/>
       <c r="D20" s="269" t="s">
@@ -13582,8 +13631,8 @@
       <c r="O20" s="269">
         <v>9.7849999999999993E-2</v>
       </c>
-      <c r="P20" s="278">
-        <v>0.19588296806312516</v>
+      <c r="P20" s="459">
+        <v>0.37574134004647641</v>
       </c>
       <c r="T20" s="269">
         <f>E36*$F$45/(O20*1000)</f>
@@ -13604,7 +13653,7 @@
         <v>9.7849999999999993E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="15.95" customHeight="1">
+    <row r="21" spans="2:33" ht="15.9" customHeight="1">
       <c r="B21" s="286"/>
       <c r="C21" s="286"/>
       <c r="D21" s="286" t="s">
@@ -13623,8 +13672,8 @@
       <c r="O21" s="286">
         <v>9.7849999999999993E-2</v>
       </c>
-      <c r="P21" s="278">
-        <v>8.0187119504371671E-2</v>
+      <c r="P21" s="458">
+        <v>0.24169799553269838</v>
       </c>
       <c r="Q21" s="286"/>
       <c r="R21" s="286"/>
@@ -13648,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" ht="15.95" customHeight="1">
+    <row r="22" spans="2:33" ht="15.9" customHeight="1">
       <c r="B22" s="326"/>
       <c r="C22" s="326"/>
       <c r="D22" s="269" t="s">
@@ -13657,8 +13706,8 @@
       <c r="O22" s="269">
         <v>0</v>
       </c>
-      <c r="P22" s="278">
-        <v>0</v>
+      <c r="P22" s="459">
+        <v>4.8672773378954909E-4</v>
       </c>
       <c r="V22" s="269">
         <v>3</v>
@@ -13676,7 +13725,7 @@
         <v>1.1875E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:33" ht="15.95" customHeight="1">
+    <row r="23" spans="2:33" ht="15.9" customHeight="1">
       <c r="B23" s="328"/>
       <c r="C23" s="328"/>
       <c r="D23" s="286" t="s">
@@ -13695,8 +13744,8 @@
       <c r="O23" s="286">
         <v>1.1875E-2</v>
       </c>
-      <c r="P23" s="278">
-        <v>4.2936104429737035E-3</v>
+      <c r="P23" s="458">
+        <v>0.16808448388662312</v>
       </c>
       <c r="Q23" s="286"/>
       <c r="R23" s="286"/>
@@ -13720,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="15.95" customHeight="1">
+    <row r="24" spans="2:33" ht="15.9" customHeight="1">
       <c r="B24" s="326"/>
       <c r="C24" s="326"/>
       <c r="D24" s="269" t="s">
@@ -13729,7 +13778,7 @@
       <c r="O24" s="269">
         <v>0</v>
       </c>
-      <c r="P24" s="278">
+      <c r="P24" s="461">
         <v>0</v>
       </c>
       <c r="V24" s="269">
@@ -13751,18 +13800,31 @@
         <v>8.8349999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="15.95" customHeight="1">
-      <c r="B25" s="326"/>
-      <c r="C25" s="326"/>
-      <c r="D25" s="269" t="s">
+    <row r="25" spans="2:33" ht="15.9" customHeight="1">
+      <c r="B25" s="286"/>
+      <c r="C25" s="286"/>
+      <c r="D25" s="286" t="s">
         <v>517</v>
       </c>
-      <c r="O25" s="269">
+      <c r="E25" s="286"/>
+      <c r="F25" s="286"/>
+      <c r="G25" s="286"/>
+      <c r="H25" s="286"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="286"/>
+      <c r="L25" s="286"/>
+      <c r="M25" s="286"/>
+      <c r="N25" s="286"/>
+      <c r="O25" s="286">
         <v>8.8349999999999998E-2</v>
       </c>
-      <c r="P25" s="278">
-        <v>3.8546819320911294E-2</v>
-      </c>
+      <c r="P25" s="458">
+        <v>4.9154789901687937E-2</v>
+      </c>
+      <c r="Q25" s="286"/>
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
       <c r="T25" s="269">
         <f>E36*$F$45/(O25*1000)</f>
         <v>0.66213921901528017</v>
@@ -13786,7 +13848,7 @@
         <v>3143.8643559507127</v>
       </c>
     </row>
-    <row r="26" spans="2:33" ht="13.5" thickBot="1">
+    <row r="26" spans="2:33" ht="13.8" thickBot="1">
       <c r="E26" s="430" t="str">
         <f>AGR_Comm!D14</f>
         <v>PRI_BIOG_AGR</v>
@@ -13864,25 +13926,9 @@
       <c r="R30" s="247"/>
       <c r="S30" s="247"/>
     </row>
-    <row r="33" spans="4:19" ht="15.95" customHeight="1"/>
-    <row r="34" spans="4:19" ht="15.95" customHeight="1">
-      <c r="O34" s="269">
-        <v>1</v>
-      </c>
-      <c r="P34" s="269">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="269">
-        <v>3</v>
-      </c>
-      <c r="R34" s="269">
-        <v>4</v>
-      </c>
-      <c r="S34" s="269">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="4:19" ht="15">
+    <row r="33" spans="4:25" ht="15.9" customHeight="1"/>
+    <row r="34" spans="4:25" ht="15.9" customHeight="1"/>
+    <row r="36" spans="4:25" ht="14.4">
       <c r="D36" s="440" t="s">
         <v>802</v>
       </c>
@@ -13890,8 +13936,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="4:19" ht="13.5" thickBot="1"/>
-    <row r="38" spans="4:19" ht="43.5" thickBot="1">
+    <row r="37" spans="4:25" ht="13.8" thickBot="1"/>
+    <row r="38" spans="4:25" ht="28.2" thickBot="1">
       <c r="D38" s="432" t="s">
         <v>787</v>
       </c>
@@ -13902,7 +13948,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="39" spans="4:19" ht="15" thickBot="1">
+    <row r="39" spans="4:25" ht="14.4" thickBot="1">
       <c r="D39" s="434" t="s">
         <v>790</v>
       </c>
@@ -13913,7 +13959,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="4:19" ht="15" thickBot="1">
+    <row r="40" spans="4:25" ht="14.4" thickBot="1">
       <c r="D40" s="434" t="s">
         <v>791</v>
       </c>
@@ -13924,7 +13970,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="4:19" ht="29.25" thickBot="1">
+    <row r="41" spans="4:25" ht="28.2" thickBot="1">
       <c r="D41" s="434" t="s">
         <v>792</v>
       </c>
@@ -13934,8 +13980,14 @@
       <c r="F41" s="435">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="4:19" ht="15" thickBot="1">
+      <c r="V41" s="462"/>
+      <c r="W41" s="463"/>
+      <c r="X41" s="463"/>
+      <c r="Y41" s="464" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="42" spans="4:25" ht="14.4" thickBot="1">
       <c r="D42" s="434" t="s">
         <v>793</v>
       </c>
@@ -13945,8 +13997,14 @@
       <c r="F42" s="435">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="4:19" ht="15" thickBot="1">
+      <c r="V42" s="465" t="s">
+        <v>808</v>
+      </c>
+      <c r="W42" s="466"/>
+      <c r="X42" s="466"/>
+      <c r="Y42" s="467"/>
+    </row>
+    <row r="43" spans="4:25" ht="14.4" thickBot="1">
       <c r="D43" s="434" t="s">
         <v>794</v>
       </c>
@@ -13956,8 +14014,15 @@
       <c r="F43" s="435">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="4:19" ht="15" thickBot="1">
+      <c r="V43" s="465">
+        <f>AGR_LAND!S99+AGR_LIV!Q48</f>
+        <v>47095.374700615001</v>
+      </c>
+      <c r="W43" s="466"/>
+      <c r="X43" s="466"/>
+      <c r="Y43" s="467"/>
+    </row>
+    <row r="44" spans="4:25" ht="14.4" thickBot="1">
       <c r="D44" s="434" t="s">
         <v>795</v>
       </c>
@@ -13967,8 +14032,12 @@
       <c r="F44" s="435">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="4:19" ht="15" thickBot="1">
+      <c r="V44" s="465"/>
+      <c r="W44" s="466"/>
+      <c r="X44" s="466"/>
+      <c r="Y44" s="467"/>
+    </row>
+    <row r="45" spans="4:25" ht="14.4" thickBot="1">
       <c r="D45" s="434" t="s">
         <v>796</v>
       </c>
@@ -13978,8 +14047,17 @@
       <c r="F45" s="435">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="4:19" ht="14.25">
+      <c r="V45" s="468" t="s">
+        <v>633</v>
+      </c>
+      <c r="W45" s="466"/>
+      <c r="X45" s="466"/>
+      <c r="Y45" s="467">
+        <f>AGR_LAND!S31/AGR_BIOG!V43</f>
+        <v>3.9503432358734485E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:25" ht="13.8">
       <c r="D46" s="436" t="s">
         <v>797</v>
       </c>
@@ -13989,13 +14067,31 @@
       <c r="F46" s="437">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="4:19">
+      <c r="V46" s="465" t="s">
+        <v>634</v>
+      </c>
+      <c r="W46" s="466"/>
+      <c r="X46" s="466"/>
+      <c r="Y46" s="467">
+        <f>AGR_LAND!S36/AGR_BIOG!V43</f>
+        <v>8.4102126741297106E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:25">
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-    </row>
-    <row r="48" spans="4:19">
+      <c r="V47" s="468" t="s">
+        <v>635</v>
+      </c>
+      <c r="W47" s="466"/>
+      <c r="X47" s="466"/>
+      <c r="Y47" s="467">
+        <f>AGR_LAND!S41/AGR_BIOG!V43</f>
+        <v>2.1270586943794263E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:25">
       <c r="D48" s="38" t="s">
         <v>798</v>
       </c>
@@ -14007,24 +14103,203 @@
       <c r="G48" s="38" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="49" spans="4:7">
+      <c r="V48" s="465" t="s">
+        <v>636</v>
+      </c>
+      <c r="W48" s="466"/>
+      <c r="X48" s="466"/>
+      <c r="Y48" s="467">
+        <f>AGR_LAND!S46/AGR_BIOG!$V$43</f>
+        <v>6.5584749927887608E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:25">
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
-    </row>
-    <row r="50" spans="4:7">
+      <c r="V49" s="468" t="s">
+        <v>637</v>
+      </c>
+      <c r="W49" s="466"/>
+      <c r="X49" s="466"/>
+      <c r="Y49" s="467">
+        <f>AGR_LAND!S51/AGR_BIOG!$V$43</f>
+        <v>2.3875705905262001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="4:25">
       <c r="D50" s="38"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" s="38"/>
-    </row>
-    <row r="51" spans="4:7">
+      <c r="V50" s="465" t="s">
+        <v>638</v>
+      </c>
+      <c r="W50" s="466"/>
+      <c r="X50" s="466"/>
+      <c r="Y50" s="467">
+        <f>AGR_LAND!S56/AGR_BIOG!$V$43</f>
+        <v>6.3896829648978333E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:25">
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" s="38"/>
+      <c r="V51" s="468" t="s">
+        <v>639</v>
+      </c>
+      <c r="W51" s="466"/>
+      <c r="X51" s="466"/>
+      <c r="Y51" s="467">
+        <f>AGR_LAND!S61/AGR_BIOG!$V$43</f>
+        <v>5.8006330714347756E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:25">
+      <c r="V52" s="465" t="s">
+        <v>640</v>
+      </c>
+      <c r="W52" s="466"/>
+      <c r="X52" s="466"/>
+      <c r="Y52" s="467">
+        <f>AGR_LAND!S66/AGR_BIOG!$V$43</f>
+        <v>8.2023634476987304E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="4:25">
+      <c r="V53" s="468" t="s">
+        <v>641</v>
+      </c>
+      <c r="W53" s="466"/>
+      <c r="X53" s="466"/>
+      <c r="Y53" s="467">
+        <f>AGR_LAND!S52/AGR_BIOG!$V$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:25">
+      <c r="V54" s="465" t="s">
+        <v>642</v>
+      </c>
+      <c r="W54" s="466"/>
+      <c r="X54" s="466"/>
+      <c r="Y54" s="467">
+        <f>AGR_LAND!S53/AGR_BIOG!$V$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:25">
+      <c r="V55" s="468" t="s">
+        <v>643</v>
+      </c>
+      <c r="W55" s="466"/>
+      <c r="X55" s="466"/>
+      <c r="Y55" s="467">
+        <f>AGR_LAND!S54/AGR_BIOG!$V$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:25">
+      <c r="V56" s="468" t="s">
+        <v>645</v>
+      </c>
+      <c r="W56" s="466"/>
+      <c r="X56" s="466"/>
+      <c r="Y56" s="467">
+        <f>AGR_LAND!S55/AGR_BIOG!$V$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:25">
+      <c r="V57" s="465" t="s">
+        <v>646</v>
+      </c>
+      <c r="W57" s="466"/>
+      <c r="X57" s="466"/>
+      <c r="Y57" s="467">
+        <f>AGR_LAND!S57/AGR_BIOG!$V$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:25">
+      <c r="V58" s="468" t="s">
+        <v>647</v>
+      </c>
+      <c r="W58" s="466"/>
+      <c r="X58" s="466"/>
+      <c r="Y58" s="467">
+        <f>AGR_LAND!S58/AGR_BIOG!$V$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:25">
+      <c r="V59" s="465" t="s">
+        <v>505</v>
+      </c>
+      <c r="W59" s="466"/>
+      <c r="X59" s="466"/>
+      <c r="Y59" s="467">
+        <f>AGR_LIV!Q8/AGR_BIOG!$V$43</f>
+        <v>0.37574134004647641</v>
+      </c>
+    </row>
+    <row r="60" spans="4:25">
+      <c r="V60" s="468" t="s">
+        <v>507</v>
+      </c>
+      <c r="W60" s="466"/>
+      <c r="X60" s="466"/>
+      <c r="Y60" s="467">
+        <f>AGR_LIV!Q15/AGR_BIOG!$V$43</f>
+        <v>0.24169799553269838</v>
+      </c>
+    </row>
+    <row r="61" spans="4:25">
+      <c r="V61" s="465" t="s">
+        <v>509</v>
+      </c>
+      <c r="W61" s="466"/>
+      <c r="X61" s="466"/>
+      <c r="Y61" s="467">
+        <f>AGR_LIV!Q22/AGR_BIOG!$V$43</f>
+        <v>4.8672773378954909E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="4:25">
+      <c r="V62" s="468" t="s">
+        <v>511</v>
+      </c>
+      <c r="W62" s="466"/>
+      <c r="X62" s="466"/>
+      <c r="Y62" s="467">
+        <f>AGR_LIV!Q29/AGR_BIOG!$V$43</f>
+        <v>0.16808448388662312</v>
+      </c>
+    </row>
+    <row r="63" spans="4:25">
+      <c r="V63" s="465" t="s">
+        <v>513</v>
+      </c>
+      <c r="W63" s="466"/>
+      <c r="X63" s="466"/>
+      <c r="Y63" s="467">
+        <f>AGR_LIV!Q16/AGR_BIOG!$V$43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:25" ht="13.8" thickBot="1">
+      <c r="V64" s="469" t="s">
+        <v>517</v>
+      </c>
+      <c r="W64" s="470"/>
+      <c r="X64" s="470"/>
+      <c r="Y64" s="471">
+        <f>AGR_LIV!Q43/AGR_BIOG!$V$43</f>
+        <v>4.9154789901687937E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14042,20 +14317,20 @@
       <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18">
+    <row r="2" spans="2:15" ht="17.399999999999999">
       <c r="B2" s="263" t="s">
         <v>676</v>
       </c>
@@ -14080,7 +14355,7 @@
       <c r="N4" s="247"/>
       <c r="O4" s="247"/>
     </row>
-    <row r="5" spans="2:15" ht="38.25">
+    <row r="5" spans="2:15" ht="39.6">
       <c r="B5" s="71" t="s">
         <v>73</v>
       </c>
@@ -14124,7 +14399,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="39" thickBot="1">
+    <row r="6" spans="2:15" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="74" t="s">
         <v>464</v>
       </c>
@@ -14164,7 +14439,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15.95" customHeight="1">
+    <row r="7" spans="2:15" ht="15.9" customHeight="1">
       <c r="B7" s="87" t="str">
         <f>AGR_Processes!D25</f>
         <v>AGR_EX_BIOG</v>
@@ -14207,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15.95" customHeight="1">
+    <row r="8" spans="2:15" ht="15.9" customHeight="1">
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
       <c r="D8" s="79" t="str">
@@ -14230,7 +14505,7 @@
       <c r="N8" s="79"/>
       <c r="O8" s="79"/>
     </row>
-    <row r="9" spans="2:15" ht="15.95" customHeight="1">
+    <row r="9" spans="2:15" ht="15.9" customHeight="1">
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81" t="str">
@@ -14253,7 +14528,7 @@
       <c r="N9" s="81"/>
       <c r="O9" s="81"/>
     </row>
-    <row r="10" spans="2:15" ht="15.95" customHeight="1">
+    <row r="10" spans="2:15" ht="15.9" customHeight="1">
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
       <c r="D10" s="79" t="str">
@@ -14276,7 +14551,7 @@
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
     </row>
-    <row r="11" spans="2:15" ht="15.95" customHeight="1">
+    <row r="11" spans="2:15" ht="15.9" customHeight="1">
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81" t="str">
@@ -14299,7 +14574,7 @@
       <c r="N11" s="81"/>
       <c r="O11" s="81"/>
     </row>
-    <row r="12" spans="2:15" ht="15.95" customHeight="1">
+    <row r="12" spans="2:15" ht="15.9" customHeight="1">
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
       <c r="D12" s="79" t="str">
@@ -14322,7 +14597,7 @@
       <c r="N12" s="79"/>
       <c r="O12" s="79"/>
     </row>
-    <row r="13" spans="2:15" ht="15.95" customHeight="1">
+    <row r="13" spans="2:15" ht="15.9" customHeight="1">
       <c r="B13" s="81"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81" t="str">
@@ -14345,7 +14620,7 @@
       <c r="N13" s="81"/>
       <c r="O13" s="81"/>
     </row>
-    <row r="14" spans="2:15" ht="15.95" customHeight="1">
+    <row r="14" spans="2:15" ht="15.9" customHeight="1">
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
       <c r="D14" s="79" t="str">
@@ -14368,7 +14643,7 @@
       <c r="N14" s="79"/>
       <c r="O14" s="79"/>
     </row>
-    <row r="15" spans="2:15" ht="15.95" customHeight="1">
+    <row r="15" spans="2:15" ht="15.9" customHeight="1">
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81" t="str">
@@ -14391,7 +14666,7 @@
       <c r="N15" s="81"/>
       <c r="O15" s="81"/>
     </row>
-    <row r="16" spans="2:15" ht="15.95" customHeight="1">
+    <row r="16" spans="2:15" ht="15.9" customHeight="1">
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
       <c r="D16" s="79" t="str">
@@ -14414,7 +14689,7 @@
       <c r="N16" s="79"/>
       <c r="O16" s="79"/>
     </row>
-    <row r="17" spans="2:15" ht="15.95" customHeight="1">
+    <row r="17" spans="2:15" ht="15.9" customHeight="1">
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81" t="str">
@@ -14437,7 +14712,7 @@
       <c r="N17" s="81"/>
       <c r="O17" s="81"/>
     </row>
-    <row r="18" spans="2:15" ht="15.95" customHeight="1">
+    <row r="18" spans="2:15" ht="15.9" customHeight="1">
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="str">
@@ -14460,7 +14735,7 @@
       <c r="N18" s="79"/>
       <c r="O18" s="79"/>
     </row>
-    <row r="19" spans="2:15" ht="15.95" customHeight="1">
+    <row r="19" spans="2:15" ht="15.9" customHeight="1">
       <c r="B19" s="81"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81" t="str">
@@ -14483,7 +14758,7 @@
       <c r="N19" s="81"/>
       <c r="O19" s="81"/>
     </row>
-    <row r="20" spans="2:15" ht="15.95" customHeight="1">
+    <row r="20" spans="2:15" ht="15.9" customHeight="1">
       <c r="B20" s="79"/>
       <c r="C20" s="79"/>
       <c r="D20" s="79" t="str">
@@ -14506,7 +14781,7 @@
       <c r="N20" s="79"/>
       <c r="O20" s="79"/>
     </row>
-    <row r="21" spans="2:15" ht="15.95" customHeight="1">
+    <row r="21" spans="2:15" ht="15.9" customHeight="1">
       <c r="B21" s="81"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81" t="str">
@@ -14529,7 +14804,7 @@
       <c r="N21" s="81"/>
       <c r="O21" s="81"/>
     </row>
-    <row r="22" spans="2:15" ht="15.95" customHeight="1">
+    <row r="22" spans="2:15" ht="15.9" customHeight="1">
       <c r="B22" s="79"/>
       <c r="C22" s="79"/>
       <c r="D22" s="79" t="str">
@@ -14552,7 +14827,7 @@
       <c r="N22" s="79"/>
       <c r="O22" s="79"/>
     </row>
-    <row r="23" spans="2:15" ht="15.95" customHeight="1">
+    <row r="23" spans="2:15" ht="15.9" customHeight="1">
       <c r="B23" s="81"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81" t="str">
@@ -14575,7 +14850,7 @@
       <c r="N23" s="81"/>
       <c r="O23" s="81"/>
     </row>
-    <row r="24" spans="2:15" ht="15.95" customHeight="1">
+    <row r="24" spans="2:15" ht="15.9" customHeight="1">
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
       <c r="D24" s="79" t="str">
@@ -14598,7 +14873,7 @@
       <c r="N24" s="79"/>
       <c r="O24" s="79"/>
     </row>
-    <row r="25" spans="2:15" ht="15.95" customHeight="1">
+    <row r="25" spans="2:15" ht="15.9" customHeight="1">
       <c r="B25" s="81"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81" t="str">
@@ -14621,7 +14896,7 @@
       <c r="N25" s="81"/>
       <c r="O25" s="81"/>
     </row>
-    <row r="26" spans="2:15" ht="15.95" customHeight="1">
+    <row r="26" spans="2:15" ht="15.9" customHeight="1">
       <c r="B26" s="79"/>
       <c r="C26" s="79"/>
       <c r="D26" s="79" t="str">
@@ -14644,7 +14919,7 @@
       <c r="N26" s="79"/>
       <c r="O26" s="79"/>
     </row>
-    <row r="27" spans="2:15" ht="15.95" customHeight="1">
+    <row r="27" spans="2:15" ht="15.9" customHeight="1">
       <c r="B27" s="81"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81" t="str">
@@ -14667,7 +14942,7 @@
       <c r="N27" s="81"/>
       <c r="O27" s="81"/>
     </row>
-    <row r="28" spans="2:15" ht="15.95" customHeight="1">
+    <row r="28" spans="2:15" ht="15.9" customHeight="1">
       <c r="B28" s="79"/>
       <c r="C28" s="79"/>
       <c r="D28" s="79" t="str">
@@ -14690,7 +14965,7 @@
       <c r="N28" s="79"/>
       <c r="O28" s="79"/>
     </row>
-    <row r="29" spans="2:15" ht="15.95" customHeight="1">
+    <row r="29" spans="2:15" ht="15.9" customHeight="1">
       <c r="B29" s="81"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81" t="str">
@@ -14713,7 +14988,7 @@
       <c r="N29" s="81"/>
       <c r="O29" s="81"/>
     </row>
-    <row r="30" spans="2:15" ht="15.95" customHeight="1">
+    <row r="30" spans="2:15" ht="15.9" customHeight="1">
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79" t="str">
@@ -14736,7 +15011,7 @@
       <c r="N30" s="79"/>
       <c r="O30" s="79"/>
     </row>
-    <row r="31" spans="2:15" ht="15.95" customHeight="1" thickBot="1">
+    <row r="31" spans="2:15" ht="15.9" customHeight="1" thickBot="1">
       <c r="B31" s="233"/>
       <c r="C31" s="233"/>
       <c r="D31" s="233"/>
@@ -14803,7 +15078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="13.5" thickBot="1">
+    <row r="36" spans="2:15" ht="13.8" thickBot="1">
       <c r="B36" s="74" t="s">
         <v>464</v>
       </c>
@@ -14827,7 +15102,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="15.95" customHeight="1">
+    <row r="37" spans="2:15" ht="15.9" customHeight="1">
       <c r="B37" s="81" t="str">
         <f>AGR_Processes!D26</f>
         <v>AGR_EX_BIOG_CLEAN</v>
@@ -14855,7 +15130,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="15.95" customHeight="1" thickBot="1">
+    <row r="38" spans="2:15" ht="15.9" customHeight="1" thickBot="1">
       <c r="B38" s="234"/>
       <c r="C38" s="234"/>
       <c r="D38" s="234"/>
@@ -14879,22 +15154,22 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="27" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="27" width="7.88671875" customWidth="1"/>
     <col min="28" max="28" width="9" customWidth="1"/>
-    <col min="29" max="30" width="7.85546875" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" customWidth="1"/>
+    <col min="29" max="30" width="7.88671875" customWidth="1"/>
+    <col min="31" max="31" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18">
+    <row r="2" spans="2:30" ht="17.399999999999999">
       <c r="B2" s="267" t="s">
         <v>677</v>
       </c>
@@ -14914,7 +15189,7 @@
       <c r="K4" s="93"/>
       <c r="L4" s="93"/>
     </row>
-    <row r="5" spans="2:30" ht="63.75">
+    <row r="5" spans="2:30" ht="52.8">
       <c r="B5" s="181" t="s">
         <v>73</v>
       </c>
@@ -15003,7 +15278,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="13.5" thickBot="1">
+    <row r="6" spans="2:30" ht="13.8" thickBot="1">
       <c r="B6" s="184" t="s">
         <v>174</v>
       </c>
@@ -15215,18 +15490,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18">
+    <row r="2" spans="2:7" ht="17.399999999999999">
       <c r="B2" s="263" t="s">
         <v>179</v>
       </c>
@@ -15258,7 +15533,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13.5" thickBot="1">
+    <row r="6" spans="2:7" ht="13.8" thickBot="1">
       <c r="B6" s="188" t="s">
         <v>174</v>
       </c>
@@ -15270,7 +15545,7 @@
       </c>
       <c r="G6" s="188"/>
     </row>
-    <row r="7" spans="2:7" ht="13.5" thickBot="1"/>
+    <row r="7" spans="2:7" ht="13.8" thickBot="1"/>
     <row r="8" spans="2:7">
       <c r="B8" s="190" t="str">
         <f>AGR_Processes!D22</f>
@@ -15314,7 +15589,7 @@
       </c>
       <c r="G10" s="177"/>
     </row>
-    <row r="11" spans="2:7" ht="13.5" thickBot="1">
+    <row r="11" spans="2:7" ht="13.8" thickBot="1">
       <c r="B11" s="192"/>
       <c r="C11" s="192"/>
       <c r="D11" s="192"/>
@@ -15326,7 +15601,7 @@
       </c>
       <c r="G11" s="192"/>
     </row>
-    <row r="14" spans="2:7" ht="18">
+    <row r="14" spans="2:7" ht="17.399999999999999">
       <c r="B14" s="263" t="s">
         <v>184</v>
       </c>
@@ -15358,7 +15633,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="13.5" thickBot="1">
+    <row r="18" spans="2:7" ht="13.8" thickBot="1">
       <c r="B18" s="188" t="s">
         <v>174</v>
       </c>
@@ -15402,7 +15677,7 @@
       </c>
       <c r="G20" s="177"/>
     </row>
-    <row r="21" spans="2:7" ht="13.5" thickBot="1">
+    <row r="21" spans="2:7" ht="13.8" thickBot="1">
       <c r="B21" s="193"/>
       <c r="C21" s="193"/>
       <c r="D21" s="193"/>
@@ -15428,20 +15703,20 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="17.399999999999999">
       <c r="B2" s="266" t="s">
         <v>803</v>
       </c>
@@ -15480,7 +15755,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="39" thickBot="1">
+    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="74" t="s">
         <v>464</v>
       </c>
@@ -15866,26 +16141,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18">
+    <row r="2" spans="2:14" ht="17.399999999999999">
       <c r="B2" s="263" t="s">
         <v>668</v>
       </c>
@@ -16287,16 +16562,16 @@
       <selection pane="bottomRight" activeCell="E7" sqref="E7:BZ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="1.42578125" style="132" customWidth="1"/>
+    <col min="1" max="2" width="1.44140625" style="132" customWidth="1"/>
     <col min="3" max="3" width="5" style="132" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="132" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="132" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="132" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="37" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="151" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="152" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="132" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="132" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="132" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="151" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="152" customWidth="1"/>
     <col min="10" max="21" width="10" style="153" customWidth="1"/>
     <col min="22" max="25" width="10" style="154" customWidth="1"/>
     <col min="26" max="28" width="10" style="153" customWidth="1"/>
@@ -16306,7 +16581,7 @@
     <col min="54" max="54" width="10" style="153" customWidth="1"/>
     <col min="55" max="75" width="10" style="154" customWidth="1"/>
     <col min="76" max="78" width="10" style="155" customWidth="1"/>
-    <col min="79" max="16384" width="9.140625" style="132"/>
+    <col min="79" max="16384" width="9.109375" style="132"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="94" customFormat="1" ht="11.25" customHeight="1">
@@ -16388,7 +16663,7 @@
       <c r="BY1" s="97"/>
       <c r="BZ1" s="97"/>
     </row>
-    <row r="2" spans="1:84" s="94" customFormat="1" ht="20.25">
+    <row r="2" spans="1:84" s="94" customFormat="1" ht="20.399999999999999">
       <c r="A2" s="98" t="s">
         <v>195</v>
       </c>
@@ -16550,7 +16825,7 @@
       <c r="BY3" s="102"/>
       <c r="BZ3" s="102"/>
     </row>
-    <row r="4" spans="1:84" s="112" customFormat="1" ht="22.7" customHeight="1">
+    <row r="4" spans="1:84" s="112" customFormat="1" ht="22.65" customHeight="1">
       <c r="A4" s="103"/>
       <c r="B4" s="103"/>
       <c r="C4" s="103"/>
@@ -16776,7 +17051,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:84" s="122" customFormat="1" ht="54">
+    <row r="5" spans="1:84" s="122" customFormat="1" ht="52.8">
       <c r="A5" s="113"/>
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
@@ -19140,9 +19415,9 @@
       <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.140625" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="62.109375" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="2" max="6" width="16.28515625" customWidth="1"/>
+    <col min="2" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
@@ -21654,14 +21929,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="4" style="232" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="232" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="232" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="232" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="232" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="232" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="232" customWidth="1"/>
     <col min="7" max="9" width="4" style="232" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="232"/>
+    <col min="10" max="16384" width="9.109375" style="232"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -21686,7 +21961,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="36"/>
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
@@ -21697,7 +21972,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="36"/>
       <c r="B4" s="31"/>
       <c r="C4" s="26"/>
@@ -21710,7 +21985,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="36"/>
       <c r="B5" s="31"/>
       <c r="C5" s="26"/>
@@ -21721,7 +21996,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="36"/>
       <c r="B6" s="31"/>
       <c r="C6" s="26"/>
@@ -21734,7 +22009,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="36"/>
       <c r="B7" s="31"/>
       <c r="C7" s="26"/>
@@ -21745,7 +22020,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="36"/>
       <c r="B8" s="31"/>
       <c r="C8" s="26"/>
@@ -21760,7 +22035,7 @@
       <c r="H8" s="27"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="36"/>
       <c r="B9" s="31"/>
       <c r="C9" s="26"/>
@@ -21771,7 +22046,7 @@
       <c r="H9" s="27"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="36"/>
       <c r="B10" s="31"/>
       <c r="C10" s="26"/>
@@ -21784,7 +22059,7 @@
       <c r="H10" s="27"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="36"/>
       <c r="B11" s="31"/>
       <c r="C11" s="26"/>
@@ -21795,7 +22070,7 @@
       <c r="H11" s="27"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="36"/>
       <c r="B12" s="31"/>
       <c r="C12" s="26"/>
@@ -21806,7 +22081,7 @@
       <c r="H12" s="27"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="36"/>
       <c r="B13" s="31"/>
       <c r="C13" s="26"/>
@@ -21817,7 +22092,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="36"/>
       <c r="B14" s="31"/>
       <c r="C14" s="26"/>
@@ -21828,7 +22103,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="36"/>
       <c r="B15" s="31"/>
       <c r="C15" s="26"/>
@@ -21839,7 +22114,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="36"/>
       <c r="B16" s="31"/>
       <c r="C16" s="26"/>
@@ -21850,7 +22125,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="36"/>
       <c r="B17" s="31"/>
       <c r="C17" s="26"/>
@@ -21861,7 +22136,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="36"/>
       <c r="B18" s="31"/>
       <c r="C18" s="26"/>
@@ -21872,7 +22147,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="36"/>
       <c r="B19" s="31"/>
       <c r="C19" s="26"/>
@@ -21883,7 +22158,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="36"/>
       <c r="B20" s="31"/>
       <c r="C20" s="26"/>
@@ -21894,7 +22169,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="36"/>
       <c r="B21" s="31"/>
       <c r="C21" s="26"/>
@@ -21905,7 +22180,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="36"/>
       <c r="B22" s="31"/>
       <c r="C22" s="26"/>
@@ -21916,7 +22191,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="36"/>
       <c r="B23" s="31"/>
       <c r="C23" s="26"/>
@@ -21927,7 +22202,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="36"/>
       <c r="B24" s="31"/>
       <c r="C24" s="26"/>
@@ -21938,7 +22213,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="36"/>
       <c r="B25" s="31"/>
       <c r="C25" s="26"/>
@@ -21949,7 +22224,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="36"/>
       <c r="B26" s="31"/>
       <c r="C26" s="26"/>
@@ -21960,7 +22235,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="36"/>
       <c r="B27" s="31"/>
       <c r="C27" s="26"/>
@@ -21971,7 +22246,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="36"/>
       <c r="B28" s="31"/>
       <c r="C28" s="26"/>
@@ -21982,7 +22257,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="36"/>
       <c r="B29" s="31"/>
       <c r="C29" s="26"/>
@@ -21993,7 +22268,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="36"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="36"/>
       <c r="B30" s="31"/>
       <c r="C30" s="26"/>
@@ -22004,7 +22279,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="36"/>
       <c r="B31" s="31"/>
       <c r="C31" s="26"/>
@@ -22015,7 +22290,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="36"/>
       <c r="B32" s="31"/>
       <c r="C32" s="26"/>
@@ -22026,7 +22301,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="36"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="36"/>
       <c r="B33" s="31"/>
       <c r="C33" s="26"/>
@@ -22037,7 +22312,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="36"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="36"/>
       <c r="B34" s="31"/>
       <c r="C34" s="26"/>
@@ -22048,7 +22323,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="36"/>
       <c r="B35" s="31"/>
       <c r="C35" s="26"/>
@@ -22059,7 +22334,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" ht="18.75">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="36"/>
       <c r="B36" s="31"/>
       <c r="C36" s="26"/>
@@ -22070,7 +22345,7 @@
       <c r="H36" s="27"/>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="36"/>
       <c r="B37" s="31"/>
       <c r="C37" s="26"/>
@@ -22081,7 +22356,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75">
+    <row r="38" spans="1:9" ht="18">
       <c r="A38" s="36"/>
       <c r="B38" s="31"/>
       <c r="C38" s="19"/>
@@ -22131,22 +22406,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18">
+    <row r="2" spans="2:14" ht="17.399999999999999">
       <c r="B2" s="265" t="s">
         <v>671</v>
       </c>
@@ -22170,7 +22445,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="2:14" ht="17.45" customHeight="1">
+    <row r="4" spans="2:14" ht="17.399999999999999" customHeight="1">
       <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
@@ -22212,7 +22487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="39" thickBot="1">
+    <row r="6" spans="2:14" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
@@ -22837,7 +23112,7 @@
       <c r="I33" s="236"/>
       <c r="J33" s="236"/>
     </row>
-    <row r="34" spans="2:10" ht="15.95" customHeight="1">
+    <row r="34" spans="2:10" ht="15.9" customHeight="1">
       <c r="B34" s="81" t="s">
         <v>800</v>
       </c>
@@ -22858,7 +23133,7 @@
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
     </row>
-    <row r="35" spans="2:10" ht="15.95" customHeight="1">
+    <row r="35" spans="2:10" ht="15.9" customHeight="1">
       <c r="B35" s="79" t="s">
         <v>49</v>
       </c>
@@ -22879,7 +23154,7 @@
       <c r="I35" s="79"/>
       <c r="J35" s="79"/>
     </row>
-    <row r="36" spans="2:10" ht="15.95" customHeight="1">
+    <row r="36" spans="2:10" ht="15.9" customHeight="1">
       <c r="B36" s="81" t="s">
         <v>49</v>
       </c>
@@ -22900,7 +23175,7 @@
       <c r="I36" s="81"/>
       <c r="J36" s="81"/>
     </row>
-    <row r="37" spans="2:10" ht="15.95" customHeight="1">
+    <row r="37" spans="2:10" ht="15.9" customHeight="1">
       <c r="B37" s="79" t="s">
         <v>49</v>
       </c>
@@ -22921,7 +23196,7 @@
       <c r="I37" s="79"/>
       <c r="J37" s="79"/>
     </row>
-    <row r="38" spans="2:10" ht="15.95" customHeight="1">
+    <row r="38" spans="2:10" ht="15.9" customHeight="1">
       <c r="B38" s="81" t="s">
         <v>49</v>
       </c>
@@ -22942,7 +23217,7 @@
       <c r="I38" s="81"/>
       <c r="J38" s="81"/>
     </row>
-    <row r="39" spans="2:10" ht="15.95" customHeight="1">
+    <row r="39" spans="2:10" ht="15.9" customHeight="1">
       <c r="B39" s="79" t="s">
         <v>17</v>
       </c>
@@ -22963,7 +23238,7 @@
       <c r="I39" s="79"/>
       <c r="J39" s="79"/>
     </row>
-    <row r="40" spans="2:10" ht="15.95" customHeight="1">
+    <row r="40" spans="2:10" ht="15.9" customHeight="1">
       <c r="B40" s="81" t="s">
         <v>17</v>
       </c>
@@ -22984,7 +23259,7 @@
       <c r="I40" s="81"/>
       <c r="J40" s="81"/>
     </row>
-    <row r="41" spans="2:10" ht="15.95" customHeight="1">
+    <row r="41" spans="2:10" ht="15.9" customHeight="1">
       <c r="B41" s="79" t="s">
         <v>17</v>
       </c>
@@ -23005,7 +23280,7 @@
       <c r="I41" s="79"/>
       <c r="J41" s="79"/>
     </row>
-    <row r="42" spans="2:10" ht="15.95" customHeight="1">
+    <row r="42" spans="2:10" ht="15.9" customHeight="1">
       <c r="B42" s="81" t="s">
         <v>17</v>
       </c>
@@ -23026,7 +23301,7 @@
       <c r="I42" s="81"/>
       <c r="J42" s="81"/>
     </row>
-    <row r="43" spans="2:10" ht="15.95" customHeight="1">
+    <row r="43" spans="2:10" ht="15.9" customHeight="1">
       <c r="B43" s="79" t="s">
         <v>17</v>
       </c>
@@ -23047,7 +23322,7 @@
       <c r="I43" s="79"/>
       <c r="J43" s="79"/>
     </row>
-    <row r="44" spans="2:10" ht="15.95" customHeight="1">
+    <row r="44" spans="2:10" ht="15.9" customHeight="1">
       <c r="B44" s="81" t="s">
         <v>174</v>
       </c>
@@ -23068,7 +23343,7 @@
       <c r="I44" s="81"/>
       <c r="J44" s="81"/>
     </row>
-    <row r="45" spans="2:10" ht="15.95" customHeight="1">
+    <row r="45" spans="2:10" ht="15.9" customHeight="1">
       <c r="B45" s="79" t="s">
         <v>17</v>
       </c>
@@ -23089,7 +23364,7 @@
       <c r="I45" s="79"/>
       <c r="J45" s="79"/>
     </row>
-    <row r="46" spans="2:10" ht="15.95" customHeight="1">
+    <row r="46" spans="2:10" ht="15.9" customHeight="1">
       <c r="B46" s="81" t="s">
         <v>174</v>
       </c>
@@ -23110,7 +23385,7 @@
       <c r="I46" s="81"/>
       <c r="J46" s="81"/>
     </row>
-    <row r="47" spans="2:10" ht="15.95" customHeight="1">
+    <row r="47" spans="2:10" ht="15.9" customHeight="1">
       <c r="B47" s="81" t="s">
         <v>174</v>
       </c>
@@ -23131,7 +23406,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="79"/>
     </row>
-    <row r="48" spans="2:10" ht="15.95" customHeight="1">
+    <row r="48" spans="2:10" ht="15.9" customHeight="1">
       <c r="B48" s="81" t="s">
         <v>17</v>
       </c>
@@ -23152,7 +23427,7 @@
       <c r="I48" s="81"/>
       <c r="J48" s="81"/>
     </row>
-    <row r="49" spans="2:10" ht="15.95" customHeight="1">
+    <row r="49" spans="2:10" ht="15.9" customHeight="1">
       <c r="B49" s="79" t="s">
         <v>17</v>
       </c>
@@ -23173,7 +23448,7 @@
       <c r="I49" s="79"/>
       <c r="J49" s="79"/>
     </row>
-    <row r="50" spans="2:10" ht="15.95" customHeight="1">
+    <row r="50" spans="2:10" ht="15.9" customHeight="1">
       <c r="B50" s="81" t="s">
         <v>17</v>
       </c>
@@ -23194,7 +23469,7 @@
       <c r="I50" s="81"/>
       <c r="J50" s="81"/>
     </row>
-    <row r="51" spans="2:10" ht="15.95" customHeight="1">
+    <row r="51" spans="2:10" ht="15.9" customHeight="1">
       <c r="B51" s="79" t="s">
         <v>17</v>
       </c>
@@ -23215,7 +23490,7 @@
       <c r="I51" s="79"/>
       <c r="J51" s="79"/>
     </row>
-    <row r="52" spans="2:10" ht="15.95" customHeight="1">
+    <row r="52" spans="2:10" ht="15.9" customHeight="1">
       <c r="B52" s="81" t="s">
         <v>17</v>
       </c>
@@ -23236,7 +23511,7 @@
       <c r="I52" s="81"/>
       <c r="J52" s="81"/>
     </row>
-    <row r="53" spans="2:10" ht="15.95" customHeight="1">
+    <row r="53" spans="2:10" ht="15.9" customHeight="1">
       <c r="B53" s="79" t="s">
         <v>17</v>
       </c>
@@ -23257,7 +23532,7 @@
       <c r="I53" s="79"/>
       <c r="J53" s="79"/>
     </row>
-    <row r="54" spans="2:10" ht="15.95" customHeight="1">
+    <row r="54" spans="2:10" ht="15.9" customHeight="1">
       <c r="B54" s="81" t="s">
         <v>17</v>
       </c>
@@ -23278,7 +23553,7 @@
       <c r="I54" s="81"/>
       <c r="J54" s="81"/>
     </row>
-    <row r="55" spans="2:10" ht="15.95" customHeight="1">
+    <row r="55" spans="2:10" ht="15.9" customHeight="1">
       <c r="B55" s="79" t="s">
         <v>17</v>
       </c>
@@ -23299,7 +23574,7 @@
       <c r="I55" s="79"/>
       <c r="J55" s="79"/>
     </row>
-    <row r="56" spans="2:10" ht="15.95" customHeight="1">
+    <row r="56" spans="2:10" ht="15.9" customHeight="1">
       <c r="B56" s="81" t="s">
         <v>17</v>
       </c>
@@ -23320,7 +23595,7 @@
       <c r="I56" s="81"/>
       <c r="J56" s="81"/>
     </row>
-    <row r="57" spans="2:10" ht="15.95" customHeight="1">
+    <row r="57" spans="2:10" ht="15.9" customHeight="1">
       <c r="B57" s="79" t="s">
         <v>17</v>
       </c>
@@ -23341,7 +23616,7 @@
       <c r="I57" s="79"/>
       <c r="J57" s="79"/>
     </row>
-    <row r="58" spans="2:10" ht="15.95" customHeight="1">
+    <row r="58" spans="2:10" ht="15.9" customHeight="1">
       <c r="B58" s="81" t="s">
         <v>17</v>
       </c>
@@ -23362,7 +23637,7 @@
       <c r="I58" s="81"/>
       <c r="J58" s="81"/>
     </row>
-    <row r="59" spans="2:10" ht="15.95" customHeight="1">
+    <row r="59" spans="2:10" ht="15.9" customHeight="1">
       <c r="B59" s="79" t="s">
         <v>174</v>
       </c>
@@ -23383,7 +23658,7 @@
       <c r="I59" s="79"/>
       <c r="J59" s="79"/>
     </row>
-    <row r="60" spans="2:10" ht="15.95" customHeight="1">
+    <row r="60" spans="2:10" ht="15.9" customHeight="1">
       <c r="B60" s="81" t="s">
         <v>17</v>
       </c>
@@ -23404,7 +23679,7 @@
       <c r="I60" s="81"/>
       <c r="J60" s="81"/>
     </row>
-    <row r="61" spans="2:10" ht="15.95" customHeight="1">
+    <row r="61" spans="2:10" ht="15.9" customHeight="1">
       <c r="B61" s="79" t="s">
         <v>17</v>
       </c>
@@ -23425,7 +23700,7 @@
       <c r="I61" s="79"/>
       <c r="J61" s="79"/>
     </row>
-    <row r="62" spans="2:10" ht="15.95" customHeight="1">
+    <row r="62" spans="2:10" ht="15.9" customHeight="1">
       <c r="B62" s="81" t="s">
         <v>17</v>
       </c>
@@ -23446,7 +23721,7 @@
       <c r="I62" s="81"/>
       <c r="J62" s="81"/>
     </row>
-    <row r="63" spans="2:10" ht="15.95" customHeight="1">
+    <row r="63" spans="2:10" ht="15.9" customHeight="1">
       <c r="B63" s="79" t="s">
         <v>680</v>
       </c>
@@ -23469,7 +23744,7 @@
       <c r="I63" s="81"/>
       <c r="J63" s="81"/>
     </row>
-    <row r="64" spans="2:10" ht="15.95" customHeight="1">
+    <row r="64" spans="2:10" ht="15.9" customHeight="1">
       <c r="B64" s="81" t="s">
         <v>680</v>
       </c>
@@ -23492,7 +23767,7 @@
       <c r="I64" s="81"/>
       <c r="J64" s="81"/>
     </row>
-    <row r="65" spans="2:10" ht="15.95" customHeight="1">
+    <row r="65" spans="2:10" ht="15.9" customHeight="1">
       <c r="B65" s="79" t="s">
         <v>174</v>
       </c>
@@ -23515,7 +23790,7 @@
       <c r="I65" s="79"/>
       <c r="J65" s="79"/>
     </row>
-    <row r="66" spans="2:10" ht="15.95" customHeight="1">
+    <row r="66" spans="2:10" ht="15.9" customHeight="1">
       <c r="B66" s="81" t="s">
         <v>174</v>
       </c>
@@ -23538,7 +23813,7 @@
       <c r="I66" s="81"/>
       <c r="J66" s="81"/>
     </row>
-    <row r="67" spans="2:10" ht="15.95" customHeight="1">
+    <row r="67" spans="2:10" ht="15.9" customHeight="1">
       <c r="B67" s="79" t="s">
         <v>17</v>
       </c>
@@ -23561,7 +23836,7 @@
       <c r="I67" s="79"/>
       <c r="J67" s="79"/>
     </row>
-    <row r="68" spans="2:10" ht="15.95" customHeight="1">
+    <row r="68" spans="2:10" ht="15.9" customHeight="1">
       <c r="B68" s="81" t="s">
         <v>17</v>
       </c>
@@ -23584,7 +23859,7 @@
       <c r="I68" s="81"/>
       <c r="J68" s="81"/>
     </row>
-    <row r="69" spans="2:10" ht="15.95" customHeight="1">
+    <row r="69" spans="2:10" ht="15.9" customHeight="1">
       <c r="B69" s="79" t="s">
         <v>45</v>
       </c>
@@ -23607,7 +23882,7 @@
       <c r="I69" s="79"/>
       <c r="J69" s="79"/>
     </row>
-    <row r="70" spans="2:10" ht="15.95" customHeight="1">
+    <row r="70" spans="2:10" ht="15.9" customHeight="1">
       <c r="B70" s="81" t="s">
         <v>45</v>
       </c>
@@ -23630,7 +23905,7 @@
       <c r="I70" s="81"/>
       <c r="J70" s="81"/>
     </row>
-    <row r="71" spans="2:10" ht="15.95" customHeight="1">
+    <row r="71" spans="2:10" ht="15.9" customHeight="1">
       <c r="B71" s="79" t="s">
         <v>45</v>
       </c>
@@ -23653,7 +23928,7 @@
       <c r="I71" s="79"/>
       <c r="J71" s="79"/>
     </row>
-    <row r="72" spans="2:10" ht="15.95" customHeight="1">
+    <row r="72" spans="2:10" ht="15.9" customHeight="1">
       <c r="B72" s="81" t="s">
         <v>45</v>
       </c>
@@ -23676,7 +23951,7 @@
       <c r="I72" s="81"/>
       <c r="J72" s="81"/>
     </row>
-    <row r="73" spans="2:10" ht="15.95" customHeight="1">
+    <row r="73" spans="2:10" ht="15.9" customHeight="1">
       <c r="B73" s="79" t="s">
         <v>45</v>
       </c>
@@ -23699,7 +23974,7 @@
       <c r="I73" s="79"/>
       <c r="J73" s="79"/>
     </row>
-    <row r="74" spans="2:10" ht="15.95" customHeight="1">
+    <row r="74" spans="2:10" ht="15.9" customHeight="1">
       <c r="B74" s="81" t="s">
         <v>174</v>
       </c>
@@ -23722,7 +23997,7 @@
       <c r="I74" s="81"/>
       <c r="J74" s="81"/>
     </row>
-    <row r="75" spans="2:10" ht="15.95" customHeight="1">
+    <row r="75" spans="2:10" ht="15.9" customHeight="1">
       <c r="B75" s="79" t="s">
         <v>45</v>
       </c>
@@ -23745,7 +24020,7 @@
       <c r="I75" s="79"/>
       <c r="J75" s="79"/>
     </row>
-    <row r="76" spans="2:10" ht="15.95" customHeight="1">
+    <row r="76" spans="2:10" ht="15.9" customHeight="1">
       <c r="B76" s="81" t="s">
         <v>174</v>
       </c>
@@ -23768,7 +24043,7 @@
       <c r="I76" s="81"/>
       <c r="J76" s="81"/>
     </row>
-    <row r="77" spans="2:10" ht="15.95" customHeight="1">
+    <row r="77" spans="2:10" ht="15.9" customHeight="1">
       <c r="B77" s="79" t="s">
         <v>174</v>
       </c>
@@ -23791,7 +24066,7 @@
       <c r="I77" s="79"/>
       <c r="J77" s="79"/>
     </row>
-    <row r="78" spans="2:10" ht="15.95" customHeight="1" thickBot="1">
+    <row r="78" spans="2:10" ht="15.9" customHeight="1" thickBot="1">
       <c r="B78" s="233" t="s">
         <v>174</v>
       </c>
@@ -24069,22 +24344,22 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="17.399999999999999">
       <c r="B2" s="265" t="s">
         <v>671</v>
       </c>
@@ -24108,7 +24383,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="2:10" ht="17.45" customHeight="1">
+    <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1">
       <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
@@ -24150,7 +24425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="39" thickBot="1">
+    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
@@ -24772,7 +25047,7 @@
       <c r="I33" s="236"/>
       <c r="J33" s="236"/>
     </row>
-    <row r="34" spans="2:10" ht="15.95" customHeight="1">
+    <row r="34" spans="2:10" ht="15.9" customHeight="1">
       <c r="B34" s="81" t="s">
         <v>800</v>
       </c>
@@ -24793,7 +25068,7 @@
       <c r="I34" s="81"/>
       <c r="J34" s="81"/>
     </row>
-    <row r="35" spans="2:10" ht="15.95" customHeight="1">
+    <row r="35" spans="2:10" ht="15.9" customHeight="1">
       <c r="B35" s="79" t="s">
         <v>49</v>
       </c>
@@ -24814,7 +25089,7 @@
       <c r="I35" s="79"/>
       <c r="J35" s="79"/>
     </row>
-    <row r="36" spans="2:10" ht="15.95" customHeight="1">
+    <row r="36" spans="2:10" ht="15.9" customHeight="1">
       <c r="B36" s="81" t="s">
         <v>49</v>
       </c>
@@ -24835,7 +25110,7 @@
       <c r="I36" s="81"/>
       <c r="J36" s="81"/>
     </row>
-    <row r="37" spans="2:10" ht="15.95" customHeight="1">
+    <row r="37" spans="2:10" ht="15.9" customHeight="1">
       <c r="B37" s="79" t="s">
         <v>49</v>
       </c>
@@ -24856,7 +25131,7 @@
       <c r="I37" s="79"/>
       <c r="J37" s="79"/>
     </row>
-    <row r="38" spans="2:10" ht="15.95" customHeight="1">
+    <row r="38" spans="2:10" ht="15.9" customHeight="1">
       <c r="B38" s="81" t="s">
         <v>49</v>
       </c>
@@ -24877,7 +25152,7 @@
       <c r="I38" s="81"/>
       <c r="J38" s="81"/>
     </row>
-    <row r="39" spans="2:10" ht="15.95" customHeight="1">
+    <row r="39" spans="2:10" ht="15.9" customHeight="1">
       <c r="B39" s="79" t="s">
         <v>17</v>
       </c>
@@ -24898,7 +25173,7 @@
       <c r="I39" s="79"/>
       <c r="J39" s="79"/>
     </row>
-    <row r="40" spans="2:10" ht="15.95" customHeight="1">
+    <row r="40" spans="2:10" ht="15.9" customHeight="1">
       <c r="B40" s="81" t="s">
         <v>17</v>
       </c>
@@ -24919,7 +25194,7 @@
       <c r="I40" s="81"/>
       <c r="J40" s="81"/>
     </row>
-    <row r="41" spans="2:10" ht="15.95" customHeight="1">
+    <row r="41" spans="2:10" ht="15.9" customHeight="1">
       <c r="B41" s="79" t="s">
         <v>17</v>
       </c>
@@ -24940,7 +25215,7 @@
       <c r="I41" s="79"/>
       <c r="J41" s="79"/>
     </row>
-    <row r="42" spans="2:10" ht="15.95" customHeight="1">
+    <row r="42" spans="2:10" ht="15.9" customHeight="1">
       <c r="B42" s="81" t="s">
         <v>17</v>
       </c>
@@ -24961,7 +25236,7 @@
       <c r="I42" s="81"/>
       <c r="J42" s="81"/>
     </row>
-    <row r="43" spans="2:10" ht="15.95" customHeight="1">
+    <row r="43" spans="2:10" ht="15.9" customHeight="1">
       <c r="B43" s="79" t="s">
         <v>17</v>
       </c>
@@ -24982,7 +25257,7 @@
       <c r="I43" s="79"/>
       <c r="J43" s="79"/>
     </row>
-    <row r="44" spans="2:10" ht="15.95" customHeight="1">
+    <row r="44" spans="2:10" ht="15.9" customHeight="1">
       <c r="B44" s="81" t="s">
         <v>174</v>
       </c>
@@ -25003,7 +25278,7 @@
       <c r="I44" s="81"/>
       <c r="J44" s="81"/>
     </row>
-    <row r="45" spans="2:10" ht="15.95" customHeight="1">
+    <row r="45" spans="2:10" ht="15.9" customHeight="1">
       <c r="B45" s="79" t="s">
         <v>17</v>
       </c>
@@ -25024,7 +25299,7 @@
       <c r="I45" s="79"/>
       <c r="J45" s="79"/>
     </row>
-    <row r="46" spans="2:10" ht="15.95" customHeight="1">
+    <row r="46" spans="2:10" ht="15.9" customHeight="1">
       <c r="B46" s="81" t="s">
         <v>174</v>
       </c>
@@ -25045,7 +25320,7 @@
       <c r="I46" s="81"/>
       <c r="J46" s="81"/>
     </row>
-    <row r="47" spans="2:10" ht="15.95" customHeight="1">
+    <row r="47" spans="2:10" ht="15.9" customHeight="1">
       <c r="B47" s="81" t="s">
         <v>174</v>
       </c>
@@ -25066,7 +25341,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="79"/>
     </row>
-    <row r="48" spans="2:10" ht="15.95" customHeight="1">
+    <row r="48" spans="2:10" ht="15.9" customHeight="1">
       <c r="B48" s="81" t="s">
         <v>17</v>
       </c>
@@ -25087,7 +25362,7 @@
       <c r="I48" s="81"/>
       <c r="J48" s="81"/>
     </row>
-    <row r="49" spans="2:10" ht="15.95" customHeight="1">
+    <row r="49" spans="2:10" ht="15.9" customHeight="1">
       <c r="B49" s="79" t="s">
         <v>17</v>
       </c>
@@ -25108,7 +25383,7 @@
       <c r="I49" s="79"/>
       <c r="J49" s="79"/>
     </row>
-    <row r="50" spans="2:10" ht="15.95" customHeight="1">
+    <row r="50" spans="2:10" ht="15.9" customHeight="1">
       <c r="B50" s="81" t="s">
         <v>17</v>
       </c>
@@ -25129,7 +25404,7 @@
       <c r="I50" s="81"/>
       <c r="J50" s="81"/>
     </row>
-    <row r="51" spans="2:10" ht="15.95" customHeight="1">
+    <row r="51" spans="2:10" ht="15.9" customHeight="1">
       <c r="B51" s="79" t="s">
         <v>17</v>
       </c>
@@ -25150,7 +25425,7 @@
       <c r="I51" s="79"/>
       <c r="J51" s="79"/>
     </row>
-    <row r="52" spans="2:10" ht="15.95" customHeight="1">
+    <row r="52" spans="2:10" ht="15.9" customHeight="1">
       <c r="B52" s="81" t="s">
         <v>17</v>
       </c>
@@ -25171,7 +25446,7 @@
       <c r="I52" s="81"/>
       <c r="J52" s="81"/>
     </row>
-    <row r="53" spans="2:10" ht="15.95" customHeight="1">
+    <row r="53" spans="2:10" ht="15.9" customHeight="1">
       <c r="B53" s="79" t="s">
         <v>17</v>
       </c>
@@ -25192,7 +25467,7 @@
       <c r="I53" s="79"/>
       <c r="J53" s="79"/>
     </row>
-    <row r="54" spans="2:10" ht="15.95" customHeight="1">
+    <row r="54" spans="2:10" ht="15.9" customHeight="1">
       <c r="B54" s="81" t="s">
         <v>17</v>
       </c>
@@ -25213,7 +25488,7 @@
       <c r="I54" s="81"/>
       <c r="J54" s="81"/>
     </row>
-    <row r="55" spans="2:10" ht="15.95" customHeight="1">
+    <row r="55" spans="2:10" ht="15.9" customHeight="1">
       <c r="B55" s="79" t="s">
         <v>17</v>
       </c>
@@ -25234,7 +25509,7 @@
       <c r="I55" s="79"/>
       <c r="J55" s="79"/>
     </row>
-    <row r="56" spans="2:10" ht="15.95" customHeight="1">
+    <row r="56" spans="2:10" ht="15.9" customHeight="1">
       <c r="B56" s="81" t="s">
         <v>17</v>
       </c>
@@ -25255,7 +25530,7 @@
       <c r="I56" s="81"/>
       <c r="J56" s="81"/>
     </row>
-    <row r="57" spans="2:10" ht="15.95" customHeight="1">
+    <row r="57" spans="2:10" ht="15.9" customHeight="1">
       <c r="B57" s="79" t="s">
         <v>17</v>
       </c>
@@ -25276,7 +25551,7 @@
       <c r="I57" s="79"/>
       <c r="J57" s="79"/>
     </row>
-    <row r="58" spans="2:10" ht="15.95" customHeight="1">
+    <row r="58" spans="2:10" ht="15.9" customHeight="1">
       <c r="B58" s="81" t="s">
         <v>17</v>
       </c>
@@ -25297,7 +25572,7 @@
       <c r="I58" s="81"/>
       <c r="J58" s="81"/>
     </row>
-    <row r="59" spans="2:10" ht="15.95" customHeight="1">
+    <row r="59" spans="2:10" ht="15.9" customHeight="1">
       <c r="B59" s="79" t="s">
         <v>174</v>
       </c>
@@ -25318,7 +25593,7 @@
       <c r="I59" s="79"/>
       <c r="J59" s="79"/>
     </row>
-    <row r="60" spans="2:10" ht="15.95" customHeight="1">
+    <row r="60" spans="2:10" ht="15.9" customHeight="1">
       <c r="B60" s="81" t="s">
         <v>17</v>
       </c>
@@ -25339,7 +25614,7 @@
       <c r="I60" s="81"/>
       <c r="J60" s="81"/>
     </row>
-    <row r="61" spans="2:10" ht="15.95" customHeight="1">
+    <row r="61" spans="2:10" ht="15.9" customHeight="1">
       <c r="B61" s="79" t="s">
         <v>17</v>
       </c>
@@ -25360,7 +25635,7 @@
       <c r="I61" s="79"/>
       <c r="J61" s="79"/>
     </row>
-    <row r="62" spans="2:10" ht="15.95" customHeight="1">
+    <row r="62" spans="2:10" ht="15.9" customHeight="1">
       <c r="B62" s="81" t="s">
         <v>17</v>
       </c>
@@ -25381,7 +25656,7 @@
       <c r="I62" s="81"/>
       <c r="J62" s="81"/>
     </row>
-    <row r="63" spans="2:10" ht="15.95" customHeight="1">
+    <row r="63" spans="2:10" ht="15.9" customHeight="1">
       <c r="B63" s="79" t="s">
         <v>680</v>
       </c>
@@ -25404,7 +25679,7 @@
       <c r="I63" s="81"/>
       <c r="J63" s="81"/>
     </row>
-    <row r="64" spans="2:10" ht="15.95" customHeight="1">
+    <row r="64" spans="2:10" ht="15.9" customHeight="1">
       <c r="B64" s="81" t="s">
         <v>680</v>
       </c>
@@ -25427,7 +25702,7 @@
       <c r="I64" s="81"/>
       <c r="J64" s="81"/>
     </row>
-    <row r="65" spans="2:10" ht="15.95" customHeight="1">
+    <row r="65" spans="2:10" ht="15.9" customHeight="1">
       <c r="B65" s="79" t="s">
         <v>174</v>
       </c>
@@ -25450,7 +25725,7 @@
       <c r="I65" s="79"/>
       <c r="J65" s="79"/>
     </row>
-    <row r="66" spans="2:10" ht="15.95" customHeight="1">
+    <row r="66" spans="2:10" ht="15.9" customHeight="1">
       <c r="B66" s="81" t="s">
         <v>174</v>
       </c>
@@ -25473,7 +25748,7 @@
       <c r="I66" s="81"/>
       <c r="J66" s="81"/>
     </row>
-    <row r="67" spans="2:10" ht="15.95" customHeight="1">
+    <row r="67" spans="2:10" ht="15.9" customHeight="1">
       <c r="B67" s="79" t="s">
         <v>17</v>
       </c>
@@ -25496,7 +25771,7 @@
       <c r="I67" s="79"/>
       <c r="J67" s="79"/>
     </row>
-    <row r="68" spans="2:10" ht="15.95" customHeight="1">
+    <row r="68" spans="2:10" ht="15.9" customHeight="1">
       <c r="B68" s="81" t="s">
         <v>17</v>
       </c>
@@ -25519,7 +25794,7 @@
       <c r="I68" s="81"/>
       <c r="J68" s="81"/>
     </row>
-    <row r="69" spans="2:10" ht="15.95" customHeight="1">
+    <row r="69" spans="2:10" ht="15.9" customHeight="1">
       <c r="B69" s="79" t="s">
         <v>45</v>
       </c>
@@ -25542,7 +25817,7 @@
       <c r="I69" s="79"/>
       <c r="J69" s="79"/>
     </row>
-    <row r="70" spans="2:10" ht="15.95" customHeight="1">
+    <row r="70" spans="2:10" ht="15.9" customHeight="1">
       <c r="B70" s="81" t="s">
         <v>45</v>
       </c>
@@ -25565,7 +25840,7 @@
       <c r="I70" s="81"/>
       <c r="J70" s="81"/>
     </row>
-    <row r="71" spans="2:10" ht="15.95" customHeight="1">
+    <row r="71" spans="2:10" ht="15.9" customHeight="1">
       <c r="B71" s="79" t="s">
         <v>45</v>
       </c>
@@ -25588,7 +25863,7 @@
       <c r="I71" s="79"/>
       <c r="J71" s="79"/>
     </row>
-    <row r="72" spans="2:10" ht="15.95" customHeight="1">
+    <row r="72" spans="2:10" ht="15.9" customHeight="1">
       <c r="B72" s="81" t="s">
         <v>45</v>
       </c>
@@ -25611,7 +25886,7 @@
       <c r="I72" s="81"/>
       <c r="J72" s="81"/>
     </row>
-    <row r="73" spans="2:10" ht="15.95" customHeight="1">
+    <row r="73" spans="2:10" ht="15.9" customHeight="1">
       <c r="B73" s="79" t="s">
         <v>45</v>
       </c>
@@ -25634,7 +25909,7 @@
       <c r="I73" s="79"/>
       <c r="J73" s="79"/>
     </row>
-    <row r="74" spans="2:10" ht="15.95" customHeight="1">
+    <row r="74" spans="2:10" ht="15.9" customHeight="1">
       <c r="B74" s="81" t="s">
         <v>174</v>
       </c>
@@ -25657,7 +25932,7 @@
       <c r="I74" s="81"/>
       <c r="J74" s="81"/>
     </row>
-    <row r="75" spans="2:10" ht="15.95" customHeight="1">
+    <row r="75" spans="2:10" ht="15.9" customHeight="1">
       <c r="B75" s="79" t="s">
         <v>45</v>
       </c>
@@ -25680,7 +25955,7 @@
       <c r="I75" s="79"/>
       <c r="J75" s="79"/>
     </row>
-    <row r="76" spans="2:10" ht="15.95" customHeight="1">
+    <row r="76" spans="2:10" ht="15.9" customHeight="1">
       <c r="B76" s="81" t="s">
         <v>174</v>
       </c>
@@ -25703,7 +25978,7 @@
       <c r="I76" s="81"/>
       <c r="J76" s="81"/>
     </row>
-    <row r="77" spans="2:10" ht="15.95" customHeight="1">
+    <row r="77" spans="2:10" ht="15.9" customHeight="1">
       <c r="B77" s="79" t="s">
         <v>174</v>
       </c>
@@ -25726,7 +26001,7 @@
       <c r="I77" s="79"/>
       <c r="J77" s="79"/>
     </row>
-    <row r="78" spans="2:10" ht="15.95" customHeight="1" thickBot="1">
+    <row r="78" spans="2:10" ht="15.9" customHeight="1" thickBot="1">
       <c r="B78" s="233" t="s">
         <v>174</v>
       </c>
@@ -26004,22 +26279,22 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18">
+    <row r="2" spans="2:14" ht="17.399999999999999">
       <c r="B2" s="265" t="s">
         <v>672</v>
       </c>
@@ -26085,7 +26360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="39" thickBot="1">
+    <row r="6" spans="2:14" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="49" t="s">
         <v>80</v>
       </c>
@@ -27708,22 +27983,22 @@
       <selection activeCell="B18" sqref="B18:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18">
+    <row r="2" spans="2:14" ht="17.399999999999999">
       <c r="B2" s="265" t="s">
         <v>672</v>
       </c>
@@ -27789,7 +28064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="39" thickBot="1">
+    <row r="6" spans="2:14" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="49" t="s">
         <v>80</v>
       </c>
@@ -29412,967 +29687,967 @@
       <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="65" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="65" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="65" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="65" customWidth="1"/>
     <col min="7" max="7" width="15" style="65" customWidth="1"/>
-    <col min="8" max="14" width="6.28515625" style="65" customWidth="1"/>
-    <col min="15" max="21" width="6.140625" style="65" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="65"/>
-    <col min="23" max="248" width="9.140625" style="65"/>
-    <col min="249" max="249" width="29.140625" style="65" customWidth="1"/>
-    <col min="250" max="250" width="46.42578125" style="65" customWidth="1"/>
-    <col min="251" max="251" width="39.42578125" style="65" customWidth="1"/>
-    <col min="252" max="252" width="20.85546875" style="65" customWidth="1"/>
-    <col min="253" max="253" width="19.42578125" style="65" customWidth="1"/>
-    <col min="254" max="254" width="11.85546875" style="65" customWidth="1"/>
-    <col min="255" max="255" width="10.42578125" style="65" customWidth="1"/>
-    <col min="256" max="256" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="259" max="260" width="8.5703125" style="65" customWidth="1"/>
-    <col min="261" max="261" width="9.42578125" style="65" customWidth="1"/>
-    <col min="262" max="262" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="265" max="504" width="9.140625" style="65"/>
-    <col min="505" max="505" width="29.140625" style="65" customWidth="1"/>
-    <col min="506" max="506" width="46.42578125" style="65" customWidth="1"/>
-    <col min="507" max="507" width="39.42578125" style="65" customWidth="1"/>
-    <col min="508" max="508" width="20.85546875" style="65" customWidth="1"/>
-    <col min="509" max="509" width="19.42578125" style="65" customWidth="1"/>
-    <col min="510" max="510" width="11.85546875" style="65" customWidth="1"/>
-    <col min="511" max="511" width="10.42578125" style="65" customWidth="1"/>
-    <col min="512" max="512" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="515" max="516" width="8.5703125" style="65" customWidth="1"/>
-    <col min="517" max="517" width="9.42578125" style="65" customWidth="1"/>
-    <col min="518" max="518" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="519" max="520" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="521" max="760" width="9.140625" style="65"/>
-    <col min="761" max="761" width="29.140625" style="65" customWidth="1"/>
-    <col min="762" max="762" width="46.42578125" style="65" customWidth="1"/>
-    <col min="763" max="763" width="39.42578125" style="65" customWidth="1"/>
-    <col min="764" max="764" width="20.85546875" style="65" customWidth="1"/>
-    <col min="765" max="765" width="19.42578125" style="65" customWidth="1"/>
-    <col min="766" max="766" width="11.85546875" style="65" customWidth="1"/>
-    <col min="767" max="767" width="10.42578125" style="65" customWidth="1"/>
-    <col min="768" max="768" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="771" max="772" width="8.5703125" style="65" customWidth="1"/>
-    <col min="773" max="773" width="9.42578125" style="65" customWidth="1"/>
-    <col min="774" max="774" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="777" max="1016" width="9.140625" style="65"/>
-    <col min="1017" max="1017" width="29.140625" style="65" customWidth="1"/>
-    <col min="1018" max="1018" width="46.42578125" style="65" customWidth="1"/>
-    <col min="1019" max="1019" width="39.42578125" style="65" customWidth="1"/>
-    <col min="1020" max="1020" width="20.85546875" style="65" customWidth="1"/>
-    <col min="1021" max="1021" width="19.42578125" style="65" customWidth="1"/>
-    <col min="1022" max="1022" width="11.85546875" style="65" customWidth="1"/>
-    <col min="1023" max="1023" width="10.42578125" style="65" customWidth="1"/>
-    <col min="1024" max="1024" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1028" width="8.5703125" style="65" customWidth="1"/>
-    <col min="1029" max="1029" width="9.42578125" style="65" customWidth="1"/>
-    <col min="1030" max="1030" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1032" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1272" width="9.140625" style="65"/>
-    <col min="1273" max="1273" width="29.140625" style="65" customWidth="1"/>
-    <col min="1274" max="1274" width="46.42578125" style="65" customWidth="1"/>
-    <col min="1275" max="1275" width="39.42578125" style="65" customWidth="1"/>
-    <col min="1276" max="1276" width="20.85546875" style="65" customWidth="1"/>
-    <col min="1277" max="1277" width="19.42578125" style="65" customWidth="1"/>
-    <col min="1278" max="1278" width="11.85546875" style="65" customWidth="1"/>
-    <col min="1279" max="1279" width="10.42578125" style="65" customWidth="1"/>
-    <col min="1280" max="1280" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1284" width="8.5703125" style="65" customWidth="1"/>
-    <col min="1285" max="1285" width="9.42578125" style="65" customWidth="1"/>
-    <col min="1286" max="1286" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1288" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1528" width="9.140625" style="65"/>
-    <col min="1529" max="1529" width="29.140625" style="65" customWidth="1"/>
-    <col min="1530" max="1530" width="46.42578125" style="65" customWidth="1"/>
-    <col min="1531" max="1531" width="39.42578125" style="65" customWidth="1"/>
-    <col min="1532" max="1532" width="20.85546875" style="65" customWidth="1"/>
-    <col min="1533" max="1533" width="19.42578125" style="65" customWidth="1"/>
-    <col min="1534" max="1534" width="11.85546875" style="65" customWidth="1"/>
-    <col min="1535" max="1535" width="10.42578125" style="65" customWidth="1"/>
-    <col min="1536" max="1536" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1540" width="8.5703125" style="65" customWidth="1"/>
-    <col min="1541" max="1541" width="9.42578125" style="65" customWidth="1"/>
-    <col min="1542" max="1542" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1544" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1784" width="9.140625" style="65"/>
-    <col min="1785" max="1785" width="29.140625" style="65" customWidth="1"/>
-    <col min="1786" max="1786" width="46.42578125" style="65" customWidth="1"/>
-    <col min="1787" max="1787" width="39.42578125" style="65" customWidth="1"/>
-    <col min="1788" max="1788" width="20.85546875" style="65" customWidth="1"/>
-    <col min="1789" max="1789" width="19.42578125" style="65" customWidth="1"/>
-    <col min="1790" max="1790" width="11.85546875" style="65" customWidth="1"/>
-    <col min="1791" max="1791" width="10.42578125" style="65" customWidth="1"/>
-    <col min="1792" max="1792" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1796" width="8.5703125" style="65" customWidth="1"/>
-    <col min="1797" max="1797" width="9.42578125" style="65" customWidth="1"/>
-    <col min="1798" max="1798" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1800" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="1801" max="2040" width="9.140625" style="65"/>
-    <col min="2041" max="2041" width="29.140625" style="65" customWidth="1"/>
-    <col min="2042" max="2042" width="46.42578125" style="65" customWidth="1"/>
-    <col min="2043" max="2043" width="39.42578125" style="65" customWidth="1"/>
-    <col min="2044" max="2044" width="20.85546875" style="65" customWidth="1"/>
-    <col min="2045" max="2045" width="19.42578125" style="65" customWidth="1"/>
-    <col min="2046" max="2046" width="11.85546875" style="65" customWidth="1"/>
-    <col min="2047" max="2047" width="10.42578125" style="65" customWidth="1"/>
-    <col min="2048" max="2048" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2052" width="8.5703125" style="65" customWidth="1"/>
-    <col min="2053" max="2053" width="9.42578125" style="65" customWidth="1"/>
-    <col min="2054" max="2054" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2056" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2296" width="9.140625" style="65"/>
-    <col min="2297" max="2297" width="29.140625" style="65" customWidth="1"/>
-    <col min="2298" max="2298" width="46.42578125" style="65" customWidth="1"/>
-    <col min="2299" max="2299" width="39.42578125" style="65" customWidth="1"/>
-    <col min="2300" max="2300" width="20.85546875" style="65" customWidth="1"/>
-    <col min="2301" max="2301" width="19.42578125" style="65" customWidth="1"/>
-    <col min="2302" max="2302" width="11.85546875" style="65" customWidth="1"/>
-    <col min="2303" max="2303" width="10.42578125" style="65" customWidth="1"/>
-    <col min="2304" max="2304" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2308" width="8.5703125" style="65" customWidth="1"/>
-    <col min="2309" max="2309" width="9.42578125" style="65" customWidth="1"/>
-    <col min="2310" max="2310" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2312" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2552" width="9.140625" style="65"/>
-    <col min="2553" max="2553" width="29.140625" style="65" customWidth="1"/>
-    <col min="2554" max="2554" width="46.42578125" style="65" customWidth="1"/>
-    <col min="2555" max="2555" width="39.42578125" style="65" customWidth="1"/>
-    <col min="2556" max="2556" width="20.85546875" style="65" customWidth="1"/>
-    <col min="2557" max="2557" width="19.42578125" style="65" customWidth="1"/>
-    <col min="2558" max="2558" width="11.85546875" style="65" customWidth="1"/>
-    <col min="2559" max="2559" width="10.42578125" style="65" customWidth="1"/>
-    <col min="2560" max="2560" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2564" width="8.5703125" style="65" customWidth="1"/>
-    <col min="2565" max="2565" width="9.42578125" style="65" customWidth="1"/>
-    <col min="2566" max="2566" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2568" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2808" width="9.140625" style="65"/>
-    <col min="2809" max="2809" width="29.140625" style="65" customWidth="1"/>
-    <col min="2810" max="2810" width="46.42578125" style="65" customWidth="1"/>
-    <col min="2811" max="2811" width="39.42578125" style="65" customWidth="1"/>
-    <col min="2812" max="2812" width="20.85546875" style="65" customWidth="1"/>
-    <col min="2813" max="2813" width="19.42578125" style="65" customWidth="1"/>
-    <col min="2814" max="2814" width="11.85546875" style="65" customWidth="1"/>
-    <col min="2815" max="2815" width="10.42578125" style="65" customWidth="1"/>
-    <col min="2816" max="2816" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2820" width="8.5703125" style="65" customWidth="1"/>
-    <col min="2821" max="2821" width="9.42578125" style="65" customWidth="1"/>
-    <col min="2822" max="2822" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2824" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2825" max="3064" width="9.140625" style="65"/>
-    <col min="3065" max="3065" width="29.140625" style="65" customWidth="1"/>
-    <col min="3066" max="3066" width="46.42578125" style="65" customWidth="1"/>
-    <col min="3067" max="3067" width="39.42578125" style="65" customWidth="1"/>
-    <col min="3068" max="3068" width="20.85546875" style="65" customWidth="1"/>
-    <col min="3069" max="3069" width="19.42578125" style="65" customWidth="1"/>
-    <col min="3070" max="3070" width="11.85546875" style="65" customWidth="1"/>
-    <col min="3071" max="3071" width="10.42578125" style="65" customWidth="1"/>
-    <col min="3072" max="3072" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3076" width="8.5703125" style="65" customWidth="1"/>
-    <col min="3077" max="3077" width="9.42578125" style="65" customWidth="1"/>
-    <col min="3078" max="3078" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3080" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3320" width="9.140625" style="65"/>
-    <col min="3321" max="3321" width="29.140625" style="65" customWidth="1"/>
-    <col min="3322" max="3322" width="46.42578125" style="65" customWidth="1"/>
-    <col min="3323" max="3323" width="39.42578125" style="65" customWidth="1"/>
-    <col min="3324" max="3324" width="20.85546875" style="65" customWidth="1"/>
-    <col min="3325" max="3325" width="19.42578125" style="65" customWidth="1"/>
-    <col min="3326" max="3326" width="11.85546875" style="65" customWidth="1"/>
-    <col min="3327" max="3327" width="10.42578125" style="65" customWidth="1"/>
-    <col min="3328" max="3328" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3332" width="8.5703125" style="65" customWidth="1"/>
-    <col min="3333" max="3333" width="9.42578125" style="65" customWidth="1"/>
-    <col min="3334" max="3334" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3336" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3576" width="9.140625" style="65"/>
-    <col min="3577" max="3577" width="29.140625" style="65" customWidth="1"/>
-    <col min="3578" max="3578" width="46.42578125" style="65" customWidth="1"/>
-    <col min="3579" max="3579" width="39.42578125" style="65" customWidth="1"/>
-    <col min="3580" max="3580" width="20.85546875" style="65" customWidth="1"/>
-    <col min="3581" max="3581" width="19.42578125" style="65" customWidth="1"/>
-    <col min="3582" max="3582" width="11.85546875" style="65" customWidth="1"/>
-    <col min="3583" max="3583" width="10.42578125" style="65" customWidth="1"/>
-    <col min="3584" max="3584" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3588" width="8.5703125" style="65" customWidth="1"/>
-    <col min="3589" max="3589" width="9.42578125" style="65" customWidth="1"/>
-    <col min="3590" max="3590" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3592" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3832" width="9.140625" style="65"/>
-    <col min="3833" max="3833" width="29.140625" style="65" customWidth="1"/>
-    <col min="3834" max="3834" width="46.42578125" style="65" customWidth="1"/>
-    <col min="3835" max="3835" width="39.42578125" style="65" customWidth="1"/>
-    <col min="3836" max="3836" width="20.85546875" style="65" customWidth="1"/>
-    <col min="3837" max="3837" width="19.42578125" style="65" customWidth="1"/>
-    <col min="3838" max="3838" width="11.85546875" style="65" customWidth="1"/>
-    <col min="3839" max="3839" width="10.42578125" style="65" customWidth="1"/>
-    <col min="3840" max="3840" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3844" width="8.5703125" style="65" customWidth="1"/>
-    <col min="3845" max="3845" width="9.42578125" style="65" customWidth="1"/>
-    <col min="3846" max="3846" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3848" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3849" max="4088" width="9.140625" style="65"/>
-    <col min="4089" max="4089" width="29.140625" style="65" customWidth="1"/>
-    <col min="4090" max="4090" width="46.42578125" style="65" customWidth="1"/>
-    <col min="4091" max="4091" width="39.42578125" style="65" customWidth="1"/>
-    <col min="4092" max="4092" width="20.85546875" style="65" customWidth="1"/>
-    <col min="4093" max="4093" width="19.42578125" style="65" customWidth="1"/>
-    <col min="4094" max="4094" width="11.85546875" style="65" customWidth="1"/>
-    <col min="4095" max="4095" width="10.42578125" style="65" customWidth="1"/>
-    <col min="4096" max="4096" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4100" width="8.5703125" style="65" customWidth="1"/>
-    <col min="4101" max="4101" width="9.42578125" style="65" customWidth="1"/>
-    <col min="4102" max="4102" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4104" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4344" width="9.140625" style="65"/>
-    <col min="4345" max="4345" width="29.140625" style="65" customWidth="1"/>
-    <col min="4346" max="4346" width="46.42578125" style="65" customWidth="1"/>
-    <col min="4347" max="4347" width="39.42578125" style="65" customWidth="1"/>
-    <col min="4348" max="4348" width="20.85546875" style="65" customWidth="1"/>
-    <col min="4349" max="4349" width="19.42578125" style="65" customWidth="1"/>
-    <col min="4350" max="4350" width="11.85546875" style="65" customWidth="1"/>
-    <col min="4351" max="4351" width="10.42578125" style="65" customWidth="1"/>
-    <col min="4352" max="4352" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4356" width="8.5703125" style="65" customWidth="1"/>
-    <col min="4357" max="4357" width="9.42578125" style="65" customWidth="1"/>
-    <col min="4358" max="4358" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4360" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4600" width="9.140625" style="65"/>
-    <col min="4601" max="4601" width="29.140625" style="65" customWidth="1"/>
-    <col min="4602" max="4602" width="46.42578125" style="65" customWidth="1"/>
-    <col min="4603" max="4603" width="39.42578125" style="65" customWidth="1"/>
-    <col min="4604" max="4604" width="20.85546875" style="65" customWidth="1"/>
-    <col min="4605" max="4605" width="19.42578125" style="65" customWidth="1"/>
-    <col min="4606" max="4606" width="11.85546875" style="65" customWidth="1"/>
-    <col min="4607" max="4607" width="10.42578125" style="65" customWidth="1"/>
-    <col min="4608" max="4608" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4612" width="8.5703125" style="65" customWidth="1"/>
-    <col min="4613" max="4613" width="9.42578125" style="65" customWidth="1"/>
-    <col min="4614" max="4614" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4616" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4856" width="9.140625" style="65"/>
-    <col min="4857" max="4857" width="29.140625" style="65" customWidth="1"/>
-    <col min="4858" max="4858" width="46.42578125" style="65" customWidth="1"/>
-    <col min="4859" max="4859" width="39.42578125" style="65" customWidth="1"/>
-    <col min="4860" max="4860" width="20.85546875" style="65" customWidth="1"/>
-    <col min="4861" max="4861" width="19.42578125" style="65" customWidth="1"/>
-    <col min="4862" max="4862" width="11.85546875" style="65" customWidth="1"/>
-    <col min="4863" max="4863" width="10.42578125" style="65" customWidth="1"/>
-    <col min="4864" max="4864" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4868" width="8.5703125" style="65" customWidth="1"/>
-    <col min="4869" max="4869" width="9.42578125" style="65" customWidth="1"/>
-    <col min="4870" max="4870" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4872" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4873" max="5112" width="9.140625" style="65"/>
-    <col min="5113" max="5113" width="29.140625" style="65" customWidth="1"/>
-    <col min="5114" max="5114" width="46.42578125" style="65" customWidth="1"/>
-    <col min="5115" max="5115" width="39.42578125" style="65" customWidth="1"/>
-    <col min="5116" max="5116" width="20.85546875" style="65" customWidth="1"/>
-    <col min="5117" max="5117" width="19.42578125" style="65" customWidth="1"/>
-    <col min="5118" max="5118" width="11.85546875" style="65" customWidth="1"/>
-    <col min="5119" max="5119" width="10.42578125" style="65" customWidth="1"/>
-    <col min="5120" max="5120" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5124" width="8.5703125" style="65" customWidth="1"/>
-    <col min="5125" max="5125" width="9.42578125" style="65" customWidth="1"/>
-    <col min="5126" max="5126" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5128" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5368" width="9.140625" style="65"/>
-    <col min="5369" max="5369" width="29.140625" style="65" customWidth="1"/>
-    <col min="5370" max="5370" width="46.42578125" style="65" customWidth="1"/>
-    <col min="5371" max="5371" width="39.42578125" style="65" customWidth="1"/>
-    <col min="5372" max="5372" width="20.85546875" style="65" customWidth="1"/>
-    <col min="5373" max="5373" width="19.42578125" style="65" customWidth="1"/>
-    <col min="5374" max="5374" width="11.85546875" style="65" customWidth="1"/>
-    <col min="5375" max="5375" width="10.42578125" style="65" customWidth="1"/>
-    <col min="5376" max="5376" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5380" width="8.5703125" style="65" customWidth="1"/>
-    <col min="5381" max="5381" width="9.42578125" style="65" customWidth="1"/>
-    <col min="5382" max="5382" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5384" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5624" width="9.140625" style="65"/>
-    <col min="5625" max="5625" width="29.140625" style="65" customWidth="1"/>
-    <col min="5626" max="5626" width="46.42578125" style="65" customWidth="1"/>
-    <col min="5627" max="5627" width="39.42578125" style="65" customWidth="1"/>
-    <col min="5628" max="5628" width="20.85546875" style="65" customWidth="1"/>
-    <col min="5629" max="5629" width="19.42578125" style="65" customWidth="1"/>
-    <col min="5630" max="5630" width="11.85546875" style="65" customWidth="1"/>
-    <col min="5631" max="5631" width="10.42578125" style="65" customWidth="1"/>
-    <col min="5632" max="5632" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5636" width="8.5703125" style="65" customWidth="1"/>
-    <col min="5637" max="5637" width="9.42578125" style="65" customWidth="1"/>
-    <col min="5638" max="5638" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5640" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5880" width="9.140625" style="65"/>
-    <col min="5881" max="5881" width="29.140625" style="65" customWidth="1"/>
-    <col min="5882" max="5882" width="46.42578125" style="65" customWidth="1"/>
-    <col min="5883" max="5883" width="39.42578125" style="65" customWidth="1"/>
-    <col min="5884" max="5884" width="20.85546875" style="65" customWidth="1"/>
-    <col min="5885" max="5885" width="19.42578125" style="65" customWidth="1"/>
-    <col min="5886" max="5886" width="11.85546875" style="65" customWidth="1"/>
-    <col min="5887" max="5887" width="10.42578125" style="65" customWidth="1"/>
-    <col min="5888" max="5888" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5892" width="8.5703125" style="65" customWidth="1"/>
-    <col min="5893" max="5893" width="9.42578125" style="65" customWidth="1"/>
-    <col min="5894" max="5894" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5896" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5897" max="6136" width="9.140625" style="65"/>
-    <col min="6137" max="6137" width="29.140625" style="65" customWidth="1"/>
-    <col min="6138" max="6138" width="46.42578125" style="65" customWidth="1"/>
-    <col min="6139" max="6139" width="39.42578125" style="65" customWidth="1"/>
-    <col min="6140" max="6140" width="20.85546875" style="65" customWidth="1"/>
-    <col min="6141" max="6141" width="19.42578125" style="65" customWidth="1"/>
-    <col min="6142" max="6142" width="11.85546875" style="65" customWidth="1"/>
-    <col min="6143" max="6143" width="10.42578125" style="65" customWidth="1"/>
-    <col min="6144" max="6144" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6148" width="8.5703125" style="65" customWidth="1"/>
-    <col min="6149" max="6149" width="9.42578125" style="65" customWidth="1"/>
-    <col min="6150" max="6150" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6152" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6392" width="9.140625" style="65"/>
-    <col min="6393" max="6393" width="29.140625" style="65" customWidth="1"/>
-    <col min="6394" max="6394" width="46.42578125" style="65" customWidth="1"/>
-    <col min="6395" max="6395" width="39.42578125" style="65" customWidth="1"/>
-    <col min="6396" max="6396" width="20.85546875" style="65" customWidth="1"/>
-    <col min="6397" max="6397" width="19.42578125" style="65" customWidth="1"/>
-    <col min="6398" max="6398" width="11.85546875" style="65" customWidth="1"/>
-    <col min="6399" max="6399" width="10.42578125" style="65" customWidth="1"/>
-    <col min="6400" max="6400" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6404" width="8.5703125" style="65" customWidth="1"/>
-    <col min="6405" max="6405" width="9.42578125" style="65" customWidth="1"/>
-    <col min="6406" max="6406" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6408" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6648" width="9.140625" style="65"/>
-    <col min="6649" max="6649" width="29.140625" style="65" customWidth="1"/>
-    <col min="6650" max="6650" width="46.42578125" style="65" customWidth="1"/>
-    <col min="6651" max="6651" width="39.42578125" style="65" customWidth="1"/>
-    <col min="6652" max="6652" width="20.85546875" style="65" customWidth="1"/>
-    <col min="6653" max="6653" width="19.42578125" style="65" customWidth="1"/>
-    <col min="6654" max="6654" width="11.85546875" style="65" customWidth="1"/>
-    <col min="6655" max="6655" width="10.42578125" style="65" customWidth="1"/>
-    <col min="6656" max="6656" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6660" width="8.5703125" style="65" customWidth="1"/>
-    <col min="6661" max="6661" width="9.42578125" style="65" customWidth="1"/>
-    <col min="6662" max="6662" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6664" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6904" width="9.140625" style="65"/>
-    <col min="6905" max="6905" width="29.140625" style="65" customWidth="1"/>
-    <col min="6906" max="6906" width="46.42578125" style="65" customWidth="1"/>
-    <col min="6907" max="6907" width="39.42578125" style="65" customWidth="1"/>
-    <col min="6908" max="6908" width="20.85546875" style="65" customWidth="1"/>
-    <col min="6909" max="6909" width="19.42578125" style="65" customWidth="1"/>
-    <col min="6910" max="6910" width="11.85546875" style="65" customWidth="1"/>
-    <col min="6911" max="6911" width="10.42578125" style="65" customWidth="1"/>
-    <col min="6912" max="6912" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6916" width="8.5703125" style="65" customWidth="1"/>
-    <col min="6917" max="6917" width="9.42578125" style="65" customWidth="1"/>
-    <col min="6918" max="6918" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6920" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="6921" max="7160" width="9.140625" style="65"/>
-    <col min="7161" max="7161" width="29.140625" style="65" customWidth="1"/>
-    <col min="7162" max="7162" width="46.42578125" style="65" customWidth="1"/>
-    <col min="7163" max="7163" width="39.42578125" style="65" customWidth="1"/>
-    <col min="7164" max="7164" width="20.85546875" style="65" customWidth="1"/>
-    <col min="7165" max="7165" width="19.42578125" style="65" customWidth="1"/>
-    <col min="7166" max="7166" width="11.85546875" style="65" customWidth="1"/>
-    <col min="7167" max="7167" width="10.42578125" style="65" customWidth="1"/>
-    <col min="7168" max="7168" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7172" width="8.5703125" style="65" customWidth="1"/>
-    <col min="7173" max="7173" width="9.42578125" style="65" customWidth="1"/>
-    <col min="7174" max="7174" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7176" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7416" width="9.140625" style="65"/>
-    <col min="7417" max="7417" width="29.140625" style="65" customWidth="1"/>
-    <col min="7418" max="7418" width="46.42578125" style="65" customWidth="1"/>
-    <col min="7419" max="7419" width="39.42578125" style="65" customWidth="1"/>
-    <col min="7420" max="7420" width="20.85546875" style="65" customWidth="1"/>
-    <col min="7421" max="7421" width="19.42578125" style="65" customWidth="1"/>
-    <col min="7422" max="7422" width="11.85546875" style="65" customWidth="1"/>
-    <col min="7423" max="7423" width="10.42578125" style="65" customWidth="1"/>
-    <col min="7424" max="7424" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7428" width="8.5703125" style="65" customWidth="1"/>
-    <col min="7429" max="7429" width="9.42578125" style="65" customWidth="1"/>
-    <col min="7430" max="7430" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7432" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7672" width="9.140625" style="65"/>
-    <col min="7673" max="7673" width="29.140625" style="65" customWidth="1"/>
-    <col min="7674" max="7674" width="46.42578125" style="65" customWidth="1"/>
-    <col min="7675" max="7675" width="39.42578125" style="65" customWidth="1"/>
-    <col min="7676" max="7676" width="20.85546875" style="65" customWidth="1"/>
-    <col min="7677" max="7677" width="19.42578125" style="65" customWidth="1"/>
-    <col min="7678" max="7678" width="11.85546875" style="65" customWidth="1"/>
-    <col min="7679" max="7679" width="10.42578125" style="65" customWidth="1"/>
-    <col min="7680" max="7680" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7684" width="8.5703125" style="65" customWidth="1"/>
-    <col min="7685" max="7685" width="9.42578125" style="65" customWidth="1"/>
-    <col min="7686" max="7686" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7688" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7928" width="9.140625" style="65"/>
-    <col min="7929" max="7929" width="29.140625" style="65" customWidth="1"/>
-    <col min="7930" max="7930" width="46.42578125" style="65" customWidth="1"/>
-    <col min="7931" max="7931" width="39.42578125" style="65" customWidth="1"/>
-    <col min="7932" max="7932" width="20.85546875" style="65" customWidth="1"/>
-    <col min="7933" max="7933" width="19.42578125" style="65" customWidth="1"/>
-    <col min="7934" max="7934" width="11.85546875" style="65" customWidth="1"/>
-    <col min="7935" max="7935" width="10.42578125" style="65" customWidth="1"/>
-    <col min="7936" max="7936" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7940" width="8.5703125" style="65" customWidth="1"/>
-    <col min="7941" max="7941" width="9.42578125" style="65" customWidth="1"/>
-    <col min="7942" max="7942" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7944" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7945" max="8184" width="9.140625" style="65"/>
-    <col min="8185" max="8185" width="29.140625" style="65" customWidth="1"/>
-    <col min="8186" max="8186" width="46.42578125" style="65" customWidth="1"/>
-    <col min="8187" max="8187" width="39.42578125" style="65" customWidth="1"/>
-    <col min="8188" max="8188" width="20.85546875" style="65" customWidth="1"/>
-    <col min="8189" max="8189" width="19.42578125" style="65" customWidth="1"/>
-    <col min="8190" max="8190" width="11.85546875" style="65" customWidth="1"/>
-    <col min="8191" max="8191" width="10.42578125" style="65" customWidth="1"/>
-    <col min="8192" max="8192" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8196" width="8.5703125" style="65" customWidth="1"/>
-    <col min="8197" max="8197" width="9.42578125" style="65" customWidth="1"/>
-    <col min="8198" max="8198" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8200" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8440" width="9.140625" style="65"/>
-    <col min="8441" max="8441" width="29.140625" style="65" customWidth="1"/>
-    <col min="8442" max="8442" width="46.42578125" style="65" customWidth="1"/>
-    <col min="8443" max="8443" width="39.42578125" style="65" customWidth="1"/>
-    <col min="8444" max="8444" width="20.85546875" style="65" customWidth="1"/>
-    <col min="8445" max="8445" width="19.42578125" style="65" customWidth="1"/>
-    <col min="8446" max="8446" width="11.85546875" style="65" customWidth="1"/>
-    <col min="8447" max="8447" width="10.42578125" style="65" customWidth="1"/>
-    <col min="8448" max="8448" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8452" width="8.5703125" style="65" customWidth="1"/>
-    <col min="8453" max="8453" width="9.42578125" style="65" customWidth="1"/>
-    <col min="8454" max="8454" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8456" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8696" width="9.140625" style="65"/>
-    <col min="8697" max="8697" width="29.140625" style="65" customWidth="1"/>
-    <col min="8698" max="8698" width="46.42578125" style="65" customWidth="1"/>
-    <col min="8699" max="8699" width="39.42578125" style="65" customWidth="1"/>
-    <col min="8700" max="8700" width="20.85546875" style="65" customWidth="1"/>
-    <col min="8701" max="8701" width="19.42578125" style="65" customWidth="1"/>
-    <col min="8702" max="8702" width="11.85546875" style="65" customWidth="1"/>
-    <col min="8703" max="8703" width="10.42578125" style="65" customWidth="1"/>
-    <col min="8704" max="8704" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8708" width="8.5703125" style="65" customWidth="1"/>
-    <col min="8709" max="8709" width="9.42578125" style="65" customWidth="1"/>
-    <col min="8710" max="8710" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8712" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8952" width="9.140625" style="65"/>
-    <col min="8953" max="8953" width="29.140625" style="65" customWidth="1"/>
-    <col min="8954" max="8954" width="46.42578125" style="65" customWidth="1"/>
-    <col min="8955" max="8955" width="39.42578125" style="65" customWidth="1"/>
-    <col min="8956" max="8956" width="20.85546875" style="65" customWidth="1"/>
-    <col min="8957" max="8957" width="19.42578125" style="65" customWidth="1"/>
-    <col min="8958" max="8958" width="11.85546875" style="65" customWidth="1"/>
-    <col min="8959" max="8959" width="10.42578125" style="65" customWidth="1"/>
-    <col min="8960" max="8960" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8964" width="8.5703125" style="65" customWidth="1"/>
-    <col min="8965" max="8965" width="9.42578125" style="65" customWidth="1"/>
-    <col min="8966" max="8966" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8968" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="8969" max="9208" width="9.140625" style="65"/>
-    <col min="9209" max="9209" width="29.140625" style="65" customWidth="1"/>
-    <col min="9210" max="9210" width="46.42578125" style="65" customWidth="1"/>
-    <col min="9211" max="9211" width="39.42578125" style="65" customWidth="1"/>
-    <col min="9212" max="9212" width="20.85546875" style="65" customWidth="1"/>
-    <col min="9213" max="9213" width="19.42578125" style="65" customWidth="1"/>
-    <col min="9214" max="9214" width="11.85546875" style="65" customWidth="1"/>
-    <col min="9215" max="9215" width="10.42578125" style="65" customWidth="1"/>
-    <col min="9216" max="9216" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9220" width="8.5703125" style="65" customWidth="1"/>
-    <col min="9221" max="9221" width="9.42578125" style="65" customWidth="1"/>
-    <col min="9222" max="9222" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9224" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9464" width="9.140625" style="65"/>
-    <col min="9465" max="9465" width="29.140625" style="65" customWidth="1"/>
-    <col min="9466" max="9466" width="46.42578125" style="65" customWidth="1"/>
-    <col min="9467" max="9467" width="39.42578125" style="65" customWidth="1"/>
-    <col min="9468" max="9468" width="20.85546875" style="65" customWidth="1"/>
-    <col min="9469" max="9469" width="19.42578125" style="65" customWidth="1"/>
-    <col min="9470" max="9470" width="11.85546875" style="65" customWidth="1"/>
-    <col min="9471" max="9471" width="10.42578125" style="65" customWidth="1"/>
-    <col min="9472" max="9472" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9476" width="8.5703125" style="65" customWidth="1"/>
-    <col min="9477" max="9477" width="9.42578125" style="65" customWidth="1"/>
-    <col min="9478" max="9478" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9480" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9720" width="9.140625" style="65"/>
-    <col min="9721" max="9721" width="29.140625" style="65" customWidth="1"/>
-    <col min="9722" max="9722" width="46.42578125" style="65" customWidth="1"/>
-    <col min="9723" max="9723" width="39.42578125" style="65" customWidth="1"/>
-    <col min="9724" max="9724" width="20.85546875" style="65" customWidth="1"/>
-    <col min="9725" max="9725" width="19.42578125" style="65" customWidth="1"/>
-    <col min="9726" max="9726" width="11.85546875" style="65" customWidth="1"/>
-    <col min="9727" max="9727" width="10.42578125" style="65" customWidth="1"/>
-    <col min="9728" max="9728" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9732" width="8.5703125" style="65" customWidth="1"/>
-    <col min="9733" max="9733" width="9.42578125" style="65" customWidth="1"/>
-    <col min="9734" max="9734" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9736" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9976" width="9.140625" style="65"/>
-    <col min="9977" max="9977" width="29.140625" style="65" customWidth="1"/>
-    <col min="9978" max="9978" width="46.42578125" style="65" customWidth="1"/>
-    <col min="9979" max="9979" width="39.42578125" style="65" customWidth="1"/>
-    <col min="9980" max="9980" width="20.85546875" style="65" customWidth="1"/>
-    <col min="9981" max="9981" width="19.42578125" style="65" customWidth="1"/>
-    <col min="9982" max="9982" width="11.85546875" style="65" customWidth="1"/>
-    <col min="9983" max="9983" width="10.42578125" style="65" customWidth="1"/>
-    <col min="9984" max="9984" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9988" width="8.5703125" style="65" customWidth="1"/>
-    <col min="9989" max="9989" width="9.42578125" style="65" customWidth="1"/>
-    <col min="9990" max="9990" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9992" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9993" max="10232" width="9.140625" style="65"/>
-    <col min="10233" max="10233" width="29.140625" style="65" customWidth="1"/>
-    <col min="10234" max="10234" width="46.42578125" style="65" customWidth="1"/>
-    <col min="10235" max="10235" width="39.42578125" style="65" customWidth="1"/>
-    <col min="10236" max="10236" width="20.85546875" style="65" customWidth="1"/>
-    <col min="10237" max="10237" width="19.42578125" style="65" customWidth="1"/>
-    <col min="10238" max="10238" width="11.85546875" style="65" customWidth="1"/>
-    <col min="10239" max="10239" width="10.42578125" style="65" customWidth="1"/>
-    <col min="10240" max="10240" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10244" width="8.5703125" style="65" customWidth="1"/>
-    <col min="10245" max="10245" width="9.42578125" style="65" customWidth="1"/>
-    <col min="10246" max="10246" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10248" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10488" width="9.140625" style="65"/>
-    <col min="10489" max="10489" width="29.140625" style="65" customWidth="1"/>
-    <col min="10490" max="10490" width="46.42578125" style="65" customWidth="1"/>
-    <col min="10491" max="10491" width="39.42578125" style="65" customWidth="1"/>
-    <col min="10492" max="10492" width="20.85546875" style="65" customWidth="1"/>
-    <col min="10493" max="10493" width="19.42578125" style="65" customWidth="1"/>
-    <col min="10494" max="10494" width="11.85546875" style="65" customWidth="1"/>
-    <col min="10495" max="10495" width="10.42578125" style="65" customWidth="1"/>
-    <col min="10496" max="10496" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10500" width="8.5703125" style="65" customWidth="1"/>
-    <col min="10501" max="10501" width="9.42578125" style="65" customWidth="1"/>
-    <col min="10502" max="10502" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10504" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10744" width="9.140625" style="65"/>
-    <col min="10745" max="10745" width="29.140625" style="65" customWidth="1"/>
-    <col min="10746" max="10746" width="46.42578125" style="65" customWidth="1"/>
-    <col min="10747" max="10747" width="39.42578125" style="65" customWidth="1"/>
-    <col min="10748" max="10748" width="20.85546875" style="65" customWidth="1"/>
-    <col min="10749" max="10749" width="19.42578125" style="65" customWidth="1"/>
-    <col min="10750" max="10750" width="11.85546875" style="65" customWidth="1"/>
-    <col min="10751" max="10751" width="10.42578125" style="65" customWidth="1"/>
-    <col min="10752" max="10752" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10756" width="8.5703125" style="65" customWidth="1"/>
-    <col min="10757" max="10757" width="9.42578125" style="65" customWidth="1"/>
-    <col min="10758" max="10758" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10760" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10761" max="11000" width="9.140625" style="65"/>
-    <col min="11001" max="11001" width="29.140625" style="65" customWidth="1"/>
-    <col min="11002" max="11002" width="46.42578125" style="65" customWidth="1"/>
-    <col min="11003" max="11003" width="39.42578125" style="65" customWidth="1"/>
-    <col min="11004" max="11004" width="20.85546875" style="65" customWidth="1"/>
-    <col min="11005" max="11005" width="19.42578125" style="65" customWidth="1"/>
-    <col min="11006" max="11006" width="11.85546875" style="65" customWidth="1"/>
-    <col min="11007" max="11007" width="10.42578125" style="65" customWidth="1"/>
-    <col min="11008" max="11008" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11012" width="8.5703125" style="65" customWidth="1"/>
-    <col min="11013" max="11013" width="9.42578125" style="65" customWidth="1"/>
-    <col min="11014" max="11014" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11016" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11256" width="9.140625" style="65"/>
-    <col min="11257" max="11257" width="29.140625" style="65" customWidth="1"/>
-    <col min="11258" max="11258" width="46.42578125" style="65" customWidth="1"/>
-    <col min="11259" max="11259" width="39.42578125" style="65" customWidth="1"/>
-    <col min="11260" max="11260" width="20.85546875" style="65" customWidth="1"/>
-    <col min="11261" max="11261" width="19.42578125" style="65" customWidth="1"/>
-    <col min="11262" max="11262" width="11.85546875" style="65" customWidth="1"/>
-    <col min="11263" max="11263" width="10.42578125" style="65" customWidth="1"/>
-    <col min="11264" max="11264" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11268" width="8.5703125" style="65" customWidth="1"/>
-    <col min="11269" max="11269" width="9.42578125" style="65" customWidth="1"/>
-    <col min="11270" max="11270" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11272" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11512" width="9.140625" style="65"/>
-    <col min="11513" max="11513" width="29.140625" style="65" customWidth="1"/>
-    <col min="11514" max="11514" width="46.42578125" style="65" customWidth="1"/>
-    <col min="11515" max="11515" width="39.42578125" style="65" customWidth="1"/>
-    <col min="11516" max="11516" width="20.85546875" style="65" customWidth="1"/>
-    <col min="11517" max="11517" width="19.42578125" style="65" customWidth="1"/>
-    <col min="11518" max="11518" width="11.85546875" style="65" customWidth="1"/>
-    <col min="11519" max="11519" width="10.42578125" style="65" customWidth="1"/>
-    <col min="11520" max="11520" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11524" width="8.5703125" style="65" customWidth="1"/>
-    <col min="11525" max="11525" width="9.42578125" style="65" customWidth="1"/>
-    <col min="11526" max="11526" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11528" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11768" width="9.140625" style="65"/>
-    <col min="11769" max="11769" width="29.140625" style="65" customWidth="1"/>
-    <col min="11770" max="11770" width="46.42578125" style="65" customWidth="1"/>
-    <col min="11771" max="11771" width="39.42578125" style="65" customWidth="1"/>
-    <col min="11772" max="11772" width="20.85546875" style="65" customWidth="1"/>
-    <col min="11773" max="11773" width="19.42578125" style="65" customWidth="1"/>
-    <col min="11774" max="11774" width="11.85546875" style="65" customWidth="1"/>
-    <col min="11775" max="11775" width="10.42578125" style="65" customWidth="1"/>
-    <col min="11776" max="11776" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11780" width="8.5703125" style="65" customWidth="1"/>
-    <col min="11781" max="11781" width="9.42578125" style="65" customWidth="1"/>
-    <col min="11782" max="11782" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11784" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="11785" max="12024" width="9.140625" style="65"/>
-    <col min="12025" max="12025" width="29.140625" style="65" customWidth="1"/>
-    <col min="12026" max="12026" width="46.42578125" style="65" customWidth="1"/>
-    <col min="12027" max="12027" width="39.42578125" style="65" customWidth="1"/>
-    <col min="12028" max="12028" width="20.85546875" style="65" customWidth="1"/>
-    <col min="12029" max="12029" width="19.42578125" style="65" customWidth="1"/>
-    <col min="12030" max="12030" width="11.85546875" style="65" customWidth="1"/>
-    <col min="12031" max="12031" width="10.42578125" style="65" customWidth="1"/>
-    <col min="12032" max="12032" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12036" width="8.5703125" style="65" customWidth="1"/>
-    <col min="12037" max="12037" width="9.42578125" style="65" customWidth="1"/>
-    <col min="12038" max="12038" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12040" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12280" width="9.140625" style="65"/>
-    <col min="12281" max="12281" width="29.140625" style="65" customWidth="1"/>
-    <col min="12282" max="12282" width="46.42578125" style="65" customWidth="1"/>
-    <col min="12283" max="12283" width="39.42578125" style="65" customWidth="1"/>
-    <col min="12284" max="12284" width="20.85546875" style="65" customWidth="1"/>
-    <col min="12285" max="12285" width="19.42578125" style="65" customWidth="1"/>
-    <col min="12286" max="12286" width="11.85546875" style="65" customWidth="1"/>
-    <col min="12287" max="12287" width="10.42578125" style="65" customWidth="1"/>
-    <col min="12288" max="12288" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12292" width="8.5703125" style="65" customWidth="1"/>
-    <col min="12293" max="12293" width="9.42578125" style="65" customWidth="1"/>
-    <col min="12294" max="12294" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12296" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12536" width="9.140625" style="65"/>
-    <col min="12537" max="12537" width="29.140625" style="65" customWidth="1"/>
-    <col min="12538" max="12538" width="46.42578125" style="65" customWidth="1"/>
-    <col min="12539" max="12539" width="39.42578125" style="65" customWidth="1"/>
-    <col min="12540" max="12540" width="20.85546875" style="65" customWidth="1"/>
-    <col min="12541" max="12541" width="19.42578125" style="65" customWidth="1"/>
-    <col min="12542" max="12542" width="11.85546875" style="65" customWidth="1"/>
-    <col min="12543" max="12543" width="10.42578125" style="65" customWidth="1"/>
-    <col min="12544" max="12544" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12548" width="8.5703125" style="65" customWidth="1"/>
-    <col min="12549" max="12549" width="9.42578125" style="65" customWidth="1"/>
-    <col min="12550" max="12550" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12552" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12792" width="9.140625" style="65"/>
-    <col min="12793" max="12793" width="29.140625" style="65" customWidth="1"/>
-    <col min="12794" max="12794" width="46.42578125" style="65" customWidth="1"/>
-    <col min="12795" max="12795" width="39.42578125" style="65" customWidth="1"/>
-    <col min="12796" max="12796" width="20.85546875" style="65" customWidth="1"/>
-    <col min="12797" max="12797" width="19.42578125" style="65" customWidth="1"/>
-    <col min="12798" max="12798" width="11.85546875" style="65" customWidth="1"/>
-    <col min="12799" max="12799" width="10.42578125" style="65" customWidth="1"/>
-    <col min="12800" max="12800" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12804" width="8.5703125" style="65" customWidth="1"/>
-    <col min="12805" max="12805" width="9.42578125" style="65" customWidth="1"/>
-    <col min="12806" max="12806" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12808" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="12809" max="13048" width="9.140625" style="65"/>
-    <col min="13049" max="13049" width="29.140625" style="65" customWidth="1"/>
-    <col min="13050" max="13050" width="46.42578125" style="65" customWidth="1"/>
-    <col min="13051" max="13051" width="39.42578125" style="65" customWidth="1"/>
-    <col min="13052" max="13052" width="20.85546875" style="65" customWidth="1"/>
-    <col min="13053" max="13053" width="19.42578125" style="65" customWidth="1"/>
-    <col min="13054" max="13054" width="11.85546875" style="65" customWidth="1"/>
-    <col min="13055" max="13055" width="10.42578125" style="65" customWidth="1"/>
-    <col min="13056" max="13056" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13060" width="8.5703125" style="65" customWidth="1"/>
-    <col min="13061" max="13061" width="9.42578125" style="65" customWidth="1"/>
-    <col min="13062" max="13062" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13064" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13304" width="9.140625" style="65"/>
-    <col min="13305" max="13305" width="29.140625" style="65" customWidth="1"/>
-    <col min="13306" max="13306" width="46.42578125" style="65" customWidth="1"/>
-    <col min="13307" max="13307" width="39.42578125" style="65" customWidth="1"/>
-    <col min="13308" max="13308" width="20.85546875" style="65" customWidth="1"/>
-    <col min="13309" max="13309" width="19.42578125" style="65" customWidth="1"/>
-    <col min="13310" max="13310" width="11.85546875" style="65" customWidth="1"/>
-    <col min="13311" max="13311" width="10.42578125" style="65" customWidth="1"/>
-    <col min="13312" max="13312" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13316" width="8.5703125" style="65" customWidth="1"/>
-    <col min="13317" max="13317" width="9.42578125" style="65" customWidth="1"/>
-    <col min="13318" max="13318" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13320" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13560" width="9.140625" style="65"/>
-    <col min="13561" max="13561" width="29.140625" style="65" customWidth="1"/>
-    <col min="13562" max="13562" width="46.42578125" style="65" customWidth="1"/>
-    <col min="13563" max="13563" width="39.42578125" style="65" customWidth="1"/>
-    <col min="13564" max="13564" width="20.85546875" style="65" customWidth="1"/>
-    <col min="13565" max="13565" width="19.42578125" style="65" customWidth="1"/>
-    <col min="13566" max="13566" width="11.85546875" style="65" customWidth="1"/>
-    <col min="13567" max="13567" width="10.42578125" style="65" customWidth="1"/>
-    <col min="13568" max="13568" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13572" width="8.5703125" style="65" customWidth="1"/>
-    <col min="13573" max="13573" width="9.42578125" style="65" customWidth="1"/>
-    <col min="13574" max="13574" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13576" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13816" width="9.140625" style="65"/>
-    <col min="13817" max="13817" width="29.140625" style="65" customWidth="1"/>
-    <col min="13818" max="13818" width="46.42578125" style="65" customWidth="1"/>
-    <col min="13819" max="13819" width="39.42578125" style="65" customWidth="1"/>
-    <col min="13820" max="13820" width="20.85546875" style="65" customWidth="1"/>
-    <col min="13821" max="13821" width="19.42578125" style="65" customWidth="1"/>
-    <col min="13822" max="13822" width="11.85546875" style="65" customWidth="1"/>
-    <col min="13823" max="13823" width="10.42578125" style="65" customWidth="1"/>
-    <col min="13824" max="13824" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13828" width="8.5703125" style="65" customWidth="1"/>
-    <col min="13829" max="13829" width="9.42578125" style="65" customWidth="1"/>
-    <col min="13830" max="13830" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13832" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="13833" max="14072" width="9.140625" style="65"/>
-    <col min="14073" max="14073" width="29.140625" style="65" customWidth="1"/>
-    <col min="14074" max="14074" width="46.42578125" style="65" customWidth="1"/>
-    <col min="14075" max="14075" width="39.42578125" style="65" customWidth="1"/>
-    <col min="14076" max="14076" width="20.85546875" style="65" customWidth="1"/>
-    <col min="14077" max="14077" width="19.42578125" style="65" customWidth="1"/>
-    <col min="14078" max="14078" width="11.85546875" style="65" customWidth="1"/>
-    <col min="14079" max="14079" width="10.42578125" style="65" customWidth="1"/>
-    <col min="14080" max="14080" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14084" width="8.5703125" style="65" customWidth="1"/>
-    <col min="14085" max="14085" width="9.42578125" style="65" customWidth="1"/>
-    <col min="14086" max="14086" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14088" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14328" width="9.140625" style="65"/>
-    <col min="14329" max="14329" width="29.140625" style="65" customWidth="1"/>
-    <col min="14330" max="14330" width="46.42578125" style="65" customWidth="1"/>
-    <col min="14331" max="14331" width="39.42578125" style="65" customWidth="1"/>
-    <col min="14332" max="14332" width="20.85546875" style="65" customWidth="1"/>
-    <col min="14333" max="14333" width="19.42578125" style="65" customWidth="1"/>
-    <col min="14334" max="14334" width="11.85546875" style="65" customWidth="1"/>
-    <col min="14335" max="14335" width="10.42578125" style="65" customWidth="1"/>
-    <col min="14336" max="14336" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14340" width="8.5703125" style="65" customWidth="1"/>
-    <col min="14341" max="14341" width="9.42578125" style="65" customWidth="1"/>
-    <col min="14342" max="14342" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14344" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14584" width="9.140625" style="65"/>
-    <col min="14585" max="14585" width="29.140625" style="65" customWidth="1"/>
-    <col min="14586" max="14586" width="46.42578125" style="65" customWidth="1"/>
-    <col min="14587" max="14587" width="39.42578125" style="65" customWidth="1"/>
-    <col min="14588" max="14588" width="20.85546875" style="65" customWidth="1"/>
-    <col min="14589" max="14589" width="19.42578125" style="65" customWidth="1"/>
-    <col min="14590" max="14590" width="11.85546875" style="65" customWidth="1"/>
-    <col min="14591" max="14591" width="10.42578125" style="65" customWidth="1"/>
-    <col min="14592" max="14592" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14596" width="8.5703125" style="65" customWidth="1"/>
-    <col min="14597" max="14597" width="9.42578125" style="65" customWidth="1"/>
-    <col min="14598" max="14598" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14600" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14840" width="9.140625" style="65"/>
-    <col min="14841" max="14841" width="29.140625" style="65" customWidth="1"/>
-    <col min="14842" max="14842" width="46.42578125" style="65" customWidth="1"/>
-    <col min="14843" max="14843" width="39.42578125" style="65" customWidth="1"/>
-    <col min="14844" max="14844" width="20.85546875" style="65" customWidth="1"/>
-    <col min="14845" max="14845" width="19.42578125" style="65" customWidth="1"/>
-    <col min="14846" max="14846" width="11.85546875" style="65" customWidth="1"/>
-    <col min="14847" max="14847" width="10.42578125" style="65" customWidth="1"/>
-    <col min="14848" max="14848" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14852" width="8.5703125" style="65" customWidth="1"/>
-    <col min="14853" max="14853" width="9.42578125" style="65" customWidth="1"/>
-    <col min="14854" max="14854" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14856" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="14857" max="15096" width="9.140625" style="65"/>
-    <col min="15097" max="15097" width="29.140625" style="65" customWidth="1"/>
-    <col min="15098" max="15098" width="46.42578125" style="65" customWidth="1"/>
-    <col min="15099" max="15099" width="39.42578125" style="65" customWidth="1"/>
-    <col min="15100" max="15100" width="20.85546875" style="65" customWidth="1"/>
-    <col min="15101" max="15101" width="19.42578125" style="65" customWidth="1"/>
-    <col min="15102" max="15102" width="11.85546875" style="65" customWidth="1"/>
-    <col min="15103" max="15103" width="10.42578125" style="65" customWidth="1"/>
-    <col min="15104" max="15104" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15108" width="8.5703125" style="65" customWidth="1"/>
-    <col min="15109" max="15109" width="9.42578125" style="65" customWidth="1"/>
-    <col min="15110" max="15110" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15112" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15352" width="9.140625" style="65"/>
-    <col min="15353" max="15353" width="29.140625" style="65" customWidth="1"/>
-    <col min="15354" max="15354" width="46.42578125" style="65" customWidth="1"/>
-    <col min="15355" max="15355" width="39.42578125" style="65" customWidth="1"/>
-    <col min="15356" max="15356" width="20.85546875" style="65" customWidth="1"/>
-    <col min="15357" max="15357" width="19.42578125" style="65" customWidth="1"/>
-    <col min="15358" max="15358" width="11.85546875" style="65" customWidth="1"/>
-    <col min="15359" max="15359" width="10.42578125" style="65" customWidth="1"/>
-    <col min="15360" max="15360" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15364" width="8.5703125" style="65" customWidth="1"/>
-    <col min="15365" max="15365" width="9.42578125" style="65" customWidth="1"/>
-    <col min="15366" max="15366" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15368" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15608" width="9.140625" style="65"/>
-    <col min="15609" max="15609" width="29.140625" style="65" customWidth="1"/>
-    <col min="15610" max="15610" width="46.42578125" style="65" customWidth="1"/>
-    <col min="15611" max="15611" width="39.42578125" style="65" customWidth="1"/>
-    <col min="15612" max="15612" width="20.85546875" style="65" customWidth="1"/>
-    <col min="15613" max="15613" width="19.42578125" style="65" customWidth="1"/>
-    <col min="15614" max="15614" width="11.85546875" style="65" customWidth="1"/>
-    <col min="15615" max="15615" width="10.42578125" style="65" customWidth="1"/>
-    <col min="15616" max="15616" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15620" width="8.5703125" style="65" customWidth="1"/>
-    <col min="15621" max="15621" width="9.42578125" style="65" customWidth="1"/>
-    <col min="15622" max="15622" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15624" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15864" width="9.140625" style="65"/>
-    <col min="15865" max="15865" width="29.140625" style="65" customWidth="1"/>
-    <col min="15866" max="15866" width="46.42578125" style="65" customWidth="1"/>
-    <col min="15867" max="15867" width="39.42578125" style="65" customWidth="1"/>
-    <col min="15868" max="15868" width="20.85546875" style="65" customWidth="1"/>
-    <col min="15869" max="15869" width="19.42578125" style="65" customWidth="1"/>
-    <col min="15870" max="15870" width="11.85546875" style="65" customWidth="1"/>
-    <col min="15871" max="15871" width="10.42578125" style="65" customWidth="1"/>
-    <col min="15872" max="15872" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15876" width="8.5703125" style="65" customWidth="1"/>
-    <col min="15877" max="15877" width="9.42578125" style="65" customWidth="1"/>
-    <col min="15878" max="15878" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15880" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15881" max="16120" width="9.140625" style="65"/>
-    <col min="16121" max="16121" width="29.140625" style="65" customWidth="1"/>
-    <col min="16122" max="16122" width="46.42578125" style="65" customWidth="1"/>
-    <col min="16123" max="16123" width="39.42578125" style="65" customWidth="1"/>
-    <col min="16124" max="16124" width="20.85546875" style="65" customWidth="1"/>
-    <col min="16125" max="16125" width="19.42578125" style="65" customWidth="1"/>
-    <col min="16126" max="16126" width="11.85546875" style="65" customWidth="1"/>
-    <col min="16127" max="16127" width="10.42578125" style="65" customWidth="1"/>
-    <col min="16128" max="16128" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="13.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="8.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16132" width="8.5703125" style="65" customWidth="1"/>
-    <col min="16133" max="16133" width="9.42578125" style="65" customWidth="1"/>
-    <col min="16134" max="16134" width="7.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16136" width="10.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16384" width="9.140625" style="65"/>
+    <col min="8" max="14" width="6.33203125" style="65" customWidth="1"/>
+    <col min="15" max="21" width="6.109375" style="65" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="65"/>
+    <col min="23" max="248" width="9.109375" style="65"/>
+    <col min="249" max="249" width="29.109375" style="65" customWidth="1"/>
+    <col min="250" max="250" width="46.44140625" style="65" customWidth="1"/>
+    <col min="251" max="251" width="39.44140625" style="65" customWidth="1"/>
+    <col min="252" max="252" width="20.88671875" style="65" customWidth="1"/>
+    <col min="253" max="253" width="19.44140625" style="65" customWidth="1"/>
+    <col min="254" max="254" width="11.88671875" style="65" customWidth="1"/>
+    <col min="255" max="255" width="10.44140625" style="65" customWidth="1"/>
+    <col min="256" max="256" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="259" max="260" width="8.5546875" style="65" customWidth="1"/>
+    <col min="261" max="261" width="9.44140625" style="65" customWidth="1"/>
+    <col min="262" max="262" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="265" max="504" width="9.109375" style="65"/>
+    <col min="505" max="505" width="29.109375" style="65" customWidth="1"/>
+    <col min="506" max="506" width="46.44140625" style="65" customWidth="1"/>
+    <col min="507" max="507" width="39.44140625" style="65" customWidth="1"/>
+    <col min="508" max="508" width="20.88671875" style="65" customWidth="1"/>
+    <col min="509" max="509" width="19.44140625" style="65" customWidth="1"/>
+    <col min="510" max="510" width="11.88671875" style="65" customWidth="1"/>
+    <col min="511" max="511" width="10.44140625" style="65" customWidth="1"/>
+    <col min="512" max="512" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="515" max="516" width="8.5546875" style="65" customWidth="1"/>
+    <col min="517" max="517" width="9.44140625" style="65" customWidth="1"/>
+    <col min="518" max="518" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="519" max="520" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="521" max="760" width="9.109375" style="65"/>
+    <col min="761" max="761" width="29.109375" style="65" customWidth="1"/>
+    <col min="762" max="762" width="46.44140625" style="65" customWidth="1"/>
+    <col min="763" max="763" width="39.44140625" style="65" customWidth="1"/>
+    <col min="764" max="764" width="20.88671875" style="65" customWidth="1"/>
+    <col min="765" max="765" width="19.44140625" style="65" customWidth="1"/>
+    <col min="766" max="766" width="11.88671875" style="65" customWidth="1"/>
+    <col min="767" max="767" width="10.44140625" style="65" customWidth="1"/>
+    <col min="768" max="768" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="771" max="772" width="8.5546875" style="65" customWidth="1"/>
+    <col min="773" max="773" width="9.44140625" style="65" customWidth="1"/>
+    <col min="774" max="774" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="777" max="1016" width="9.109375" style="65"/>
+    <col min="1017" max="1017" width="29.109375" style="65" customWidth="1"/>
+    <col min="1018" max="1018" width="46.44140625" style="65" customWidth="1"/>
+    <col min="1019" max="1019" width="39.44140625" style="65" customWidth="1"/>
+    <col min="1020" max="1020" width="20.88671875" style="65" customWidth="1"/>
+    <col min="1021" max="1021" width="19.44140625" style="65" customWidth="1"/>
+    <col min="1022" max="1022" width="11.88671875" style="65" customWidth="1"/>
+    <col min="1023" max="1023" width="10.44140625" style="65" customWidth="1"/>
+    <col min="1024" max="1024" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1028" width="8.5546875" style="65" customWidth="1"/>
+    <col min="1029" max="1029" width="9.44140625" style="65" customWidth="1"/>
+    <col min="1030" max="1030" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1032" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1272" width="9.109375" style="65"/>
+    <col min="1273" max="1273" width="29.109375" style="65" customWidth="1"/>
+    <col min="1274" max="1274" width="46.44140625" style="65" customWidth="1"/>
+    <col min="1275" max="1275" width="39.44140625" style="65" customWidth="1"/>
+    <col min="1276" max="1276" width="20.88671875" style="65" customWidth="1"/>
+    <col min="1277" max="1277" width="19.44140625" style="65" customWidth="1"/>
+    <col min="1278" max="1278" width="11.88671875" style="65" customWidth="1"/>
+    <col min="1279" max="1279" width="10.44140625" style="65" customWidth="1"/>
+    <col min="1280" max="1280" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1284" width="8.5546875" style="65" customWidth="1"/>
+    <col min="1285" max="1285" width="9.44140625" style="65" customWidth="1"/>
+    <col min="1286" max="1286" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1288" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1528" width="9.109375" style="65"/>
+    <col min="1529" max="1529" width="29.109375" style="65" customWidth="1"/>
+    <col min="1530" max="1530" width="46.44140625" style="65" customWidth="1"/>
+    <col min="1531" max="1531" width="39.44140625" style="65" customWidth="1"/>
+    <col min="1532" max="1532" width="20.88671875" style="65" customWidth="1"/>
+    <col min="1533" max="1533" width="19.44140625" style="65" customWidth="1"/>
+    <col min="1534" max="1534" width="11.88671875" style="65" customWidth="1"/>
+    <col min="1535" max="1535" width="10.44140625" style="65" customWidth="1"/>
+    <col min="1536" max="1536" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1540" width="8.5546875" style="65" customWidth="1"/>
+    <col min="1541" max="1541" width="9.44140625" style="65" customWidth="1"/>
+    <col min="1542" max="1542" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1544" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1784" width="9.109375" style="65"/>
+    <col min="1785" max="1785" width="29.109375" style="65" customWidth="1"/>
+    <col min="1786" max="1786" width="46.44140625" style="65" customWidth="1"/>
+    <col min="1787" max="1787" width="39.44140625" style="65" customWidth="1"/>
+    <col min="1788" max="1788" width="20.88671875" style="65" customWidth="1"/>
+    <col min="1789" max="1789" width="19.44140625" style="65" customWidth="1"/>
+    <col min="1790" max="1790" width="11.88671875" style="65" customWidth="1"/>
+    <col min="1791" max="1791" width="10.44140625" style="65" customWidth="1"/>
+    <col min="1792" max="1792" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1796" width="8.5546875" style="65" customWidth="1"/>
+    <col min="1797" max="1797" width="9.44140625" style="65" customWidth="1"/>
+    <col min="1798" max="1798" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1800" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="1801" max="2040" width="9.109375" style="65"/>
+    <col min="2041" max="2041" width="29.109375" style="65" customWidth="1"/>
+    <col min="2042" max="2042" width="46.44140625" style="65" customWidth="1"/>
+    <col min="2043" max="2043" width="39.44140625" style="65" customWidth="1"/>
+    <col min="2044" max="2044" width="20.88671875" style="65" customWidth="1"/>
+    <col min="2045" max="2045" width="19.44140625" style="65" customWidth="1"/>
+    <col min="2046" max="2046" width="11.88671875" style="65" customWidth="1"/>
+    <col min="2047" max="2047" width="10.44140625" style="65" customWidth="1"/>
+    <col min="2048" max="2048" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2052" width="8.5546875" style="65" customWidth="1"/>
+    <col min="2053" max="2053" width="9.44140625" style="65" customWidth="1"/>
+    <col min="2054" max="2054" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2056" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2296" width="9.109375" style="65"/>
+    <col min="2297" max="2297" width="29.109375" style="65" customWidth="1"/>
+    <col min="2298" max="2298" width="46.44140625" style="65" customWidth="1"/>
+    <col min="2299" max="2299" width="39.44140625" style="65" customWidth="1"/>
+    <col min="2300" max="2300" width="20.88671875" style="65" customWidth="1"/>
+    <col min="2301" max="2301" width="19.44140625" style="65" customWidth="1"/>
+    <col min="2302" max="2302" width="11.88671875" style="65" customWidth="1"/>
+    <col min="2303" max="2303" width="10.44140625" style="65" customWidth="1"/>
+    <col min="2304" max="2304" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2308" width="8.5546875" style="65" customWidth="1"/>
+    <col min="2309" max="2309" width="9.44140625" style="65" customWidth="1"/>
+    <col min="2310" max="2310" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2312" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2552" width="9.109375" style="65"/>
+    <col min="2553" max="2553" width="29.109375" style="65" customWidth="1"/>
+    <col min="2554" max="2554" width="46.44140625" style="65" customWidth="1"/>
+    <col min="2555" max="2555" width="39.44140625" style="65" customWidth="1"/>
+    <col min="2556" max="2556" width="20.88671875" style="65" customWidth="1"/>
+    <col min="2557" max="2557" width="19.44140625" style="65" customWidth="1"/>
+    <col min="2558" max="2558" width="11.88671875" style="65" customWidth="1"/>
+    <col min="2559" max="2559" width="10.44140625" style="65" customWidth="1"/>
+    <col min="2560" max="2560" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2564" width="8.5546875" style="65" customWidth="1"/>
+    <col min="2565" max="2565" width="9.44140625" style="65" customWidth="1"/>
+    <col min="2566" max="2566" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2568" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2808" width="9.109375" style="65"/>
+    <col min="2809" max="2809" width="29.109375" style="65" customWidth="1"/>
+    <col min="2810" max="2810" width="46.44140625" style="65" customWidth="1"/>
+    <col min="2811" max="2811" width="39.44140625" style="65" customWidth="1"/>
+    <col min="2812" max="2812" width="20.88671875" style="65" customWidth="1"/>
+    <col min="2813" max="2813" width="19.44140625" style="65" customWidth="1"/>
+    <col min="2814" max="2814" width="11.88671875" style="65" customWidth="1"/>
+    <col min="2815" max="2815" width="10.44140625" style="65" customWidth="1"/>
+    <col min="2816" max="2816" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2820" width="8.5546875" style="65" customWidth="1"/>
+    <col min="2821" max="2821" width="9.44140625" style="65" customWidth="1"/>
+    <col min="2822" max="2822" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2824" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2825" max="3064" width="9.109375" style="65"/>
+    <col min="3065" max="3065" width="29.109375" style="65" customWidth="1"/>
+    <col min="3066" max="3066" width="46.44140625" style="65" customWidth="1"/>
+    <col min="3067" max="3067" width="39.44140625" style="65" customWidth="1"/>
+    <col min="3068" max="3068" width="20.88671875" style="65" customWidth="1"/>
+    <col min="3069" max="3069" width="19.44140625" style="65" customWidth="1"/>
+    <col min="3070" max="3070" width="11.88671875" style="65" customWidth="1"/>
+    <col min="3071" max="3071" width="10.44140625" style="65" customWidth="1"/>
+    <col min="3072" max="3072" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3076" width="8.5546875" style="65" customWidth="1"/>
+    <col min="3077" max="3077" width="9.44140625" style="65" customWidth="1"/>
+    <col min="3078" max="3078" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3080" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3320" width="9.109375" style="65"/>
+    <col min="3321" max="3321" width="29.109375" style="65" customWidth="1"/>
+    <col min="3322" max="3322" width="46.44140625" style="65" customWidth="1"/>
+    <col min="3323" max="3323" width="39.44140625" style="65" customWidth="1"/>
+    <col min="3324" max="3324" width="20.88671875" style="65" customWidth="1"/>
+    <col min="3325" max="3325" width="19.44140625" style="65" customWidth="1"/>
+    <col min="3326" max="3326" width="11.88671875" style="65" customWidth="1"/>
+    <col min="3327" max="3327" width="10.44140625" style="65" customWidth="1"/>
+    <col min="3328" max="3328" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3332" width="8.5546875" style="65" customWidth="1"/>
+    <col min="3333" max="3333" width="9.44140625" style="65" customWidth="1"/>
+    <col min="3334" max="3334" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3336" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3576" width="9.109375" style="65"/>
+    <col min="3577" max="3577" width="29.109375" style="65" customWidth="1"/>
+    <col min="3578" max="3578" width="46.44140625" style="65" customWidth="1"/>
+    <col min="3579" max="3579" width="39.44140625" style="65" customWidth="1"/>
+    <col min="3580" max="3580" width="20.88671875" style="65" customWidth="1"/>
+    <col min="3581" max="3581" width="19.44140625" style="65" customWidth="1"/>
+    <col min="3582" max="3582" width="11.88671875" style="65" customWidth="1"/>
+    <col min="3583" max="3583" width="10.44140625" style="65" customWidth="1"/>
+    <col min="3584" max="3584" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3588" width="8.5546875" style="65" customWidth="1"/>
+    <col min="3589" max="3589" width="9.44140625" style="65" customWidth="1"/>
+    <col min="3590" max="3590" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3592" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3832" width="9.109375" style="65"/>
+    <col min="3833" max="3833" width="29.109375" style="65" customWidth="1"/>
+    <col min="3834" max="3834" width="46.44140625" style="65" customWidth="1"/>
+    <col min="3835" max="3835" width="39.44140625" style="65" customWidth="1"/>
+    <col min="3836" max="3836" width="20.88671875" style="65" customWidth="1"/>
+    <col min="3837" max="3837" width="19.44140625" style="65" customWidth="1"/>
+    <col min="3838" max="3838" width="11.88671875" style="65" customWidth="1"/>
+    <col min="3839" max="3839" width="10.44140625" style="65" customWidth="1"/>
+    <col min="3840" max="3840" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3844" width="8.5546875" style="65" customWidth="1"/>
+    <col min="3845" max="3845" width="9.44140625" style="65" customWidth="1"/>
+    <col min="3846" max="3846" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3848" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="3849" max="4088" width="9.109375" style="65"/>
+    <col min="4089" max="4089" width="29.109375" style="65" customWidth="1"/>
+    <col min="4090" max="4090" width="46.44140625" style="65" customWidth="1"/>
+    <col min="4091" max="4091" width="39.44140625" style="65" customWidth="1"/>
+    <col min="4092" max="4092" width="20.88671875" style="65" customWidth="1"/>
+    <col min="4093" max="4093" width="19.44140625" style="65" customWidth="1"/>
+    <col min="4094" max="4094" width="11.88671875" style="65" customWidth="1"/>
+    <col min="4095" max="4095" width="10.44140625" style="65" customWidth="1"/>
+    <col min="4096" max="4096" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4100" width="8.5546875" style="65" customWidth="1"/>
+    <col min="4101" max="4101" width="9.44140625" style="65" customWidth="1"/>
+    <col min="4102" max="4102" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4104" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4344" width="9.109375" style="65"/>
+    <col min="4345" max="4345" width="29.109375" style="65" customWidth="1"/>
+    <col min="4346" max="4346" width="46.44140625" style="65" customWidth="1"/>
+    <col min="4347" max="4347" width="39.44140625" style="65" customWidth="1"/>
+    <col min="4348" max="4348" width="20.88671875" style="65" customWidth="1"/>
+    <col min="4349" max="4349" width="19.44140625" style="65" customWidth="1"/>
+    <col min="4350" max="4350" width="11.88671875" style="65" customWidth="1"/>
+    <col min="4351" max="4351" width="10.44140625" style="65" customWidth="1"/>
+    <col min="4352" max="4352" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4356" width="8.5546875" style="65" customWidth="1"/>
+    <col min="4357" max="4357" width="9.44140625" style="65" customWidth="1"/>
+    <col min="4358" max="4358" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4360" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4600" width="9.109375" style="65"/>
+    <col min="4601" max="4601" width="29.109375" style="65" customWidth="1"/>
+    <col min="4602" max="4602" width="46.44140625" style="65" customWidth="1"/>
+    <col min="4603" max="4603" width="39.44140625" style="65" customWidth="1"/>
+    <col min="4604" max="4604" width="20.88671875" style="65" customWidth="1"/>
+    <col min="4605" max="4605" width="19.44140625" style="65" customWidth="1"/>
+    <col min="4606" max="4606" width="11.88671875" style="65" customWidth="1"/>
+    <col min="4607" max="4607" width="10.44140625" style="65" customWidth="1"/>
+    <col min="4608" max="4608" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4612" width="8.5546875" style="65" customWidth="1"/>
+    <col min="4613" max="4613" width="9.44140625" style="65" customWidth="1"/>
+    <col min="4614" max="4614" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4616" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4856" width="9.109375" style="65"/>
+    <col min="4857" max="4857" width="29.109375" style="65" customWidth="1"/>
+    <col min="4858" max="4858" width="46.44140625" style="65" customWidth="1"/>
+    <col min="4859" max="4859" width="39.44140625" style="65" customWidth="1"/>
+    <col min="4860" max="4860" width="20.88671875" style="65" customWidth="1"/>
+    <col min="4861" max="4861" width="19.44140625" style="65" customWidth="1"/>
+    <col min="4862" max="4862" width="11.88671875" style="65" customWidth="1"/>
+    <col min="4863" max="4863" width="10.44140625" style="65" customWidth="1"/>
+    <col min="4864" max="4864" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4868" width="8.5546875" style="65" customWidth="1"/>
+    <col min="4869" max="4869" width="9.44140625" style="65" customWidth="1"/>
+    <col min="4870" max="4870" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4872" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="4873" max="5112" width="9.109375" style="65"/>
+    <col min="5113" max="5113" width="29.109375" style="65" customWidth="1"/>
+    <col min="5114" max="5114" width="46.44140625" style="65" customWidth="1"/>
+    <col min="5115" max="5115" width="39.44140625" style="65" customWidth="1"/>
+    <col min="5116" max="5116" width="20.88671875" style="65" customWidth="1"/>
+    <col min="5117" max="5117" width="19.44140625" style="65" customWidth="1"/>
+    <col min="5118" max="5118" width="11.88671875" style="65" customWidth="1"/>
+    <col min="5119" max="5119" width="10.44140625" style="65" customWidth="1"/>
+    <col min="5120" max="5120" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5124" width="8.5546875" style="65" customWidth="1"/>
+    <col min="5125" max="5125" width="9.44140625" style="65" customWidth="1"/>
+    <col min="5126" max="5126" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5128" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5368" width="9.109375" style="65"/>
+    <col min="5369" max="5369" width="29.109375" style="65" customWidth="1"/>
+    <col min="5370" max="5370" width="46.44140625" style="65" customWidth="1"/>
+    <col min="5371" max="5371" width="39.44140625" style="65" customWidth="1"/>
+    <col min="5372" max="5372" width="20.88671875" style="65" customWidth="1"/>
+    <col min="5373" max="5373" width="19.44140625" style="65" customWidth="1"/>
+    <col min="5374" max="5374" width="11.88671875" style="65" customWidth="1"/>
+    <col min="5375" max="5375" width="10.44140625" style="65" customWidth="1"/>
+    <col min="5376" max="5376" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5380" width="8.5546875" style="65" customWidth="1"/>
+    <col min="5381" max="5381" width="9.44140625" style="65" customWidth="1"/>
+    <col min="5382" max="5382" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5384" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5624" width="9.109375" style="65"/>
+    <col min="5625" max="5625" width="29.109375" style="65" customWidth="1"/>
+    <col min="5626" max="5626" width="46.44140625" style="65" customWidth="1"/>
+    <col min="5627" max="5627" width="39.44140625" style="65" customWidth="1"/>
+    <col min="5628" max="5628" width="20.88671875" style="65" customWidth="1"/>
+    <col min="5629" max="5629" width="19.44140625" style="65" customWidth="1"/>
+    <col min="5630" max="5630" width="11.88671875" style="65" customWidth="1"/>
+    <col min="5631" max="5631" width="10.44140625" style="65" customWidth="1"/>
+    <col min="5632" max="5632" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5636" width="8.5546875" style="65" customWidth="1"/>
+    <col min="5637" max="5637" width="9.44140625" style="65" customWidth="1"/>
+    <col min="5638" max="5638" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5640" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5880" width="9.109375" style="65"/>
+    <col min="5881" max="5881" width="29.109375" style="65" customWidth="1"/>
+    <col min="5882" max="5882" width="46.44140625" style="65" customWidth="1"/>
+    <col min="5883" max="5883" width="39.44140625" style="65" customWidth="1"/>
+    <col min="5884" max="5884" width="20.88671875" style="65" customWidth="1"/>
+    <col min="5885" max="5885" width="19.44140625" style="65" customWidth="1"/>
+    <col min="5886" max="5886" width="11.88671875" style="65" customWidth="1"/>
+    <col min="5887" max="5887" width="10.44140625" style="65" customWidth="1"/>
+    <col min="5888" max="5888" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5892" width="8.5546875" style="65" customWidth="1"/>
+    <col min="5893" max="5893" width="9.44140625" style="65" customWidth="1"/>
+    <col min="5894" max="5894" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5896" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="5897" max="6136" width="9.109375" style="65"/>
+    <col min="6137" max="6137" width="29.109375" style="65" customWidth="1"/>
+    <col min="6138" max="6138" width="46.44140625" style="65" customWidth="1"/>
+    <col min="6139" max="6139" width="39.44140625" style="65" customWidth="1"/>
+    <col min="6140" max="6140" width="20.88671875" style="65" customWidth="1"/>
+    <col min="6141" max="6141" width="19.44140625" style="65" customWidth="1"/>
+    <col min="6142" max="6142" width="11.88671875" style="65" customWidth="1"/>
+    <col min="6143" max="6143" width="10.44140625" style="65" customWidth="1"/>
+    <col min="6144" max="6144" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6148" width="8.5546875" style="65" customWidth="1"/>
+    <col min="6149" max="6149" width="9.44140625" style="65" customWidth="1"/>
+    <col min="6150" max="6150" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6152" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6392" width="9.109375" style="65"/>
+    <col min="6393" max="6393" width="29.109375" style="65" customWidth="1"/>
+    <col min="6394" max="6394" width="46.44140625" style="65" customWidth="1"/>
+    <col min="6395" max="6395" width="39.44140625" style="65" customWidth="1"/>
+    <col min="6396" max="6396" width="20.88671875" style="65" customWidth="1"/>
+    <col min="6397" max="6397" width="19.44140625" style="65" customWidth="1"/>
+    <col min="6398" max="6398" width="11.88671875" style="65" customWidth="1"/>
+    <col min="6399" max="6399" width="10.44140625" style="65" customWidth="1"/>
+    <col min="6400" max="6400" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6404" width="8.5546875" style="65" customWidth="1"/>
+    <col min="6405" max="6405" width="9.44140625" style="65" customWidth="1"/>
+    <col min="6406" max="6406" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6408" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6648" width="9.109375" style="65"/>
+    <col min="6649" max="6649" width="29.109375" style="65" customWidth="1"/>
+    <col min="6650" max="6650" width="46.44140625" style="65" customWidth="1"/>
+    <col min="6651" max="6651" width="39.44140625" style="65" customWidth="1"/>
+    <col min="6652" max="6652" width="20.88671875" style="65" customWidth="1"/>
+    <col min="6653" max="6653" width="19.44140625" style="65" customWidth="1"/>
+    <col min="6654" max="6654" width="11.88671875" style="65" customWidth="1"/>
+    <col min="6655" max="6655" width="10.44140625" style="65" customWidth="1"/>
+    <col min="6656" max="6656" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6660" width="8.5546875" style="65" customWidth="1"/>
+    <col min="6661" max="6661" width="9.44140625" style="65" customWidth="1"/>
+    <col min="6662" max="6662" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6664" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6904" width="9.109375" style="65"/>
+    <col min="6905" max="6905" width="29.109375" style="65" customWidth="1"/>
+    <col min="6906" max="6906" width="46.44140625" style="65" customWidth="1"/>
+    <col min="6907" max="6907" width="39.44140625" style="65" customWidth="1"/>
+    <col min="6908" max="6908" width="20.88671875" style="65" customWidth="1"/>
+    <col min="6909" max="6909" width="19.44140625" style="65" customWidth="1"/>
+    <col min="6910" max="6910" width="11.88671875" style="65" customWidth="1"/>
+    <col min="6911" max="6911" width="10.44140625" style="65" customWidth="1"/>
+    <col min="6912" max="6912" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6916" width="8.5546875" style="65" customWidth="1"/>
+    <col min="6917" max="6917" width="9.44140625" style="65" customWidth="1"/>
+    <col min="6918" max="6918" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6920" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="6921" max="7160" width="9.109375" style="65"/>
+    <col min="7161" max="7161" width="29.109375" style="65" customWidth="1"/>
+    <col min="7162" max="7162" width="46.44140625" style="65" customWidth="1"/>
+    <col min="7163" max="7163" width="39.44140625" style="65" customWidth="1"/>
+    <col min="7164" max="7164" width="20.88671875" style="65" customWidth="1"/>
+    <col min="7165" max="7165" width="19.44140625" style="65" customWidth="1"/>
+    <col min="7166" max="7166" width="11.88671875" style="65" customWidth="1"/>
+    <col min="7167" max="7167" width="10.44140625" style="65" customWidth="1"/>
+    <col min="7168" max="7168" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7172" width="8.5546875" style="65" customWidth="1"/>
+    <col min="7173" max="7173" width="9.44140625" style="65" customWidth="1"/>
+    <col min="7174" max="7174" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7176" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7416" width="9.109375" style="65"/>
+    <col min="7417" max="7417" width="29.109375" style="65" customWidth="1"/>
+    <col min="7418" max="7418" width="46.44140625" style="65" customWidth="1"/>
+    <col min="7419" max="7419" width="39.44140625" style="65" customWidth="1"/>
+    <col min="7420" max="7420" width="20.88671875" style="65" customWidth="1"/>
+    <col min="7421" max="7421" width="19.44140625" style="65" customWidth="1"/>
+    <col min="7422" max="7422" width="11.88671875" style="65" customWidth="1"/>
+    <col min="7423" max="7423" width="10.44140625" style="65" customWidth="1"/>
+    <col min="7424" max="7424" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7428" width="8.5546875" style="65" customWidth="1"/>
+    <col min="7429" max="7429" width="9.44140625" style="65" customWidth="1"/>
+    <col min="7430" max="7430" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7432" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7672" width="9.109375" style="65"/>
+    <col min="7673" max="7673" width="29.109375" style="65" customWidth="1"/>
+    <col min="7674" max="7674" width="46.44140625" style="65" customWidth="1"/>
+    <col min="7675" max="7675" width="39.44140625" style="65" customWidth="1"/>
+    <col min="7676" max="7676" width="20.88671875" style="65" customWidth="1"/>
+    <col min="7677" max="7677" width="19.44140625" style="65" customWidth="1"/>
+    <col min="7678" max="7678" width="11.88671875" style="65" customWidth="1"/>
+    <col min="7679" max="7679" width="10.44140625" style="65" customWidth="1"/>
+    <col min="7680" max="7680" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7684" width="8.5546875" style="65" customWidth="1"/>
+    <col min="7685" max="7685" width="9.44140625" style="65" customWidth="1"/>
+    <col min="7686" max="7686" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7688" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7928" width="9.109375" style="65"/>
+    <col min="7929" max="7929" width="29.109375" style="65" customWidth="1"/>
+    <col min="7930" max="7930" width="46.44140625" style="65" customWidth="1"/>
+    <col min="7931" max="7931" width="39.44140625" style="65" customWidth="1"/>
+    <col min="7932" max="7932" width="20.88671875" style="65" customWidth="1"/>
+    <col min="7933" max="7933" width="19.44140625" style="65" customWidth="1"/>
+    <col min="7934" max="7934" width="11.88671875" style="65" customWidth="1"/>
+    <col min="7935" max="7935" width="10.44140625" style="65" customWidth="1"/>
+    <col min="7936" max="7936" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7940" width="8.5546875" style="65" customWidth="1"/>
+    <col min="7941" max="7941" width="9.44140625" style="65" customWidth="1"/>
+    <col min="7942" max="7942" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7944" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="7945" max="8184" width="9.109375" style="65"/>
+    <col min="8185" max="8185" width="29.109375" style="65" customWidth="1"/>
+    <col min="8186" max="8186" width="46.44140625" style="65" customWidth="1"/>
+    <col min="8187" max="8187" width="39.44140625" style="65" customWidth="1"/>
+    <col min="8188" max="8188" width="20.88671875" style="65" customWidth="1"/>
+    <col min="8189" max="8189" width="19.44140625" style="65" customWidth="1"/>
+    <col min="8190" max="8190" width="11.88671875" style="65" customWidth="1"/>
+    <col min="8191" max="8191" width="10.44140625" style="65" customWidth="1"/>
+    <col min="8192" max="8192" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8196" width="8.5546875" style="65" customWidth="1"/>
+    <col min="8197" max="8197" width="9.44140625" style="65" customWidth="1"/>
+    <col min="8198" max="8198" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8200" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8440" width="9.109375" style="65"/>
+    <col min="8441" max="8441" width="29.109375" style="65" customWidth="1"/>
+    <col min="8442" max="8442" width="46.44140625" style="65" customWidth="1"/>
+    <col min="8443" max="8443" width="39.44140625" style="65" customWidth="1"/>
+    <col min="8444" max="8444" width="20.88671875" style="65" customWidth="1"/>
+    <col min="8445" max="8445" width="19.44140625" style="65" customWidth="1"/>
+    <col min="8446" max="8446" width="11.88671875" style="65" customWidth="1"/>
+    <col min="8447" max="8447" width="10.44140625" style="65" customWidth="1"/>
+    <col min="8448" max="8448" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8452" width="8.5546875" style="65" customWidth="1"/>
+    <col min="8453" max="8453" width="9.44140625" style="65" customWidth="1"/>
+    <col min="8454" max="8454" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8456" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8696" width="9.109375" style="65"/>
+    <col min="8697" max="8697" width="29.109375" style="65" customWidth="1"/>
+    <col min="8698" max="8698" width="46.44140625" style="65" customWidth="1"/>
+    <col min="8699" max="8699" width="39.44140625" style="65" customWidth="1"/>
+    <col min="8700" max="8700" width="20.88671875" style="65" customWidth="1"/>
+    <col min="8701" max="8701" width="19.44140625" style="65" customWidth="1"/>
+    <col min="8702" max="8702" width="11.88671875" style="65" customWidth="1"/>
+    <col min="8703" max="8703" width="10.44140625" style="65" customWidth="1"/>
+    <col min="8704" max="8704" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8708" width="8.5546875" style="65" customWidth="1"/>
+    <col min="8709" max="8709" width="9.44140625" style="65" customWidth="1"/>
+    <col min="8710" max="8710" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8712" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8952" width="9.109375" style="65"/>
+    <col min="8953" max="8953" width="29.109375" style="65" customWidth="1"/>
+    <col min="8954" max="8954" width="46.44140625" style="65" customWidth="1"/>
+    <col min="8955" max="8955" width="39.44140625" style="65" customWidth="1"/>
+    <col min="8956" max="8956" width="20.88671875" style="65" customWidth="1"/>
+    <col min="8957" max="8957" width="19.44140625" style="65" customWidth="1"/>
+    <col min="8958" max="8958" width="11.88671875" style="65" customWidth="1"/>
+    <col min="8959" max="8959" width="10.44140625" style="65" customWidth="1"/>
+    <col min="8960" max="8960" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8964" width="8.5546875" style="65" customWidth="1"/>
+    <col min="8965" max="8965" width="9.44140625" style="65" customWidth="1"/>
+    <col min="8966" max="8966" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8968" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8969" max="9208" width="9.109375" style="65"/>
+    <col min="9209" max="9209" width="29.109375" style="65" customWidth="1"/>
+    <col min="9210" max="9210" width="46.44140625" style="65" customWidth="1"/>
+    <col min="9211" max="9211" width="39.44140625" style="65" customWidth="1"/>
+    <col min="9212" max="9212" width="20.88671875" style="65" customWidth="1"/>
+    <col min="9213" max="9213" width="19.44140625" style="65" customWidth="1"/>
+    <col min="9214" max="9214" width="11.88671875" style="65" customWidth="1"/>
+    <col min="9215" max="9215" width="10.44140625" style="65" customWidth="1"/>
+    <col min="9216" max="9216" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9220" width="8.5546875" style="65" customWidth="1"/>
+    <col min="9221" max="9221" width="9.44140625" style="65" customWidth="1"/>
+    <col min="9222" max="9222" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9224" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9464" width="9.109375" style="65"/>
+    <col min="9465" max="9465" width="29.109375" style="65" customWidth="1"/>
+    <col min="9466" max="9466" width="46.44140625" style="65" customWidth="1"/>
+    <col min="9467" max="9467" width="39.44140625" style="65" customWidth="1"/>
+    <col min="9468" max="9468" width="20.88671875" style="65" customWidth="1"/>
+    <col min="9469" max="9469" width="19.44140625" style="65" customWidth="1"/>
+    <col min="9470" max="9470" width="11.88671875" style="65" customWidth="1"/>
+    <col min="9471" max="9471" width="10.44140625" style="65" customWidth="1"/>
+    <col min="9472" max="9472" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9476" width="8.5546875" style="65" customWidth="1"/>
+    <col min="9477" max="9477" width="9.44140625" style="65" customWidth="1"/>
+    <col min="9478" max="9478" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9480" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9720" width="9.109375" style="65"/>
+    <col min="9721" max="9721" width="29.109375" style="65" customWidth="1"/>
+    <col min="9722" max="9722" width="46.44140625" style="65" customWidth="1"/>
+    <col min="9723" max="9723" width="39.44140625" style="65" customWidth="1"/>
+    <col min="9724" max="9724" width="20.88671875" style="65" customWidth="1"/>
+    <col min="9725" max="9725" width="19.44140625" style="65" customWidth="1"/>
+    <col min="9726" max="9726" width="11.88671875" style="65" customWidth="1"/>
+    <col min="9727" max="9727" width="10.44140625" style="65" customWidth="1"/>
+    <col min="9728" max="9728" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9732" width="8.5546875" style="65" customWidth="1"/>
+    <col min="9733" max="9733" width="9.44140625" style="65" customWidth="1"/>
+    <col min="9734" max="9734" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9736" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9976" width="9.109375" style="65"/>
+    <col min="9977" max="9977" width="29.109375" style="65" customWidth="1"/>
+    <col min="9978" max="9978" width="46.44140625" style="65" customWidth="1"/>
+    <col min="9979" max="9979" width="39.44140625" style="65" customWidth="1"/>
+    <col min="9980" max="9980" width="20.88671875" style="65" customWidth="1"/>
+    <col min="9981" max="9981" width="19.44140625" style="65" customWidth="1"/>
+    <col min="9982" max="9982" width="11.88671875" style="65" customWidth="1"/>
+    <col min="9983" max="9983" width="10.44140625" style="65" customWidth="1"/>
+    <col min="9984" max="9984" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9988" width="8.5546875" style="65" customWidth="1"/>
+    <col min="9989" max="9989" width="9.44140625" style="65" customWidth="1"/>
+    <col min="9990" max="9990" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9992" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="9993" max="10232" width="9.109375" style="65"/>
+    <col min="10233" max="10233" width="29.109375" style="65" customWidth="1"/>
+    <col min="10234" max="10234" width="46.44140625" style="65" customWidth="1"/>
+    <col min="10235" max="10235" width="39.44140625" style="65" customWidth="1"/>
+    <col min="10236" max="10236" width="20.88671875" style="65" customWidth="1"/>
+    <col min="10237" max="10237" width="19.44140625" style="65" customWidth="1"/>
+    <col min="10238" max="10238" width="11.88671875" style="65" customWidth="1"/>
+    <col min="10239" max="10239" width="10.44140625" style="65" customWidth="1"/>
+    <col min="10240" max="10240" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10244" width="8.5546875" style="65" customWidth="1"/>
+    <col min="10245" max="10245" width="9.44140625" style="65" customWidth="1"/>
+    <col min="10246" max="10246" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10248" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10488" width="9.109375" style="65"/>
+    <col min="10489" max="10489" width="29.109375" style="65" customWidth="1"/>
+    <col min="10490" max="10490" width="46.44140625" style="65" customWidth="1"/>
+    <col min="10491" max="10491" width="39.44140625" style="65" customWidth="1"/>
+    <col min="10492" max="10492" width="20.88671875" style="65" customWidth="1"/>
+    <col min="10493" max="10493" width="19.44140625" style="65" customWidth="1"/>
+    <col min="10494" max="10494" width="11.88671875" style="65" customWidth="1"/>
+    <col min="10495" max="10495" width="10.44140625" style="65" customWidth="1"/>
+    <col min="10496" max="10496" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10500" width="8.5546875" style="65" customWidth="1"/>
+    <col min="10501" max="10501" width="9.44140625" style="65" customWidth="1"/>
+    <col min="10502" max="10502" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10504" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10744" width="9.109375" style="65"/>
+    <col min="10745" max="10745" width="29.109375" style="65" customWidth="1"/>
+    <col min="10746" max="10746" width="46.44140625" style="65" customWidth="1"/>
+    <col min="10747" max="10747" width="39.44140625" style="65" customWidth="1"/>
+    <col min="10748" max="10748" width="20.88671875" style="65" customWidth="1"/>
+    <col min="10749" max="10749" width="19.44140625" style="65" customWidth="1"/>
+    <col min="10750" max="10750" width="11.88671875" style="65" customWidth="1"/>
+    <col min="10751" max="10751" width="10.44140625" style="65" customWidth="1"/>
+    <col min="10752" max="10752" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10756" width="8.5546875" style="65" customWidth="1"/>
+    <col min="10757" max="10757" width="9.44140625" style="65" customWidth="1"/>
+    <col min="10758" max="10758" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10760" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="10761" max="11000" width="9.109375" style="65"/>
+    <col min="11001" max="11001" width="29.109375" style="65" customWidth="1"/>
+    <col min="11002" max="11002" width="46.44140625" style="65" customWidth="1"/>
+    <col min="11003" max="11003" width="39.44140625" style="65" customWidth="1"/>
+    <col min="11004" max="11004" width="20.88671875" style="65" customWidth="1"/>
+    <col min="11005" max="11005" width="19.44140625" style="65" customWidth="1"/>
+    <col min="11006" max="11006" width="11.88671875" style="65" customWidth="1"/>
+    <col min="11007" max="11007" width="10.44140625" style="65" customWidth="1"/>
+    <col min="11008" max="11008" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11012" width="8.5546875" style="65" customWidth="1"/>
+    <col min="11013" max="11013" width="9.44140625" style="65" customWidth="1"/>
+    <col min="11014" max="11014" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11016" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11256" width="9.109375" style="65"/>
+    <col min="11257" max="11257" width="29.109375" style="65" customWidth="1"/>
+    <col min="11258" max="11258" width="46.44140625" style="65" customWidth="1"/>
+    <col min="11259" max="11259" width="39.44140625" style="65" customWidth="1"/>
+    <col min="11260" max="11260" width="20.88671875" style="65" customWidth="1"/>
+    <col min="11261" max="11261" width="19.44140625" style="65" customWidth="1"/>
+    <col min="11262" max="11262" width="11.88671875" style="65" customWidth="1"/>
+    <col min="11263" max="11263" width="10.44140625" style="65" customWidth="1"/>
+    <col min="11264" max="11264" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11268" width="8.5546875" style="65" customWidth="1"/>
+    <col min="11269" max="11269" width="9.44140625" style="65" customWidth="1"/>
+    <col min="11270" max="11270" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11272" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11512" width="9.109375" style="65"/>
+    <col min="11513" max="11513" width="29.109375" style="65" customWidth="1"/>
+    <col min="11514" max="11514" width="46.44140625" style="65" customWidth="1"/>
+    <col min="11515" max="11515" width="39.44140625" style="65" customWidth="1"/>
+    <col min="11516" max="11516" width="20.88671875" style="65" customWidth="1"/>
+    <col min="11517" max="11517" width="19.44140625" style="65" customWidth="1"/>
+    <col min="11518" max="11518" width="11.88671875" style="65" customWidth="1"/>
+    <col min="11519" max="11519" width="10.44140625" style="65" customWidth="1"/>
+    <col min="11520" max="11520" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11524" width="8.5546875" style="65" customWidth="1"/>
+    <col min="11525" max="11525" width="9.44140625" style="65" customWidth="1"/>
+    <col min="11526" max="11526" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11528" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11768" width="9.109375" style="65"/>
+    <col min="11769" max="11769" width="29.109375" style="65" customWidth="1"/>
+    <col min="11770" max="11770" width="46.44140625" style="65" customWidth="1"/>
+    <col min="11771" max="11771" width="39.44140625" style="65" customWidth="1"/>
+    <col min="11772" max="11772" width="20.88671875" style="65" customWidth="1"/>
+    <col min="11773" max="11773" width="19.44140625" style="65" customWidth="1"/>
+    <col min="11774" max="11774" width="11.88671875" style="65" customWidth="1"/>
+    <col min="11775" max="11775" width="10.44140625" style="65" customWidth="1"/>
+    <col min="11776" max="11776" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11780" width="8.5546875" style="65" customWidth="1"/>
+    <col min="11781" max="11781" width="9.44140625" style="65" customWidth="1"/>
+    <col min="11782" max="11782" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11784" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="11785" max="12024" width="9.109375" style="65"/>
+    <col min="12025" max="12025" width="29.109375" style="65" customWidth="1"/>
+    <col min="12026" max="12026" width="46.44140625" style="65" customWidth="1"/>
+    <col min="12027" max="12027" width="39.44140625" style="65" customWidth="1"/>
+    <col min="12028" max="12028" width="20.88671875" style="65" customWidth="1"/>
+    <col min="12029" max="12029" width="19.44140625" style="65" customWidth="1"/>
+    <col min="12030" max="12030" width="11.88671875" style="65" customWidth="1"/>
+    <col min="12031" max="12031" width="10.44140625" style="65" customWidth="1"/>
+    <col min="12032" max="12032" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12036" width="8.5546875" style="65" customWidth="1"/>
+    <col min="12037" max="12037" width="9.44140625" style="65" customWidth="1"/>
+    <col min="12038" max="12038" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12040" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12280" width="9.109375" style="65"/>
+    <col min="12281" max="12281" width="29.109375" style="65" customWidth="1"/>
+    <col min="12282" max="12282" width="46.44140625" style="65" customWidth="1"/>
+    <col min="12283" max="12283" width="39.44140625" style="65" customWidth="1"/>
+    <col min="12284" max="12284" width="20.88671875" style="65" customWidth="1"/>
+    <col min="12285" max="12285" width="19.44140625" style="65" customWidth="1"/>
+    <col min="12286" max="12286" width="11.88671875" style="65" customWidth="1"/>
+    <col min="12287" max="12287" width="10.44140625" style="65" customWidth="1"/>
+    <col min="12288" max="12288" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12292" width="8.5546875" style="65" customWidth="1"/>
+    <col min="12293" max="12293" width="9.44140625" style="65" customWidth="1"/>
+    <col min="12294" max="12294" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12296" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12536" width="9.109375" style="65"/>
+    <col min="12537" max="12537" width="29.109375" style="65" customWidth="1"/>
+    <col min="12538" max="12538" width="46.44140625" style="65" customWidth="1"/>
+    <col min="12539" max="12539" width="39.44140625" style="65" customWidth="1"/>
+    <col min="12540" max="12540" width="20.88671875" style="65" customWidth="1"/>
+    <col min="12541" max="12541" width="19.44140625" style="65" customWidth="1"/>
+    <col min="12542" max="12542" width="11.88671875" style="65" customWidth="1"/>
+    <col min="12543" max="12543" width="10.44140625" style="65" customWidth="1"/>
+    <col min="12544" max="12544" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12548" width="8.5546875" style="65" customWidth="1"/>
+    <col min="12549" max="12549" width="9.44140625" style="65" customWidth="1"/>
+    <col min="12550" max="12550" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12552" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12792" width="9.109375" style="65"/>
+    <col min="12793" max="12793" width="29.109375" style="65" customWidth="1"/>
+    <col min="12794" max="12794" width="46.44140625" style="65" customWidth="1"/>
+    <col min="12795" max="12795" width="39.44140625" style="65" customWidth="1"/>
+    <col min="12796" max="12796" width="20.88671875" style="65" customWidth="1"/>
+    <col min="12797" max="12797" width="19.44140625" style="65" customWidth="1"/>
+    <col min="12798" max="12798" width="11.88671875" style="65" customWidth="1"/>
+    <col min="12799" max="12799" width="10.44140625" style="65" customWidth="1"/>
+    <col min="12800" max="12800" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12804" width="8.5546875" style="65" customWidth="1"/>
+    <col min="12805" max="12805" width="9.44140625" style="65" customWidth="1"/>
+    <col min="12806" max="12806" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12808" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="12809" max="13048" width="9.109375" style="65"/>
+    <col min="13049" max="13049" width="29.109375" style="65" customWidth="1"/>
+    <col min="13050" max="13050" width="46.44140625" style="65" customWidth="1"/>
+    <col min="13051" max="13051" width="39.44140625" style="65" customWidth="1"/>
+    <col min="13052" max="13052" width="20.88671875" style="65" customWidth="1"/>
+    <col min="13053" max="13053" width="19.44140625" style="65" customWidth="1"/>
+    <col min="13054" max="13054" width="11.88671875" style="65" customWidth="1"/>
+    <col min="13055" max="13055" width="10.44140625" style="65" customWidth="1"/>
+    <col min="13056" max="13056" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13060" width="8.5546875" style="65" customWidth="1"/>
+    <col min="13061" max="13061" width="9.44140625" style="65" customWidth="1"/>
+    <col min="13062" max="13062" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13064" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13304" width="9.109375" style="65"/>
+    <col min="13305" max="13305" width="29.109375" style="65" customWidth="1"/>
+    <col min="13306" max="13306" width="46.44140625" style="65" customWidth="1"/>
+    <col min="13307" max="13307" width="39.44140625" style="65" customWidth="1"/>
+    <col min="13308" max="13308" width="20.88671875" style="65" customWidth="1"/>
+    <col min="13309" max="13309" width="19.44140625" style="65" customWidth="1"/>
+    <col min="13310" max="13310" width="11.88671875" style="65" customWidth="1"/>
+    <col min="13311" max="13311" width="10.44140625" style="65" customWidth="1"/>
+    <col min="13312" max="13312" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13316" width="8.5546875" style="65" customWidth="1"/>
+    <col min="13317" max="13317" width="9.44140625" style="65" customWidth="1"/>
+    <col min="13318" max="13318" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13320" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13560" width="9.109375" style="65"/>
+    <col min="13561" max="13561" width="29.109375" style="65" customWidth="1"/>
+    <col min="13562" max="13562" width="46.44140625" style="65" customWidth="1"/>
+    <col min="13563" max="13563" width="39.44140625" style="65" customWidth="1"/>
+    <col min="13564" max="13564" width="20.88671875" style="65" customWidth="1"/>
+    <col min="13565" max="13565" width="19.44140625" style="65" customWidth="1"/>
+    <col min="13566" max="13566" width="11.88671875" style="65" customWidth="1"/>
+    <col min="13567" max="13567" width="10.44140625" style="65" customWidth="1"/>
+    <col min="13568" max="13568" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13572" width="8.5546875" style="65" customWidth="1"/>
+    <col min="13573" max="13573" width="9.44140625" style="65" customWidth="1"/>
+    <col min="13574" max="13574" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13576" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13816" width="9.109375" style="65"/>
+    <col min="13817" max="13817" width="29.109375" style="65" customWidth="1"/>
+    <col min="13818" max="13818" width="46.44140625" style="65" customWidth="1"/>
+    <col min="13819" max="13819" width="39.44140625" style="65" customWidth="1"/>
+    <col min="13820" max="13820" width="20.88671875" style="65" customWidth="1"/>
+    <col min="13821" max="13821" width="19.44140625" style="65" customWidth="1"/>
+    <col min="13822" max="13822" width="11.88671875" style="65" customWidth="1"/>
+    <col min="13823" max="13823" width="10.44140625" style="65" customWidth="1"/>
+    <col min="13824" max="13824" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13828" width="8.5546875" style="65" customWidth="1"/>
+    <col min="13829" max="13829" width="9.44140625" style="65" customWidth="1"/>
+    <col min="13830" max="13830" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13832" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="13833" max="14072" width="9.109375" style="65"/>
+    <col min="14073" max="14073" width="29.109375" style="65" customWidth="1"/>
+    <col min="14074" max="14074" width="46.44140625" style="65" customWidth="1"/>
+    <col min="14075" max="14075" width="39.44140625" style="65" customWidth="1"/>
+    <col min="14076" max="14076" width="20.88671875" style="65" customWidth="1"/>
+    <col min="14077" max="14077" width="19.44140625" style="65" customWidth="1"/>
+    <col min="14078" max="14078" width="11.88671875" style="65" customWidth="1"/>
+    <col min="14079" max="14079" width="10.44140625" style="65" customWidth="1"/>
+    <col min="14080" max="14080" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14084" width="8.5546875" style="65" customWidth="1"/>
+    <col min="14085" max="14085" width="9.44140625" style="65" customWidth="1"/>
+    <col min="14086" max="14086" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14088" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14328" width="9.109375" style="65"/>
+    <col min="14329" max="14329" width="29.109375" style="65" customWidth="1"/>
+    <col min="14330" max="14330" width="46.44140625" style="65" customWidth="1"/>
+    <col min="14331" max="14331" width="39.44140625" style="65" customWidth="1"/>
+    <col min="14332" max="14332" width="20.88671875" style="65" customWidth="1"/>
+    <col min="14333" max="14333" width="19.44140625" style="65" customWidth="1"/>
+    <col min="14334" max="14334" width="11.88671875" style="65" customWidth="1"/>
+    <col min="14335" max="14335" width="10.44140625" style="65" customWidth="1"/>
+    <col min="14336" max="14336" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14340" width="8.5546875" style="65" customWidth="1"/>
+    <col min="14341" max="14341" width="9.44140625" style="65" customWidth="1"/>
+    <col min="14342" max="14342" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14344" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14584" width="9.109375" style="65"/>
+    <col min="14585" max="14585" width="29.109375" style="65" customWidth="1"/>
+    <col min="14586" max="14586" width="46.44140625" style="65" customWidth="1"/>
+    <col min="14587" max="14587" width="39.44140625" style="65" customWidth="1"/>
+    <col min="14588" max="14588" width="20.88671875" style="65" customWidth="1"/>
+    <col min="14589" max="14589" width="19.44140625" style="65" customWidth="1"/>
+    <col min="14590" max="14590" width="11.88671875" style="65" customWidth="1"/>
+    <col min="14591" max="14591" width="10.44140625" style="65" customWidth="1"/>
+    <col min="14592" max="14592" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14596" width="8.5546875" style="65" customWidth="1"/>
+    <col min="14597" max="14597" width="9.44140625" style="65" customWidth="1"/>
+    <col min="14598" max="14598" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14600" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14840" width="9.109375" style="65"/>
+    <col min="14841" max="14841" width="29.109375" style="65" customWidth="1"/>
+    <col min="14842" max="14842" width="46.44140625" style="65" customWidth="1"/>
+    <col min="14843" max="14843" width="39.44140625" style="65" customWidth="1"/>
+    <col min="14844" max="14844" width="20.88671875" style="65" customWidth="1"/>
+    <col min="14845" max="14845" width="19.44140625" style="65" customWidth="1"/>
+    <col min="14846" max="14846" width="11.88671875" style="65" customWidth="1"/>
+    <col min="14847" max="14847" width="10.44140625" style="65" customWidth="1"/>
+    <col min="14848" max="14848" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14852" width="8.5546875" style="65" customWidth="1"/>
+    <col min="14853" max="14853" width="9.44140625" style="65" customWidth="1"/>
+    <col min="14854" max="14854" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14856" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="14857" max="15096" width="9.109375" style="65"/>
+    <col min="15097" max="15097" width="29.109375" style="65" customWidth="1"/>
+    <col min="15098" max="15098" width="46.44140625" style="65" customWidth="1"/>
+    <col min="15099" max="15099" width="39.44140625" style="65" customWidth="1"/>
+    <col min="15100" max="15100" width="20.88671875" style="65" customWidth="1"/>
+    <col min="15101" max="15101" width="19.44140625" style="65" customWidth="1"/>
+    <col min="15102" max="15102" width="11.88671875" style="65" customWidth="1"/>
+    <col min="15103" max="15103" width="10.44140625" style="65" customWidth="1"/>
+    <col min="15104" max="15104" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15108" width="8.5546875" style="65" customWidth="1"/>
+    <col min="15109" max="15109" width="9.44140625" style="65" customWidth="1"/>
+    <col min="15110" max="15110" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15112" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15352" width="9.109375" style="65"/>
+    <col min="15353" max="15353" width="29.109375" style="65" customWidth="1"/>
+    <col min="15354" max="15354" width="46.44140625" style="65" customWidth="1"/>
+    <col min="15355" max="15355" width="39.44140625" style="65" customWidth="1"/>
+    <col min="15356" max="15356" width="20.88671875" style="65" customWidth="1"/>
+    <col min="15357" max="15357" width="19.44140625" style="65" customWidth="1"/>
+    <col min="15358" max="15358" width="11.88671875" style="65" customWidth="1"/>
+    <col min="15359" max="15359" width="10.44140625" style="65" customWidth="1"/>
+    <col min="15360" max="15360" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15364" width="8.5546875" style="65" customWidth="1"/>
+    <col min="15365" max="15365" width="9.44140625" style="65" customWidth="1"/>
+    <col min="15366" max="15366" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15368" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15608" width="9.109375" style="65"/>
+    <col min="15609" max="15609" width="29.109375" style="65" customWidth="1"/>
+    <col min="15610" max="15610" width="46.44140625" style="65" customWidth="1"/>
+    <col min="15611" max="15611" width="39.44140625" style="65" customWidth="1"/>
+    <col min="15612" max="15612" width="20.88671875" style="65" customWidth="1"/>
+    <col min="15613" max="15613" width="19.44140625" style="65" customWidth="1"/>
+    <col min="15614" max="15614" width="11.88671875" style="65" customWidth="1"/>
+    <col min="15615" max="15615" width="10.44140625" style="65" customWidth="1"/>
+    <col min="15616" max="15616" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15620" width="8.5546875" style="65" customWidth="1"/>
+    <col min="15621" max="15621" width="9.44140625" style="65" customWidth="1"/>
+    <col min="15622" max="15622" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15624" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15864" width="9.109375" style="65"/>
+    <col min="15865" max="15865" width="29.109375" style="65" customWidth="1"/>
+    <col min="15866" max="15866" width="46.44140625" style="65" customWidth="1"/>
+    <col min="15867" max="15867" width="39.44140625" style="65" customWidth="1"/>
+    <col min="15868" max="15868" width="20.88671875" style="65" customWidth="1"/>
+    <col min="15869" max="15869" width="19.44140625" style="65" customWidth="1"/>
+    <col min="15870" max="15870" width="11.88671875" style="65" customWidth="1"/>
+    <col min="15871" max="15871" width="10.44140625" style="65" customWidth="1"/>
+    <col min="15872" max="15872" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15876" width="8.5546875" style="65" customWidth="1"/>
+    <col min="15877" max="15877" width="9.44140625" style="65" customWidth="1"/>
+    <col min="15878" max="15878" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15880" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="15881" max="16120" width="9.109375" style="65"/>
+    <col min="16121" max="16121" width="29.109375" style="65" customWidth="1"/>
+    <col min="16122" max="16122" width="46.44140625" style="65" customWidth="1"/>
+    <col min="16123" max="16123" width="39.44140625" style="65" customWidth="1"/>
+    <col min="16124" max="16124" width="20.88671875" style="65" customWidth="1"/>
+    <col min="16125" max="16125" width="19.44140625" style="65" customWidth="1"/>
+    <col min="16126" max="16126" width="11.88671875" style="65" customWidth="1"/>
+    <col min="16127" max="16127" width="10.44140625" style="65" customWidth="1"/>
+    <col min="16128" max="16128" width="14.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="13.109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="8.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16132" width="8.5546875" style="65" customWidth="1"/>
+    <col min="16133" max="16133" width="9.44140625" style="65" customWidth="1"/>
+    <col min="16134" max="16134" width="7.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16136" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16384" width="9.109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="18">
+    <row r="2" spans="2:22" ht="17.399999999999999">
       <c r="B2" s="263" t="s">
         <v>673</v>
       </c>
@@ -30392,7 +30667,7 @@
       </c>
       <c r="F4" s="64"/>
     </row>
-    <row r="5" spans="2:22" ht="51">
+    <row r="5" spans="2:22" ht="52.8">
       <c r="B5" s="67" t="s">
         <v>73</v>
       </c>
@@ -30457,7 +30732,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="26.25" thickBot="1">
+    <row r="6" spans="2:22" ht="27" thickBot="1">
       <c r="B6" s="68" t="s">
         <v>135</v>
       </c>
@@ -30512,7 +30787,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="17.45" customHeight="1">
+    <row r="7" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B7" s="85" t="str">
         <f>AGR_Processes!D7</f>
         <v>SECTF_AGR_HC</v>
@@ -30544,7 +30819,7 @@
       <c r="U7" s="221"/>
       <c r="V7" s="213"/>
     </row>
-    <row r="8" spans="2:22" ht="17.45" customHeight="1">
+    <row r="8" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B8" s="86"/>
       <c r="C8" s="86"/>
       <c r="D8" s="81"/>
@@ -30584,7 +30859,7 @@
       </c>
       <c r="V8" s="214"/>
     </row>
-    <row r="9" spans="2:22" ht="17.45" customHeight="1">
+    <row r="9" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B9" s="88" t="str">
         <f>AGR_Processes!D8</f>
         <v>SECTF_AGR_BC</v>
@@ -30617,7 +30892,7 @@
       <c r="U9" s="225"/>
       <c r="V9" s="215"/>
     </row>
-    <row r="10" spans="2:22" ht="17.45" customHeight="1">
+    <row r="10" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B10" s="88"/>
       <c r="C10" s="88"/>
       <c r="D10" s="91"/>
@@ -30643,7 +30918,7 @@
       <c r="U10" s="225"/>
       <c r="V10" s="215"/>
     </row>
-    <row r="11" spans="2:22" ht="17.45" customHeight="1">
+    <row r="11" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B11" s="86" t="str">
         <f>AGR_Processes!D9</f>
         <v>SECTF_AGR_OIL_GSL</v>
@@ -30675,7 +30950,7 @@
       <c r="U11" s="223"/>
       <c r="V11" s="214"/>
     </row>
-    <row r="12" spans="2:22" ht="17.45" customHeight="1">
+    <row r="12" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B12" s="86"/>
       <c r="C12" s="86"/>
       <c r="D12" s="92"/>
@@ -30701,7 +30976,7 @@
       <c r="U12" s="223"/>
       <c r="V12" s="214"/>
     </row>
-    <row r="13" spans="2:22" ht="17.45" customHeight="1">
+    <row r="13" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B13" s="88" t="str">
         <f>AGR_Processes!D10</f>
         <v>SECTF_AGR_OIL_DSL</v>
@@ -30734,7 +31009,7 @@
       <c r="U13" s="225"/>
       <c r="V13" s="215"/>
     </row>
-    <row r="14" spans="2:22" ht="17.45" customHeight="1">
+    <row r="14" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B14" s="88"/>
       <c r="C14" s="88"/>
       <c r="D14" s="91"/>
@@ -30760,7 +31035,7 @@
       <c r="U14" s="225"/>
       <c r="V14" s="215"/>
     </row>
-    <row r="15" spans="2:22" ht="17.45" customHeight="1">
+    <row r="15" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B15" s="86" t="str">
         <f>AGR_Processes!D11</f>
         <v>SECTF_AGR_OIL_LPG</v>
@@ -30792,7 +31067,7 @@
       <c r="U15" s="223"/>
       <c r="V15" s="214"/>
     </row>
-    <row r="16" spans="2:22" ht="17.45" customHeight="1">
+    <row r="16" spans="2:22" ht="17.399999999999999" customHeight="1">
       <c r="B16" s="86"/>
       <c r="C16" s="86"/>
       <c r="D16" s="92"/>
@@ -30818,7 +31093,7 @@
       <c r="U16" s="223"/>
       <c r="V16" s="214"/>
     </row>
-    <row r="17" spans="2:26" ht="17.45" customHeight="1">
+    <row r="17" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B17" s="88" t="str">
         <f>AGR_Processes!D12</f>
         <v>SECTF_AGR_OIL_FUE</v>
@@ -30851,7 +31126,7 @@
       <c r="U17" s="225"/>
       <c r="V17" s="215"/>
     </row>
-    <row r="18" spans="2:26" ht="17.45" customHeight="1">
+    <row r="18" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
       <c r="D18" s="91"/>
@@ -30877,7 +31152,7 @@
       <c r="U18" s="225"/>
       <c r="V18" s="215"/>
     </row>
-    <row r="19" spans="2:26" ht="17.45" customHeight="1">
+    <row r="19" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B19" s="86" t="str">
         <f>AGR_Processes!D13</f>
         <v>SECTF_AGR_NAT_GAS</v>
@@ -30928,7 +31203,7 @@
       <c r="U19" s="223"/>
       <c r="V19" s="214"/>
     </row>
-    <row r="20" spans="2:26" ht="17.45" customHeight="1">
+    <row r="20" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B20" s="86"/>
       <c r="C20" s="86"/>
       <c r="D20" s="92"/>
@@ -30973,7 +31248,7 @@
       </c>
       <c r="V20" s="214"/>
     </row>
-    <row r="21" spans="2:26" ht="17.45" customHeight="1">
+    <row r="21" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B21" s="88" t="s">
         <v>658</v>
       </c>
@@ -31012,7 +31287,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="17.45" customHeight="1">
+    <row r="22" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B22" s="88" t="s">
         <v>658</v>
       </c>
@@ -31040,7 +31315,7 @@
       <c r="U22" s="225"/>
       <c r="V22" s="215"/>
     </row>
-    <row r="23" spans="2:26" ht="17.45" customHeight="1">
+    <row r="23" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B23" s="86" t="str">
         <f>AGR_Processes!D15</f>
         <v>SECTF_AGR_BIOM</v>
@@ -31072,7 +31347,7 @@
       <c r="U23" s="223"/>
       <c r="V23" s="214"/>
     </row>
-    <row r="24" spans="2:26" ht="17.45" customHeight="1">
+    <row r="24" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="92"/>
@@ -31098,7 +31373,7 @@
       <c r="U24" s="223"/>
       <c r="V24" s="214"/>
     </row>
-    <row r="25" spans="2:26" ht="17.45" customHeight="1">
+    <row r="25" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B25" s="88" t="str">
         <f>AGR_Processes!D16</f>
         <v>SECTF_AGR_RDF</v>
@@ -31131,7 +31406,7 @@
       <c r="U25" s="225"/>
       <c r="V25" s="215"/>
     </row>
-    <row r="26" spans="2:26" ht="17.45" customHeight="1">
+    <row r="26" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B26" s="88"/>
       <c r="C26" s="88"/>
       <c r="D26" s="91"/>
@@ -31157,7 +31432,7 @@
       <c r="U26" s="225"/>
       <c r="V26" s="215"/>
     </row>
-    <row r="27" spans="2:26" ht="17.45" customHeight="1">
+    <row r="27" spans="2:26" ht="17.399999999999999" customHeight="1">
       <c r="B27" s="175" t="str">
         <f>AGR_Processes!D17</f>
         <v>SECTF_AGR_ELC</v>
@@ -31422,7 +31697,7 @@
       </c>
       <c r="V32" s="215"/>
     </row>
-    <row r="33" spans="2:22" ht="13.5" thickBot="1">
+    <row r="33" spans="2:22" ht="13.8" thickBot="1">
       <c r="B33" s="157" t="str">
         <f>AGR_Processes!D19</f>
         <v>SECTF_AGR_OTH</v>
@@ -31711,29 +31986,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4FFCCB-0461-4928-A46F-0A6DC8E34E8C}">
   <dimension ref="B2:AF65"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="269" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="269" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="269" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="269" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" style="269" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" style="269" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="269" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="269" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="269"/>
-    <col min="10" max="10" width="9.5703125" style="269" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="269" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="269"/>
-    <col min="14" max="14" width="11.140625" style="269" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="269" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="269"/>
-    <col min="17" max="17" width="15.5703125" style="269" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="269"/>
+    <col min="1" max="1" width="5.5546875" style="269" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="269" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="269" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="269" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" style="269" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" style="269" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="269" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="269" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="269"/>
+    <col min="10" max="10" width="9.5546875" style="269" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="269" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="269"/>
+    <col min="14" max="14" width="11.109375" style="269" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="269" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="269"/>
+    <col min="17" max="17" width="15.5546875" style="269" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="269"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
@@ -31747,7 +32022,7 @@
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
     </row>
-    <row r="3" spans="2:17" ht="25.5">
+    <row r="3" spans="2:17" ht="26.4">
       <c r="B3" s="71" t="s">
         <v>73</v>
       </c>
@@ -31792,7 +32067,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="39" thickBot="1">
+    <row r="4" spans="2:17" ht="40.200000000000003" thickBot="1">
       <c r="B4" s="74" t="s">
         <v>464</v>
       </c>
@@ -32629,7 +32904,7 @@
       <c r="K44" s="244"/>
       <c r="L44" s="244"/>
     </row>
-    <row r="45" spans="2:32" ht="13.5" thickBot="1">
+    <row r="45" spans="2:32" ht="13.8" thickBot="1">
       <c r="B45" s="288"/>
       <c r="C45" s="288"/>
       <c r="D45" s="288"/>
@@ -32645,6 +32920,12 @@
       </c>
       <c r="K45" s="429"/>
       <c r="L45" s="429"/>
+    </row>
+    <row r="48" spans="2:32">
+      <c r="Q48" s="269">
+        <f>SUM(Q5:Q45)</f>
+        <v>39332.424487750002</v>
+      </c>
     </row>
     <row r="49" spans="2:16" ht="12.75" customHeight="1"/>
     <row r="51" spans="2:16" ht="12.75" customHeight="1" thickBot="1">
@@ -32741,7 +33022,7 @@
       <c r="O55" s="302"/>
       <c r="P55" s="303"/>
     </row>
-    <row r="56" spans="2:16" ht="24">
+    <row r="56" spans="2:16" ht="22.2">
       <c r="I56" s="304" t="s">
         <v>711</v>
       </c>
@@ -32763,7 +33044,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="22.5">
+    <row r="57" spans="2:16" ht="21">
       <c r="I57" s="304"/>
       <c r="J57" s="305" t="s">
         <v>717</v>
@@ -32795,7 +33076,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="13.5" thickBot="1">
+    <row r="59" spans="2:16" ht="13.8" thickBot="1">
       <c r="I59" s="309" t="s">
         <v>722</v>
       </c>
@@ -32883,7 +33164,7 @@
       <c r="M64" s="305"/>
       <c r="P64" s="317"/>
     </row>
-    <row r="65" spans="9:16" ht="13.5" thickBot="1">
+    <row r="65" spans="9:16" ht="13.8" thickBot="1">
       <c r="I65" s="318" t="s">
         <v>730</v>
       </c>
@@ -32922,22 +33203,22 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
+    <row r="2" spans="2:11" ht="17.399999999999999">
       <c r="B2" s="263" t="s">
         <v>674</v>
       </c>
@@ -32988,7 +33269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="39" thickBot="1">
+    <row r="6" spans="2:11" ht="53.4" thickBot="1">
       <c r="B6" s="74" t="s">
         <v>464</v>
       </c>
@@ -33956,7 +34237,7 @@
       <c r="J59" s="244"/>
       <c r="K59" s="244"/>
     </row>
-    <row r="60" spans="2:11" ht="13.5" thickBot="1">
+    <row r="60" spans="2:11" ht="13.8" thickBot="1">
       <c r="B60" s="245"/>
       <c r="C60" s="245"/>
       <c r="D60" s="245"/>
@@ -33994,7 +34275,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13.5" thickBot="1">
+    <row r="67" spans="2:5" ht="13.8" thickBot="1">
       <c r="B67" s="255" t="s">
         <v>464</v>
       </c>
@@ -34025,7 +34306,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="13.5" thickBot="1">
+    <row r="69" spans="2:5" ht="13.8" thickBot="1">
       <c r="B69" s="257" t="str">
         <f>AGR_Processes!D28</f>
         <v>AGR_IMP_LAND_RESIDUE</v>
@@ -34048,6 +34329,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8e60135c9ff18117bb10fbbf3d19053f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d29e1eae29b28bc967f17f2b3cf6e7c" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -34290,27 +34591,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD6D0516-5E8B-4628-9E1D-2C24A9B48399}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34327,29 +34633,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>